--- a/premise/data/additional_inventories/lci-vanadium.xlsx
+++ b/premise/data/additional_inventories/lci-vanadium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E11A896-078C-BB4D-8315-FF0CC02AFC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3805D519-2192-A54E-A01B-ACAED65DBCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2568,7 +2568,7 @@
   <dimension ref="A1:T518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7208,7 +7208,7 @@
         <v>7</v>
       </c>
       <c r="F194" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G194" t="s">
         <v>20</v>

--- a/premise/data/additional_inventories/lci-vanadium.xlsx
+++ b/premise/data/additional_inventories/lci-vanadium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3805D519-2192-A54E-A01B-ACAED65DBCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F991D-F664-4D4E-B2F9-58E361536BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="624">
   <si>
     <t>Activity</t>
   </si>
@@ -1805,33 +1805,18 @@
     <t>H2S</t>
   </si>
   <si>
-    <t>20d4d821-f4f7-4017-8810-f822fcdf619e</t>
-  </si>
-  <si>
     <t>Based on literature, (Vionnet, S., Quantis Water Database - Technical Report, 2012). based on literature, (Vionnet, S., Quantis Water Database - Technical Report, 2012).</t>
   </si>
   <si>
-    <t>15dd9676-21fd-4c42-a4cc-e20c9f213b01</t>
-  </si>
-  <si>
-    <t>a636ed9e-f90a-48cb-a180-c75b1fc92cf1</t>
-  </si>
-  <si>
     <t>blast furnace slag, Recycled Content cut-off</t>
   </si>
   <si>
     <t>blast furnace slag</t>
   </si>
   <si>
-    <t>4d059ced-19bf-4b7d-b6ab-90a6b4c0ffa1</t>
-  </si>
-  <si>
     <t>Amount reported by worldsteel (2010) and is representative of the average global situation in 2009. Also based on worldsteel (2010), an internal recovery (recycling) rate of 0% is assumed. Source: Worldsteel (2010). Steel industry by-products. World Steel Association: Brussels, Belgium.</t>
   </si>
   <si>
-    <t>98d3683b-565f-492d-b2df-de9de017bb28</t>
-  </si>
-  <si>
     <t>heat production, at coal coke industrial furnace 1-10MW</t>
   </si>
   <si>
@@ -1841,15 +1826,6 @@
     <t>blast furnace</t>
   </si>
   <si>
-    <t>3878512c-6b81-423f-8711-8f5ff64d905a</t>
-  </si>
-  <si>
-    <t>28f2da0b-78ef-4715-ab9a-db1a5b17b2aa</t>
-  </si>
-  <si>
-    <t>1a852b77-f350-481d-8e7f-3945e3667c96</t>
-  </si>
-  <si>
     <t>market for iron ore, crude ore, 46% Fe</t>
   </si>
   <si>
@@ -1863,12 +1839,6 @@
   </si>
   <si>
     <t>refractory, fireclay, packed</t>
-  </si>
-  <si>
-    <t>17f03698-5d71-472f-b560-380d9952c172</t>
-  </si>
-  <si>
-    <t>d3e019ee-edbe-4774-a4a6-9701cf293d05</t>
   </si>
   <si>
     <t>Source: Weber et al. (2018). Life cycle assessment of a vanadium redox flow battery. Environmental science &amp; technology, 52(18), 10864-10873. https://doi.org/10.1021/acs.est.8b02073Inputs and air emissions from different sources. This dataset covers different situations in the world. As mentionned in the Geography Comment, some inputs and emissions relate to Quebec data. 
@@ -1949,9 +1919,6 @@
     <t>Calculated based on literature values and assumtion. So far there is no mention in the literature thet either allard mine or tellnes mine are being recultivated. It is assumed that the used land is recultivated after 30 years.</t>
   </si>
   <si>
-    <t>379ba5c9-5c3a-43d0-8e2d-605ad9c39e46</t>
-  </si>
-  <si>
     <t>Estimate, based on "limestone quarry operation" and "limestone production, crushed, for mill" datasets.</t>
   </si>
   <si>
@@ -1964,94 +1931,31 @@
     <t>Area of Tellnes mine (Norway) and Allard mine (Canada).</t>
   </si>
   <si>
-    <t>0930b6b8-d9c6-4462-966f-ac7495b63bed</t>
-  </si>
-  <si>
     <t>CORINE 131</t>
   </si>
   <si>
-    <t>626915e9-2424-4059-8b6a-fae47161acdf</t>
-  </si>
-  <si>
     <t>Water, well, in ground</t>
   </si>
   <si>
     <t>Estimate, based on "limestone production, crushed, for mill" dataset.</t>
   </si>
   <si>
-    <t>67c40aae-d403-464d-9649-c12695e43ad8</t>
-  </si>
-  <si>
-    <t>8957330f-d8af-4ecf-aad3-27f04773ccea</t>
-  </si>
-  <si>
-    <t>eff0389a-97da-4ce4-9365-1de4291ec8fb</t>
-  </si>
-  <si>
     <t>ilmenite - magnetite mine operation</t>
   </si>
   <si>
-    <t>48791fc7-373e-4825-ac68-d5c5fd216d1d</t>
-  </si>
-  <si>
-    <t>46f66854-d55f-472f-a570-a7aad4fdcfcc</t>
-  </si>
-  <si>
-    <t>f74e8a5e-0919-4c5b-bb58-236980a49ed2</t>
-  </si>
-  <si>
-    <t>26f457d5-9138-4502-a0b5-a3726ca8efa6</t>
-  </si>
-  <si>
-    <t>a4b558e1-3d6d-4e15-b91f-01f4eb3c2c6b</t>
-  </si>
-  <si>
     <t>Estimate based on U.S. Department of Energy (http://www1.eere.energy.gov/manufacturing/industries_technologies/mining/pdfs/mining_bandwidth.pdf) report describing energy consumption during mining of unspecified minerals.</t>
   </si>
   <si>
-    <t>1151abf1-5ac3-4518-bb20-60f003bb6a31</t>
-  </si>
-  <si>
-    <t>450c689b-248c-4b42-bd53-bd4a7278681f</t>
-  </si>
-  <si>
-    <t>4cc87eb6-20a4-4968-ab90-6d344d46755d</t>
-  </si>
-  <si>
-    <t>78144ef1-6021-401a-b6f9-64725ee63035</t>
-  </si>
-  <si>
     <t>There are two mines, where hard-ore ilmenite is being mined (Cardarelli, 2008, Materials Handbook); Tellnes mine in Norway (http://www.ngu.no/filearchive/102/bulletin436_3.pdf) and Allard Lake mine in Canada (http://apps1.gdr.nrcan.gc.ca/gsc_minerals/gquerycache/vticanada/DP/dp51.html). The annual production of these mines is 550,000 ton of ilmenite/year, respectivelly 100,000 ton of ilmenite/year. Since magnetite is produced in the same amounts the production volume is estimated to be the same as in case of ilmenite. The lifetime of hard-rock ilmenite mine is estimated to be 100 years. Both of these mines are in operation for more than 50 years and there are no signs of possible closing of the mines.</t>
   </si>
   <si>
-    <t>3ae326bd-fb3a-432b-91f7-e50b0ca22d12</t>
-  </si>
-  <si>
     <t>market for petrol, unleaded</t>
   </si>
   <si>
     <t>petrol, unleaded</t>
   </si>
   <si>
-    <t>e5ad8d28-560c-4f9a-87a2-683126258da0</t>
-  </si>
-  <si>
-    <t>e180c07f-fa94-4f7c-8a2f-32cb78f52bd6</t>
-  </si>
-  <si>
-    <t>5c727257-39a4-401f-877f-d868b8bf5674</t>
-  </si>
-  <si>
     <t>Calculated value.</t>
-  </si>
-  <si>
-    <t>70994166-77bb-4fcc-9bbd-725478ee4761</t>
-  </si>
-  <si>
-    <t>78e616a9-c7d1-40d6-9ef8-ed953c81265a</t>
-  </si>
-  <si>
-    <t>b3c58f5d-5815-487c-8b9c-4366e00d22dc</t>
   </si>
   <si>
     <t>Source: Weber et al. (2018). Life cycle assessment of a vanadium redox flow battery. Environmental science &amp; technology, 52(18), 10864-10873. https://doi.org/10.1021/acs.est.8b02073This activity represents the production of secondary low-alloyed steel in an electric arc furnace (EAF). The process comprises the following operations: 1) mixing and pretreatment (if required) of ferrous materials (including alloying additions), principally ferrous scrap; 2) furnace charging and scrap melting; 3) steel and scrap tapping; 4) secondary metallurgical treatment in a ladle furnace; and 5) casting (continuous and/or ingot).
@@ -2072,103 +1976,16 @@
     <t>Weighted average of amounts in regional datasets.</t>
   </si>
   <si>
-    <t>38321e66-f6ab-4908-b26f-c17267559bc5</t>
-  </si>
-  <si>
     <t>Cl-</t>
   </si>
   <si>
-    <t>6d25e386-4ef9-4d40-85c6-e694f523a4da</t>
-  </si>
-  <si>
     <t>Cr+6</t>
   </si>
   <si>
-    <t>a9ec0c9b-982a-4329-99ae-dab1f9fb62d3</t>
-  </si>
-  <si>
-    <t>478e8437-1c21-4032-8438-872a6b5ddcdf</t>
-  </si>
-  <si>
-    <t>3498230f-f7d4-4af1-94a9-d53ac7732027</t>
-  </si>
-  <si>
-    <t>817c3650-4fed-4ef2-b9b6-404a198834e6</t>
-  </si>
-  <si>
-    <t>ed1e33fb-3841-47d9-8fe7-4bc760403972</t>
-  </si>
-  <si>
-    <t>fef44ccb-917e-4c8d-bb35-a1898827b659</t>
-  </si>
-  <si>
-    <t>3cecca5b-1111-40d1-8013-2b57d85bfaf8</t>
-  </si>
-  <si>
-    <t>a94ce0ad-46f5-407c-b445-671e353875f0</t>
-  </si>
-  <si>
-    <t>4dc46eeb-42ba-4cfd-b0d0-e0db022e99b6</t>
-  </si>
-  <si>
-    <t>4b2da64e-4ba7-4801-bfaf-fc3f1eb439b7</t>
-  </si>
-  <si>
-    <t>b0f4c2fb-5081-474a-8ffa-1457da8345db</t>
-  </si>
-  <si>
     <t>market for electric arc furnace secondary metallurgy slag</t>
   </si>
   <si>
     <t>electric arc furnace secondary metallurgy slag</t>
-  </si>
-  <si>
-    <t>74af75f3-056c-47ff-b44d-db20aa48c18d</t>
-  </si>
-  <si>
-    <t>7494eb5f-c18b-5389-834d-131fd06c29ea</t>
-  </si>
-  <si>
-    <t>80cb4670-bd66-40b7-b84a-3dc350fbce80</t>
-  </si>
-  <si>
-    <t>4052f31f-cd94-4b86-b075-210914586a0f</t>
-  </si>
-  <si>
-    <t>605da5db-cf6a-4535-aba0-f172e1126b47</t>
-  </si>
-  <si>
-    <t>6e316c64-0481-4832-b097-296e14c0b02f</t>
-  </si>
-  <si>
-    <t>dad26920-f1cf-43b6-9407-5ad790c426d8</t>
-  </si>
-  <si>
-    <t>1e87e7db-557d-490d-b0bf-946d78833e56</t>
-  </si>
-  <si>
-    <t>41f415f9-0146-4ad8-9247-8f7f7a155001</t>
-  </si>
-  <si>
-    <t>d7432632-40dc-4af8-8125-cb70dd9742c5</t>
-  </si>
-  <si>
-    <t>cc815fc8-594f-4c70-ba2a-9e295dec8304</t>
-  </si>
-  <si>
-    <t>d7a15d6e-8959-4841-8404-b2094db330a7</t>
-  </si>
-  <si>
-    <t>898aa4d5-58b6-44c4-b3d3-25a4a5b36f3b</t>
-  </si>
-  <si>
-    <t>23fccced-e1e5-421d-9abe-5b59c51a862e</t>
-  </si>
-  <si>
-    <t>c63bd8df-00c0-4071-aec7-7d4cd4c4597f</t>
-  </si>
-  <si>
-    <t>705f483c-0d06-4f1c-9be9-7d54b88c4015</t>
   </si>
   <si>
     <t>treatment of electric arc furnace dust, residual material landfill</t>
@@ -2565,21 +2382,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E651A-1BBF-4B98-A20A-7DDAE3546228}">
-  <dimension ref="A1:T518"/>
+  <dimension ref="A1:S518"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="A429" sqref="A429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.5" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>679</v>
+        <v>618</v>
       </c>
       <c r="B1" t="s">
         <v>65</v>
@@ -2587,10 +2405,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>680</v>
+        <v>619</v>
       </c>
       <c r="B2" t="s">
-        <v>681</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3075,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>683</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -6084,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>682</v>
+        <v>621</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
@@ -10500,15 +10318,15 @@
         <v>215</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1</v>
       </c>
       <c r="B305" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>2</v>
       </c>
@@ -10516,7 +10334,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -10524,7 +10342,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -10532,7 +10350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>213</v>
       </c>
@@ -10540,12 +10358,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -10580,31 +10398,13 @@
         <v>247</v>
       </c>
       <c r="L311" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="M311" t="s">
-        <v>249</v>
-      </c>
-      <c r="N311" t="s">
-        <v>1</v>
-      </c>
-      <c r="O311" t="s">
-        <v>250</v>
-      </c>
-      <c r="P311" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q311" t="s">
-        <v>252</v>
-      </c>
-      <c r="R311" t="s">
-        <v>253</v>
-      </c>
-      <c r="S311" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>19</v>
       </c>
@@ -10632,20 +10432,14 @@
       <c r="K312">
         <v>3.8729833462074169E-2</v>
       </c>
-      <c r="N312" t="s">
+      <c r="L312" t="s">
         <v>557</v>
       </c>
-      <c r="O312" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q312">
-        <v>0</v>
-      </c>
-      <c r="S312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>116</v>
       </c>
@@ -10673,20 +10467,14 @@
       <c r="K313">
         <v>0.80715549926888308</v>
       </c>
-      <c r="N313" t="s">
+      <c r="L313" t="s">
         <v>557</v>
       </c>
-      <c r="O313" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q313">
-        <v>0</v>
-      </c>
-      <c r="S313">
+      <c r="M313">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>118</v>
       </c>
@@ -10714,20 +10502,14 @@
       <c r="K314">
         <v>0.5490901565316938</v>
       </c>
-      <c r="N314" t="s">
+      <c r="L314" t="s">
         <v>557</v>
       </c>
-      <c r="O314" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q314">
-        <v>0</v>
-      </c>
-      <c r="S314">
+      <c r="M314">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>558</v>
       </c>
@@ -10755,20 +10537,14 @@
       <c r="K315">
         <v>0.20371548787463359</v>
       </c>
-      <c r="N315" t="s">
+      <c r="L315" t="s">
         <v>557</v>
       </c>
-      <c r="O315" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q315">
-        <v>0</v>
-      </c>
-      <c r="S315">
+      <c r="M315">
         <v>0.2</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>273</v>
       </c>
@@ -10796,20 +10572,14 @@
       <c r="K316">
         <v>0.80715549926888308</v>
       </c>
-      <c r="N316" t="s">
+      <c r="L316" t="s">
         <v>557</v>
       </c>
-      <c r="O316" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q316">
-        <v>0</v>
-      </c>
-      <c r="S316">
+      <c r="M316">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>276</v>
       </c>
@@ -10837,20 +10607,14 @@
       <c r="K317">
         <v>0.80715549926888308</v>
       </c>
-      <c r="N317" t="s">
+      <c r="L317" t="s">
         <v>557</v>
       </c>
-      <c r="O317" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q317">
-        <v>0</v>
-      </c>
-      <c r="S317">
+      <c r="M317">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>355</v>
       </c>
@@ -10878,20 +10642,14 @@
       <c r="K318">
         <v>0.80715549926888308</v>
       </c>
-      <c r="N318" t="s">
+      <c r="L318" t="s">
         <v>557</v>
       </c>
-      <c r="O318" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q318">
-        <v>0</v>
-      </c>
-      <c r="S318">
+      <c r="M318">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>26</v>
       </c>
@@ -10919,20 +10677,14 @@
       <c r="K319">
         <v>0.20371548787463359</v>
       </c>
-      <c r="N319" t="s">
+      <c r="L319" t="s">
         <v>557</v>
       </c>
-      <c r="O319" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q319">
-        <v>0</v>
-      </c>
-      <c r="S319">
+      <c r="M319">
         <v>0.2</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>282</v>
       </c>
@@ -10957,20 +10709,14 @@
       <c r="K320">
         <v>0.5490901565316938</v>
       </c>
-      <c r="N320" t="s">
+      <c r="L320" t="s">
         <v>557</v>
       </c>
-      <c r="O320" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q320">
-        <v>0</v>
-      </c>
-      <c r="S320">
+      <c r="M320">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>358</v>
       </c>
@@ -10995,20 +10741,14 @@
       <c r="K321">
         <v>0.20371548787463359</v>
       </c>
-      <c r="N321" t="s">
+      <c r="L321" t="s">
         <v>557</v>
       </c>
-      <c r="O321" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q321">
-        <v>0</v>
-      </c>
-      <c r="S321">
+      <c r="M321">
         <v>0.2</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>360</v>
       </c>
@@ -11033,20 +10773,14 @@
       <c r="K322">
         <v>0.3485685011586675</v>
       </c>
-      <c r="N322" t="s">
+      <c r="L322" t="s">
         <v>557</v>
       </c>
-      <c r="O322" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q322">
-        <v>0</v>
-      </c>
-      <c r="S322">
+      <c r="M322">
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>128</v>
       </c>
@@ -11074,20 +10808,14 @@
       <c r="K323">
         <v>3.8729833462074169E-2</v>
       </c>
-      <c r="N323" t="s">
+      <c r="L323" t="s">
         <v>557</v>
       </c>
-      <c r="O323" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q323">
-        <v>0</v>
-      </c>
-      <c r="S323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>21</v>
       </c>
@@ -11115,20 +10843,14 @@
       <c r="K324">
         <v>0.30335622624235031</v>
       </c>
-      <c r="N324" t="s">
+      <c r="L324" t="s">
         <v>365</v>
       </c>
-      <c r="O324" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q324">
-        <v>0</v>
-      </c>
-      <c r="S324">
+      <c r="M324">
         <v>0.2</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>21</v>
       </c>
@@ -11156,20 +10878,14 @@
       <c r="K325">
         <v>0.20174241001832011</v>
       </c>
-      <c r="N325" t="s">
+      <c r="L325" t="s">
         <v>365</v>
       </c>
-      <c r="O325" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q325">
-        <v>0</v>
-      </c>
-      <c r="S325">
+      <c r="M325">
         <v>0.2</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>155</v>
       </c>
@@ -11197,20 +10913,14 @@
       <c r="K326">
         <v>0.1132475165290612</v>
       </c>
-      <c r="N326" t="s">
+      <c r="L326" t="s">
         <v>367</v>
       </c>
-      <c r="O326" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q326">
-        <v>0</v>
-      </c>
-      <c r="S326">
+      <c r="M326">
         <v>0.1</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>84</v>
       </c>
@@ -11238,20 +10948,14 @@
       <c r="K327">
         <v>0.1132475165290612</v>
       </c>
-      <c r="N327" t="s">
-        <v>561</v>
-      </c>
-      <c r="O327" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q327">
-        <v>0</v>
-      </c>
-      <c r="S327">
+      <c r="L327" t="s">
+        <v>560</v>
+      </c>
+      <c r="M327">
         <v>0.1</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>215</v>
       </c>
@@ -11276,25 +10980,16 @@
       <c r="J328">
         <v>1</v>
       </c>
-      <c r="L328" t="s">
-        <v>562</v>
-      </c>
-      <c r="O328" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q328">
-        <v>1099691000000</v>
-      </c>
-    </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B329">
         <v>-0.65</v>
       </c>
       <c r="C329" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
@@ -11315,22 +11010,13 @@
         <v>0.2095232683975696</v>
       </c>
       <c r="L329" t="s">
-        <v>566</v>
-      </c>
-      <c r="N329" t="s">
-        <v>567</v>
-      </c>
-      <c r="O329" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q329">
-        <v>292923057000</v>
-      </c>
-      <c r="S329">
+        <v>563</v>
+      </c>
+      <c r="M329">
         <v>0.2</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>531</v>
       </c>
@@ -11350,9 +11036,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B331">
         <v>-4.6224999999999996</v>
@@ -11370,7 +11056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>411</v>
       </c>
@@ -11390,7 +11076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>503</v>
       </c>
@@ -11410,15 +11096,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B334">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C334" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -11439,22 +11125,13 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="L334" t="s">
-        <v>572</v>
-      </c>
-      <c r="N334" t="s">
         <v>557</v>
       </c>
-      <c r="O334" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q334">
-        <v>0</v>
-      </c>
-      <c r="S334">
+      <c r="M334">
         <v>0.53851648071345037</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>100</v>
       </c>
@@ -11483,22 +11160,13 @@
         <v>1.4142135623730951E-2</v>
       </c>
       <c r="L335" t="s">
-        <v>574</v>
-      </c>
-      <c r="N335" t="s">
         <v>557</v>
       </c>
-      <c r="O335" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q335">
-        <v>0</v>
-      </c>
-      <c r="S335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>146</v>
       </c>
@@ -11527,30 +11195,21 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="L336" t="s">
-        <v>321</v>
-      </c>
-      <c r="N336" t="s">
         <v>256</v>
       </c>
-      <c r="O336" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q336">
-        <v>1561701860.0084801</v>
-      </c>
-      <c r="S336">
+      <c r="M336">
         <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B337">
         <v>0.1055556</v>
       </c>
       <c r="C337" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
@@ -11564,7 +11223,7 @@
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B338">
         <v>0.45184999999999997</v>
@@ -11584,13 +11243,13 @@
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B339">
         <v>2E-3</v>
       </c>
       <c r="C339" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
@@ -11611,18 +11270,9 @@
         <v>1.4142135623730951E-2</v>
       </c>
       <c r="L339" t="s">
-        <v>580</v>
-      </c>
-      <c r="N339" t="s">
         <v>557</v>
       </c>
-      <c r="O339" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q339">
-        <v>0</v>
-      </c>
-      <c r="S339">
+      <c r="M339">
         <v>0</v>
       </c>
     </row>
@@ -11655,18 +11305,9 @@
         <v>0.2083266665599966</v>
       </c>
       <c r="L340" t="s">
-        <v>335</v>
-      </c>
-      <c r="N340" t="s">
         <v>256</v>
       </c>
-      <c r="O340" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q340">
-        <v>98989584.284999996</v>
-      </c>
-      <c r="S340">
+      <c r="M340">
         <v>0.2</v>
       </c>
     </row>
@@ -11683,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="B343" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="344" spans="1:19" x14ac:dyDescent="0.2">
@@ -11811,7 +11452,7 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N350" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O350" t="s">
         <v>417</v>
@@ -11890,7 +11531,7 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N352" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O352" t="s">
         <v>419</v>
@@ -12045,7 +11686,7 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N356" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O356" t="s">
         <v>425</v>
@@ -12086,7 +11727,7 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N357" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O357" t="s">
         <v>428</v>
@@ -12165,7 +11806,7 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N359" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O359" t="s">
         <v>430</v>
@@ -12206,7 +11847,7 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N360" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O360" t="s">
         <v>432</v>
@@ -12282,7 +11923,7 @@
         <v>0.28513154858766498</v>
       </c>
       <c r="O362" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="Q362">
         <v>0</v>
@@ -12396,7 +12037,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="N365" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O365" t="s">
         <v>435</v>
@@ -12437,7 +12078,7 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N366" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O366" t="s">
         <v>437</v>
@@ -12516,7 +12157,7 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N368" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O368" t="s">
         <v>438</v>
@@ -12557,7 +12198,7 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N369" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O369" t="s">
         <v>439</v>
@@ -12636,7 +12277,7 @@
         <v>0.83312664103364265</v>
       </c>
       <c r="N371" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O371" t="s">
         <v>441</v>
@@ -12715,7 +12356,7 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N373" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O373" t="s">
         <v>440</v>
@@ -12756,7 +12397,7 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N374" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O374" t="s">
         <v>444</v>
@@ -12794,7 +12435,7 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N375" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O375" t="s">
         <v>447</v>
@@ -12873,7 +12514,7 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N377" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O377" t="s">
         <v>449</v>
@@ -12914,7 +12555,7 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N378" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O378" t="s">
         <v>451</v>
@@ -12993,7 +12634,7 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N380" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O380" t="s">
         <v>452</v>
@@ -13101,7 +12742,7 @@
         <v>0.58540584213005598</v>
       </c>
       <c r="N383" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O383" t="s">
         <v>454</v>
@@ -13139,7 +12780,7 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N384" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O384" t="s">
         <v>455</v>
@@ -13177,7 +12818,7 @@
         <v>0.40336088060197411</v>
       </c>
       <c r="N385" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O385" t="s">
         <v>456</v>
@@ -13218,7 +12859,7 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N386" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O386" t="s">
         <v>458</v>
@@ -13259,7 +12900,7 @@
         <v>0.83312664103364265</v>
       </c>
       <c r="N387" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O387" t="s">
         <v>461</v>
@@ -13338,7 +12979,7 @@
         <v>0.20808652046684811</v>
       </c>
       <c r="N389" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O389" t="s">
         <v>462</v>
@@ -13376,7 +13017,7 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N390" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O390" t="s">
         <v>463</v>
@@ -13607,7 +13248,7 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N396" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O396" t="s">
         <v>465</v>
@@ -13645,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="L397" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="N397" t="s">
         <v>467</v>
@@ -13659,7 +13300,7 @@
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B398">
         <v>2.3300000000000001E-2</v>
@@ -13686,13 +13327,13 @@
         <v>0.2</v>
       </c>
       <c r="L398" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="N398" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O398" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="Q398">
         <v>0</v>
@@ -13703,13 +13344,13 @@
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B399">
         <v>0.04</v>
       </c>
       <c r="C399" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -13730,13 +13371,13 @@
         <v>0.2004993765576342</v>
       </c>
       <c r="L399" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="N399" t="s">
         <v>393</v>
       </c>
       <c r="O399" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="Q399">
         <v>0</v>
@@ -13818,13 +13459,13 @@
         <v>0.2</v>
       </c>
       <c r="L401" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="N401" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O401" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="Q401">
         <v>0</v>
@@ -13966,13 +13607,13 @@
         <v>0.2004993765576342</v>
       </c>
       <c r="L406" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="N406" t="s">
         <v>372</v>
       </c>
       <c r="O406" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="Q406">
         <v>0</v>
@@ -14073,7 +13714,7 @@
         <v>484</v>
       </c>
       <c r="N410" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O410" t="s">
         <v>486</v>
@@ -14117,7 +13758,7 @@
         <v>487</v>
       </c>
       <c r="N411" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O411" t="s">
         <v>489</v>
@@ -14158,10 +13799,10 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L412" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="N412" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O412" t="s">
         <v>492</v>
@@ -14202,10 +13843,10 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L413" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="N413" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O413" t="s">
         <v>492</v>
@@ -14246,10 +13887,10 @@
         <v>0.2</v>
       </c>
       <c r="L414" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="N414" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O414" t="s">
         <v>289</v>
@@ -14290,13 +13931,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L415" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="N415" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O415" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="Q415">
         <v>0</v>
@@ -14334,10 +13975,10 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L416" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="N416" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O416" t="s">
         <v>500</v>
@@ -14378,10 +14019,10 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L417" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="N417" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="O417" t="s">
         <v>500</v>
@@ -14426,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="B421" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="422" spans="1:19" x14ac:dyDescent="0.2">
@@ -14509,27 +14150,9 @@
         <v>247</v>
       </c>
       <c r="L428" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="M428" t="s">
-        <v>249</v>
-      </c>
-      <c r="N428" t="s">
-        <v>1</v>
-      </c>
-      <c r="O428" t="s">
-        <v>250</v>
-      </c>
-      <c r="P428" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q428" t="s">
-        <v>252</v>
-      </c>
-      <c r="R428" t="s">
-        <v>253</v>
-      </c>
-      <c r="S428" t="s">
         <v>254</v>
       </c>
     </row>
@@ -14575,16 +14198,10 @@
       <c r="K430">
         <v>0.20976176963403029</v>
       </c>
-      <c r="N430" t="s">
-        <v>605</v>
-      </c>
-      <c r="O430" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q430">
-        <v>0</v>
-      </c>
-      <c r="S430">
+      <c r="L430" t="s">
+        <v>595</v>
+      </c>
+      <c r="M430">
         <v>0.2</v>
       </c>
     </row>
@@ -14613,16 +14230,10 @@
       <c r="K431">
         <v>0.45607017003965522</v>
       </c>
-      <c r="N431" t="s">
-        <v>607</v>
-      </c>
-      <c r="O431" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q431">
-        <v>0</v>
-      </c>
-      <c r="S431">
+      <c r="L431" t="s">
+        <v>596</v>
+      </c>
+      <c r="M431">
         <v>0.2</v>
       </c>
     </row>
@@ -14651,20 +14262,14 @@
       <c r="K432">
         <v>0.45607017003965522</v>
       </c>
-      <c r="N432" t="s">
-        <v>607</v>
-      </c>
-      <c r="O432" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q432">
-        <v>0</v>
-      </c>
-      <c r="S432">
+      <c r="L432" t="s">
+        <v>596</v>
+      </c>
+      <c r="M432">
         <v>0.2</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>360</v>
       </c>
@@ -14689,22 +14294,16 @@
       <c r="K433">
         <v>0.45607017003965522</v>
       </c>
-      <c r="N433" t="s">
-        <v>607</v>
-      </c>
-      <c r="O433" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q433">
-        <v>0</v>
-      </c>
-      <c r="S433">
+      <c r="L433" t="s">
+        <v>596</v>
+      </c>
+      <c r="M433">
         <v>0.2</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="B434">
         <v>0.25</v>
@@ -14719,7 +14318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>83</v>
       </c>
@@ -14736,7 +14335,7 @@
         <v>20</v>
       </c>
       <c r="H435" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="I435">
         <v>2</v>
@@ -14747,20 +14346,14 @@
       <c r="K435">
         <v>0.20976176963403029</v>
       </c>
-      <c r="N435" t="s">
-        <v>610</v>
-      </c>
-      <c r="O435" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q435">
-        <v>0</v>
-      </c>
-      <c r="S435">
+      <c r="L435" t="s">
+        <v>599</v>
+      </c>
+      <c r="M435">
         <v>0.2</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>58</v>
       </c>
@@ -14777,7 +14370,7 @@
         <v>20</v>
       </c>
       <c r="H436" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="I436">
         <v>2</v>
@@ -14788,20 +14381,14 @@
       <c r="K436">
         <v>0.20976176963403029</v>
       </c>
-      <c r="N436" t="s">
-        <v>610</v>
-      </c>
-      <c r="O436" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q436">
-        <v>0</v>
-      </c>
-      <c r="S436">
+      <c r="L436" t="s">
+        <v>599</v>
+      </c>
+      <c r="M436">
         <v>0.2</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>222</v>
       </c>
@@ -14818,7 +14405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>21</v>
       </c>
@@ -14846,20 +14433,14 @@
       <c r="K438">
         <v>0.36058979464205582</v>
       </c>
-      <c r="N438" t="s">
+      <c r="L438" t="s">
         <v>365</v>
       </c>
-      <c r="O438" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q438">
-        <v>0</v>
-      </c>
-      <c r="S438">
+      <c r="M438">
         <v>0.2</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>21</v>
       </c>
@@ -14887,22 +14468,16 @@
       <c r="K439">
         <v>0.36058979464205582</v>
       </c>
-      <c r="N439" t="s">
+      <c r="L439" t="s">
         <v>365</v>
       </c>
-      <c r="O439" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q439">
-        <v>0</v>
-      </c>
-      <c r="S439">
+      <c r="M439">
         <v>0.2</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="B440">
         <v>4.5859999999999998E-5</v>
@@ -14928,20 +14503,14 @@
       <c r="K440">
         <v>0.45607017003965522</v>
       </c>
-      <c r="N440" t="s">
-        <v>615</v>
-      </c>
-      <c r="O440" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q440">
-        <v>0</v>
-      </c>
-      <c r="S440">
+      <c r="L440" t="s">
+        <v>602</v>
+      </c>
+      <c r="M440">
         <v>0.2</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>215</v>
       </c>
@@ -14966,19 +14535,10 @@
       <c r="J441">
         <v>1</v>
       </c>
-      <c r="L441" t="s">
-        <v>617</v>
-      </c>
-      <c r="O441" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q441">
-        <v>8982862200</v>
-      </c>
-    </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="B442">
         <v>-0.46</v>
@@ -14996,7 +14556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>53</v>
       </c>
@@ -15025,22 +14585,13 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L443" t="s">
-        <v>620</v>
-      </c>
-      <c r="N443" t="s">
-        <v>615</v>
-      </c>
-      <c r="O443" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q443">
-        <v>0</v>
-      </c>
-      <c r="S443">
+        <v>602</v>
+      </c>
+      <c r="M443">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>52</v>
       </c>
@@ -15069,22 +14620,13 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L444" t="s">
-        <v>622</v>
-      </c>
-      <c r="N444" t="s">
-        <v>615</v>
-      </c>
-      <c r="O444" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q444">
-        <v>0</v>
-      </c>
-      <c r="S444">
+        <v>602</v>
+      </c>
+      <c r="M444">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>75</v>
       </c>
@@ -15113,22 +14655,13 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L445" t="s">
-        <v>624</v>
-      </c>
-      <c r="N445" t="s">
-        <v>625</v>
-      </c>
-      <c r="O445" t="s">
-        <v>626</v>
-      </c>
-      <c r="Q445">
-        <v>0</v>
-      </c>
-      <c r="S445">
+        <v>604</v>
+      </c>
+      <c r="M445">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>29</v>
       </c>
@@ -15148,7 +14681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>73</v>
       </c>
@@ -15177,22 +14710,13 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L447" t="s">
-        <v>627</v>
-      </c>
-      <c r="N447" t="s">
-        <v>615</v>
-      </c>
-      <c r="O447" t="s">
-        <v>628</v>
-      </c>
-      <c r="Q447">
-        <v>0</v>
-      </c>
-      <c r="S447">
+        <v>602</v>
+      </c>
+      <c r="M447">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>71</v>
       </c>
@@ -15221,30 +14745,21 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L448" t="s">
-        <v>629</v>
-      </c>
-      <c r="N448" t="s">
-        <v>630</v>
-      </c>
-      <c r="O448" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q448">
-        <v>0</v>
-      </c>
-      <c r="S448">
+        <v>605</v>
+      </c>
+      <c r="M448">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="B449">
         <v>6.2700000000000006E-2</v>
       </c>
       <c r="C449" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="D449" t="s">
         <v>14</v>
@@ -15265,22 +14780,13 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L449" t="s">
-        <v>634</v>
-      </c>
-      <c r="N449" t="s">
-        <v>625</v>
-      </c>
-      <c r="O449" t="s">
-        <v>635</v>
-      </c>
-      <c r="Q449">
-        <v>0</v>
-      </c>
-      <c r="S449">
+        <v>604</v>
+      </c>
+      <c r="M449">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>81</v>
       </c>
@@ -15309,22 +14815,13 @@
         <v>0.29664793948382651</v>
       </c>
       <c r="L450" t="s">
-        <v>636</v>
-      </c>
-      <c r="N450" t="s">
-        <v>637</v>
-      </c>
-      <c r="O450" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q450">
-        <v>0</v>
-      </c>
-      <c r="S450">
+        <v>608</v>
+      </c>
+      <c r="M450">
         <v>0.2</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>554</v>
       </c>
@@ -15353,22 +14850,13 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L451" t="s">
-        <v>639</v>
-      </c>
-      <c r="N451" t="s">
-        <v>625</v>
-      </c>
-      <c r="O451" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q451">
-        <v>0</v>
-      </c>
-      <c r="S451">
+        <v>604</v>
+      </c>
+      <c r="M451">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>0</v>
       </c>
@@ -15376,15 +14864,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1</v>
       </c>
       <c r="B454" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>2</v>
       </c>
@@ -15392,7 +14880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -15400,7 +14888,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>6</v>
       </c>
@@ -15408,7 +14896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>213</v>
       </c>
@@ -15416,12 +14904,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>9</v>
       </c>
@@ -15456,34 +14944,16 @@
         <v>247</v>
       </c>
       <c r="L460" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="M460" t="s">
-        <v>249</v>
+        <v>610</v>
       </c>
       <c r="N460" t="s">
-        <v>1</v>
-      </c>
-      <c r="O460" t="s">
-        <v>250</v>
-      </c>
-      <c r="P460" t="s">
-        <v>642</v>
-      </c>
-      <c r="Q460" t="s">
-        <v>251</v>
-      </c>
-      <c r="R460" t="s">
-        <v>252</v>
-      </c>
-      <c r="S460" t="s">
-        <v>253</v>
-      </c>
-      <c r="T460" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>183</v>
       </c>
@@ -15500,7 +14970,7 @@
         <v>20</v>
       </c>
       <c r="H461" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="I461">
         <v>2</v>
@@ -15511,23 +14981,17 @@
       <c r="K461">
         <v>4.4721359549995787E-2</v>
       </c>
-      <c r="N461" t="s">
-        <v>644</v>
-      </c>
-      <c r="O461" t="s">
-        <v>645</v>
-      </c>
-      <c r="P461">
+      <c r="L461" t="s">
+        <v>612</v>
+      </c>
+      <c r="M461">
         <v>1.55606191968828E-5</v>
       </c>
-      <c r="R461">
-        <v>0</v>
-      </c>
-      <c r="T461">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>151</v>
       </c>
@@ -15555,23 +15019,17 @@
       <c r="K462">
         <v>0.35608987629529709</v>
       </c>
-      <c r="N462" t="s">
-        <v>644</v>
-      </c>
-      <c r="O462" t="s">
-        <v>340</v>
-      </c>
-      <c r="P462">
+      <c r="L462" t="s">
+        <v>612</v>
+      </c>
+      <c r="M462">
         <v>8.4863684140488602E-7</v>
       </c>
-      <c r="R462">
-        <v>0</v>
-      </c>
-      <c r="T462">
+      <c r="N462">
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>152</v>
       </c>
@@ -15599,23 +15057,17 @@
       <c r="K463">
         <v>0.3541186241925155</v>
       </c>
-      <c r="N463" t="s">
-        <v>644</v>
-      </c>
-      <c r="O463" t="s">
-        <v>342</v>
-      </c>
-      <c r="P463">
+      <c r="L463" t="s">
+        <v>612</v>
+      </c>
+      <c r="M463">
         <v>6.4229257012328897E-9</v>
       </c>
-      <c r="R463">
-        <v>0</v>
-      </c>
-      <c r="T463">
+      <c r="N463">
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>343</v>
       </c>
@@ -15643,23 +15095,17 @@
       <c r="K464">
         <v>0.81043198357419244</v>
       </c>
-      <c r="N464" t="s">
-        <v>644</v>
-      </c>
-      <c r="O464" t="s">
-        <v>345</v>
-      </c>
-      <c r="P464">
+      <c r="L464" t="s">
+        <v>612</v>
+      </c>
+      <c r="M464">
         <v>1.91118207484922E-8</v>
       </c>
-      <c r="R464">
-        <v>0</v>
-      </c>
-      <c r="T464">
+      <c r="N464">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>116</v>
       </c>
@@ -15687,23 +15133,17 @@
       <c r="K465">
         <v>0.81043198357419244</v>
       </c>
-      <c r="N465" t="s">
-        <v>644</v>
-      </c>
-      <c r="O465" t="s">
-        <v>259</v>
-      </c>
-      <c r="P465">
+      <c r="L465" t="s">
+        <v>612</v>
+      </c>
+      <c r="M465">
         <v>9.2654649732402505E-4</v>
       </c>
-      <c r="R465">
-        <v>0</v>
-      </c>
-      <c r="T465">
+      <c r="N465">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>184</v>
       </c>
@@ -15720,7 +15160,7 @@
         <v>20</v>
       </c>
       <c r="H466" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="I466">
         <v>2</v>
@@ -15731,23 +15171,17 @@
       <c r="K466">
         <v>0.21587033144922901</v>
       </c>
-      <c r="N466" t="s">
-        <v>644</v>
-      </c>
-      <c r="O466" t="s">
-        <v>647</v>
-      </c>
-      <c r="P466">
+      <c r="L466" t="s">
+        <v>612</v>
+      </c>
+      <c r="M466">
         <v>7.17664459147306E-5</v>
       </c>
-      <c r="R466">
-        <v>0</v>
-      </c>
-      <c r="T466">
+      <c r="N466">
         <v>0.2</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>260</v>
       </c>
@@ -15775,23 +15209,17 @@
       <c r="K467">
         <v>0.81043198357419244</v>
       </c>
-      <c r="N467" t="s">
-        <v>644</v>
-      </c>
-      <c r="O467" t="s">
-        <v>262</v>
-      </c>
-      <c r="P467">
+      <c r="L467" t="s">
+        <v>612</v>
+      </c>
+      <c r="M467">
         <v>4.7308045462582802E-7</v>
       </c>
-      <c r="R467">
-        <v>0</v>
-      </c>
-      <c r="T467">
+      <c r="N467">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>185</v>
       </c>
@@ -15808,7 +15236,7 @@
         <v>20</v>
       </c>
       <c r="H468" t="s">
-        <v>648</v>
+        <v>614</v>
       </c>
       <c r="I468">
         <v>2</v>
@@ -15819,23 +15247,17 @@
       <c r="K468">
         <v>0.21587033144922901</v>
       </c>
-      <c r="N468" t="s">
-        <v>644</v>
-      </c>
-      <c r="O468" t="s">
-        <v>649</v>
-      </c>
-      <c r="P468">
+      <c r="L468" t="s">
+        <v>612</v>
+      </c>
+      <c r="M468">
         <v>7.55436126385394E-8</v>
       </c>
-      <c r="R468">
-        <v>0</v>
-      </c>
-      <c r="T468">
+      <c r="N468">
         <v>0.2</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>263</v>
       </c>
@@ -15863,23 +15285,17 @@
       <c r="K469">
         <v>0.81154174261093925</v>
       </c>
-      <c r="N469" t="s">
-        <v>644</v>
-      </c>
-      <c r="O469" t="s">
-        <v>265</v>
-      </c>
-      <c r="P469">
+      <c r="L469" t="s">
+        <v>612</v>
+      </c>
+      <c r="M469">
         <v>1.10953178654857E-7</v>
       </c>
-      <c r="R469">
-        <v>0</v>
-      </c>
-      <c r="T469">
+      <c r="N469">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>118</v>
       </c>
@@ -15907,23 +15323,17 @@
       <c r="K470">
         <v>0.55389529696504913</v>
       </c>
-      <c r="N470" t="s">
-        <v>644</v>
-      </c>
-      <c r="O470" t="s">
-        <v>267</v>
-      </c>
-      <c r="P470">
+      <c r="L470" t="s">
+        <v>612</v>
+      </c>
+      <c r="M470">
         <v>1.5630125721248699E-12</v>
       </c>
-      <c r="R470">
-        <v>0</v>
-      </c>
-      <c r="T470">
+      <c r="N470">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>153</v>
       </c>
@@ -15948,20 +15358,14 @@
       <c r="K471">
         <v>0.2172556098240043</v>
       </c>
-      <c r="N471" t="s">
-        <v>644</v>
-      </c>
-      <c r="O471" t="s">
-        <v>346</v>
-      </c>
-      <c r="R471">
-        <v>0</v>
-      </c>
-      <c r="T471">
+      <c r="L471" t="s">
+        <v>612</v>
+      </c>
+      <c r="N471">
         <v>0.2</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>347</v>
       </c>
@@ -15989,23 +15393,17 @@
       <c r="K472">
         <v>0.2172556098240043</v>
       </c>
-      <c r="N472" t="s">
-        <v>644</v>
-      </c>
-      <c r="O472" t="s">
-        <v>349</v>
-      </c>
-      <c r="P472">
+      <c r="L472" t="s">
+        <v>612</v>
+      </c>
+      <c r="M472">
         <v>4.7174811009129099E-6</v>
       </c>
-      <c r="R472">
-        <v>0</v>
-      </c>
-      <c r="T472">
+      <c r="N472">
         <v>0.2</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>121</v>
       </c>
@@ -16033,23 +15431,17 @@
       <c r="K473">
         <v>0.2172556098240043</v>
       </c>
-      <c r="N473" t="s">
-        <v>644</v>
-      </c>
-      <c r="O473" t="s">
-        <v>351</v>
-      </c>
-      <c r="P473">
+      <c r="L473" t="s">
+        <v>612</v>
+      </c>
+      <c r="M473">
         <v>6.6876972018751299E-7</v>
       </c>
-      <c r="R473">
-        <v>0</v>
-      </c>
-      <c r="T473">
+      <c r="N473">
         <v>0.2</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>273</v>
       </c>
@@ -16077,23 +15469,17 @@
       <c r="K474">
         <v>0.81043198357419244</v>
       </c>
-      <c r="N474" t="s">
-        <v>644</v>
-      </c>
-      <c r="O474" t="s">
-        <v>275</v>
-      </c>
-      <c r="P474">
+      <c r="L474" t="s">
+        <v>612</v>
+      </c>
+      <c r="M474">
         <v>7.9732840401622596E-7</v>
       </c>
-      <c r="R474">
-        <v>0</v>
-      </c>
-      <c r="T474">
+      <c r="N474">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>352</v>
       </c>
@@ -16121,23 +15507,17 @@
       <c r="K475">
         <v>0.81043198357419244</v>
       </c>
-      <c r="N475" t="s">
-        <v>644</v>
-      </c>
-      <c r="O475" t="s">
-        <v>354</v>
-      </c>
-      <c r="P475">
+      <c r="L475" t="s">
+        <v>612</v>
+      </c>
+      <c r="M475">
         <v>6.2426905715800202E-7</v>
       </c>
-      <c r="R475">
-        <v>0</v>
-      </c>
-      <c r="T475">
+      <c r="N475">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>355</v>
       </c>
@@ -16165,23 +15545,17 @@
       <c r="K476">
         <v>0.81043198357419244</v>
       </c>
-      <c r="N476" t="s">
-        <v>644</v>
-      </c>
-      <c r="O476" t="s">
-        <v>357</v>
-      </c>
-      <c r="P476">
+      <c r="L476" t="s">
+        <v>612</v>
+      </c>
+      <c r="M476">
         <v>2.43482893582134E-7</v>
       </c>
-      <c r="R476">
-        <v>0</v>
-      </c>
-      <c r="T476">
+      <c r="N476">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>26</v>
       </c>
@@ -16209,23 +15583,17 @@
       <c r="K477">
         <v>0.2163330765278394</v>
       </c>
-      <c r="N477" t="s">
-        <v>644</v>
-      </c>
-      <c r="O477" t="s">
-        <v>280</v>
-      </c>
-      <c r="P477">
+      <c r="L477" t="s">
+        <v>612</v>
+      </c>
+      <c r="M477">
         <v>1.01936932435993E-4</v>
       </c>
-      <c r="R477">
-        <v>0</v>
-      </c>
-      <c r="T477">
+      <c r="N477">
         <v>0.2</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>125</v>
       </c>
@@ -16250,20 +15618,14 @@
       <c r="K478">
         <v>0.55425625842204074</v>
       </c>
-      <c r="N478" t="s">
-        <v>644</v>
-      </c>
-      <c r="O478" t="s">
-        <v>281</v>
-      </c>
-      <c r="R478">
-        <v>0</v>
-      </c>
-      <c r="T478">
+      <c r="L478" t="s">
+        <v>612</v>
+      </c>
+      <c r="N478">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>282</v>
       </c>
@@ -16288,20 +15650,14 @@
       <c r="K479">
         <v>0.55389529696504913</v>
       </c>
-      <c r="N479" t="s">
-        <v>644</v>
-      </c>
-      <c r="O479" t="s">
-        <v>283</v>
-      </c>
-      <c r="R479">
-        <v>0</v>
-      </c>
-      <c r="T479">
+      <c r="L479" t="s">
+        <v>612</v>
+      </c>
+      <c r="N479">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>358</v>
       </c>
@@ -16326,20 +15682,14 @@
       <c r="K480">
         <v>0.2172556098240043</v>
       </c>
-      <c r="N480" t="s">
-        <v>644</v>
-      </c>
-      <c r="O480" t="s">
-        <v>359</v>
-      </c>
-      <c r="R480">
-        <v>0</v>
-      </c>
-      <c r="T480">
+      <c r="L480" t="s">
+        <v>612</v>
+      </c>
+      <c r="N480">
         <v>0.2</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>360</v>
       </c>
@@ -16364,20 +15714,14 @@
       <c r="K481">
         <v>0.35608987629529709</v>
       </c>
-      <c r="N481" t="s">
-        <v>644</v>
-      </c>
-      <c r="O481" t="s">
-        <v>361</v>
-      </c>
-      <c r="R481">
-        <v>0</v>
-      </c>
-      <c r="T481">
+      <c r="L481" t="s">
+        <v>612</v>
+      </c>
+      <c r="N481">
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>360</v>
       </c>
@@ -16394,7 +15738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>154</v>
       </c>
@@ -16419,20 +15763,14 @@
       <c r="K483">
         <v>0.552630075185924</v>
       </c>
-      <c r="N483" t="s">
-        <v>644</v>
-      </c>
-      <c r="O483" t="s">
-        <v>362</v>
-      </c>
-      <c r="R483">
-        <v>0</v>
-      </c>
-      <c r="T483">
+      <c r="L483" t="s">
+        <v>612</v>
+      </c>
+      <c r="N483">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>128</v>
       </c>
@@ -16460,23 +15798,17 @@
       <c r="K484">
         <v>0.2172556098240043</v>
       </c>
-      <c r="N484" t="s">
-        <v>644</v>
-      </c>
-      <c r="O484" t="s">
-        <v>364</v>
-      </c>
-      <c r="P484">
+      <c r="L484" t="s">
+        <v>612</v>
+      </c>
+      <c r="M484">
         <v>5.2058060269292197E-5</v>
       </c>
-      <c r="R484">
-        <v>0</v>
-      </c>
-      <c r="T484">
+      <c r="N484">
         <v>0.2</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>21</v>
       </c>
@@ -16504,23 +15836,17 @@
       <c r="K485">
         <v>0.20663978319771831</v>
       </c>
-      <c r="N485" t="s">
-        <v>644</v>
-      </c>
-      <c r="O485" t="s">
-        <v>366</v>
-      </c>
-      <c r="P485">
+      <c r="L485" t="s">
+        <v>612</v>
+      </c>
+      <c r="M485">
         <v>1.47176176815489E-3</v>
       </c>
-      <c r="R485">
-        <v>0</v>
-      </c>
-      <c r="T485">
+      <c r="N485">
         <v>0.2</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>21</v>
       </c>
@@ -16548,23 +15874,17 @@
       <c r="K486">
         <v>0.20712315177207979</v>
       </c>
-      <c r="N486" t="s">
-        <v>644</v>
-      </c>
-      <c r="O486" t="s">
-        <v>286</v>
-      </c>
-      <c r="P486">
+      <c r="L486" t="s">
+        <v>612</v>
+      </c>
+      <c r="M486">
         <v>8.8716527537463005E-3</v>
       </c>
-      <c r="R486">
-        <v>0</v>
-      </c>
-      <c r="T486">
+      <c r="N486">
         <v>0.2</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>84</v>
       </c>
@@ -16589,20 +15909,14 @@
       <c r="K487">
         <v>7.6157731058639086E-2</v>
       </c>
-      <c r="N487" t="s">
-        <v>644</v>
-      </c>
-      <c r="O487" t="s">
-        <v>650</v>
-      </c>
-      <c r="R487">
-        <v>0</v>
-      </c>
-      <c r="T487">
+      <c r="L487" t="s">
+        <v>612</v>
+      </c>
+      <c r="N487">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>84</v>
       </c>
@@ -16619,7 +15933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>368</v>
       </c>
@@ -16647,23 +15961,17 @@
       <c r="K489">
         <v>0.81043198357419244</v>
       </c>
-      <c r="N489" t="s">
-        <v>644</v>
-      </c>
-      <c r="O489" t="s">
-        <v>370</v>
-      </c>
-      <c r="P489">
+      <c r="L489" t="s">
+        <v>612</v>
+      </c>
+      <c r="M489">
         <v>7.8463778271888698E-6</v>
       </c>
-      <c r="R489">
-        <v>0</v>
-      </c>
-      <c r="T489">
+      <c r="N489">
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>219</v>
       </c>
@@ -16688,17 +15996,8 @@
       <c r="J490">
         <v>1</v>
       </c>
-      <c r="L490" t="s">
-        <v>651</v>
-      </c>
-      <c r="O490" t="s">
-        <v>652</v>
-      </c>
-      <c r="R490">
-        <v>21640879965.8409</v>
-      </c>
-    </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>132</v>
       </c>
@@ -16718,7 +16017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>161</v>
       </c>
@@ -16747,22 +16046,13 @@
         <v>8.4852813742385708E-2</v>
       </c>
       <c r="L492" t="s">
-        <v>653</v>
-      </c>
-      <c r="N492" t="s">
-        <v>644</v>
-      </c>
-      <c r="O492" t="s">
-        <v>654</v>
-      </c>
-      <c r="R492">
-        <v>0</v>
-      </c>
-      <c r="T492">
+        <v>612</v>
+      </c>
+      <c r="N492">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>142</v>
       </c>
@@ -16791,22 +16081,13 @@
         <v>7.3484692283495343E-2</v>
       </c>
       <c r="L493" t="s">
-        <v>374</v>
-      </c>
-      <c r="N493" t="s">
-        <v>644</v>
-      </c>
-      <c r="O493" t="s">
-        <v>375</v>
-      </c>
-      <c r="R493">
-        <v>0</v>
-      </c>
-      <c r="T493">
+        <v>612</v>
+      </c>
+      <c r="N493">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>159</v>
       </c>
@@ -16835,22 +16116,13 @@
         <v>7.7459666924148338E-2</v>
       </c>
       <c r="L494" t="s">
-        <v>655</v>
-      </c>
-      <c r="N494" t="s">
-        <v>644</v>
-      </c>
-      <c r="O494" t="s">
-        <v>656</v>
-      </c>
-      <c r="R494">
-        <v>0</v>
-      </c>
-      <c r="T494">
+        <v>612</v>
+      </c>
+      <c r="N494">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>163</v>
       </c>
@@ -16879,22 +16151,13 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L495" t="s">
-        <v>657</v>
-      </c>
-      <c r="N495" t="s">
-        <v>644</v>
-      </c>
-      <c r="O495" t="s">
-        <v>373</v>
-      </c>
-      <c r="R495">
-        <v>0</v>
-      </c>
-      <c r="T495">
+        <v>612</v>
+      </c>
+      <c r="N495">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>24</v>
       </c>
@@ -16923,22 +16186,13 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L496" t="s">
-        <v>658</v>
-      </c>
-      <c r="N496" t="s">
-        <v>644</v>
-      </c>
-      <c r="O496" t="s">
-        <v>659</v>
-      </c>
-      <c r="R496">
-        <v>0</v>
-      </c>
-      <c r="T496">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+      <c r="N496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>143</v>
       </c>
@@ -16967,30 +16221,21 @@
         <v>0.71414284285428498</v>
       </c>
       <c r="L497" t="s">
-        <v>376</v>
-      </c>
-      <c r="N497" t="s">
-        <v>644</v>
-      </c>
-      <c r="O497" t="s">
-        <v>377</v>
-      </c>
-      <c r="R497">
-        <v>0</v>
-      </c>
-      <c r="T497">
+        <v>612</v>
+      </c>
+      <c r="N497">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>660</v>
+        <v>615</v>
       </c>
       <c r="B498">
         <v>-4.9799999999999997E-2</v>
       </c>
       <c r="C498" t="s">
-        <v>661</v>
+        <v>616</v>
       </c>
       <c r="D498" t="s">
         <v>14</v>
@@ -17011,22 +16256,13 @@
         <v>0.08</v>
       </c>
       <c r="L498" t="s">
-        <v>662</v>
-      </c>
-      <c r="N498" t="s">
-        <v>644</v>
-      </c>
-      <c r="O498" t="s">
-        <v>663</v>
-      </c>
-      <c r="R498">
-        <v>256539779.59967801</v>
-      </c>
-      <c r="T498">
+        <v>612</v>
+      </c>
+      <c r="N498">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>145</v>
       </c>
@@ -17055,22 +16291,13 @@
         <v>8.8317608663278466E-2</v>
       </c>
       <c r="L499" t="s">
-        <v>381</v>
-      </c>
-      <c r="N499" t="s">
-        <v>644</v>
-      </c>
-      <c r="O499" t="s">
-        <v>382</v>
-      </c>
-      <c r="R499">
-        <v>2278571510.5339298</v>
-      </c>
-      <c r="T499">
+        <v>612</v>
+      </c>
+      <c r="N499">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>165</v>
       </c>
@@ -17090,7 +16317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>29</v>
       </c>
@@ -17110,7 +16337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>166</v>
       </c>
@@ -17139,22 +16366,13 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L502" t="s">
-        <v>664</v>
-      </c>
-      <c r="N502" t="s">
-        <v>644</v>
-      </c>
-      <c r="O502" t="s">
-        <v>665</v>
-      </c>
-      <c r="R502">
-        <v>0</v>
-      </c>
-      <c r="T502">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+      <c r="N502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>160</v>
       </c>
@@ -17183,22 +16401,13 @@
         <v>8.4852813742385708E-2</v>
       </c>
       <c r="L503" t="s">
-        <v>666</v>
-      </c>
-      <c r="N503" t="s">
-        <v>644</v>
-      </c>
-      <c r="O503" t="s">
-        <v>667</v>
-      </c>
-      <c r="R503">
-        <v>0</v>
-      </c>
-      <c r="T503">
+        <v>612</v>
+      </c>
+      <c r="N503">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>167</v>
       </c>
@@ -17227,22 +16436,13 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L504" t="s">
-        <v>319</v>
-      </c>
-      <c r="N504" t="s">
-        <v>644</v>
-      </c>
-      <c r="O504" t="s">
-        <v>320</v>
-      </c>
-      <c r="R504">
-        <v>0</v>
-      </c>
-      <c r="T504">
+        <v>612</v>
+      </c>
+      <c r="N504">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>168</v>
       </c>
@@ -17271,22 +16471,13 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L505" t="s">
-        <v>668</v>
-      </c>
-      <c r="N505" t="s">
-        <v>644</v>
-      </c>
-      <c r="O505" t="s">
-        <v>669</v>
-      </c>
-      <c r="R505">
-        <v>0</v>
-      </c>
-      <c r="T505">
+        <v>612</v>
+      </c>
+      <c r="N505">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>100</v>
       </c>
@@ -17306,7 +16497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>104</v>
       </c>
@@ -17326,7 +16517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>146</v>
       </c>
@@ -17355,22 +16546,13 @@
         <v>8.8317608663278466E-2</v>
       </c>
       <c r="L508" t="s">
-        <v>321</v>
-      </c>
-      <c r="N508" t="s">
-        <v>644</v>
-      </c>
-      <c r="O508" t="s">
-        <v>323</v>
-      </c>
-      <c r="R508">
-        <v>158912664.313822</v>
-      </c>
-      <c r="T508">
+        <v>612</v>
+      </c>
+      <c r="N508">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>169</v>
       </c>
@@ -17399,22 +16581,13 @@
         <v>5.2915026221291808E-2</v>
       </c>
       <c r="L509" t="s">
-        <v>670</v>
-      </c>
-      <c r="N509" t="s">
-        <v>644</v>
-      </c>
-      <c r="O509" t="s">
-        <v>671</v>
-      </c>
-      <c r="R509">
-        <v>0</v>
-      </c>
-      <c r="T509">
+        <v>612</v>
+      </c>
+      <c r="N509">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>170</v>
       </c>
@@ -17443,22 +16616,13 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L510" t="s">
-        <v>672</v>
-      </c>
-      <c r="N510" t="s">
-        <v>644</v>
-      </c>
-      <c r="O510" t="s">
-        <v>673</v>
-      </c>
-      <c r="R510">
-        <v>0</v>
-      </c>
-      <c r="T510">
+        <v>612</v>
+      </c>
+      <c r="N510">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>147</v>
       </c>
@@ -17478,7 +16642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>171</v>
       </c>
@@ -17507,22 +16671,13 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L512" t="s">
-        <v>674</v>
-      </c>
-      <c r="N512" t="s">
-        <v>644</v>
-      </c>
-      <c r="O512" t="s">
-        <v>675</v>
-      </c>
-      <c r="R512">
-        <v>0</v>
-      </c>
-      <c r="T512">
+        <v>612</v>
+      </c>
+      <c r="N512">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>148</v>
       </c>
@@ -17551,22 +16706,13 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L513" t="s">
-        <v>329</v>
-      </c>
-      <c r="N513" t="s">
-        <v>644</v>
-      </c>
-      <c r="O513" t="s">
-        <v>330</v>
-      </c>
-      <c r="R513">
-        <v>0</v>
-      </c>
-      <c r="T513">
+        <v>612</v>
+      </c>
+      <c r="N513">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>172</v>
       </c>
@@ -17595,22 +16741,13 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L514" t="s">
-        <v>676</v>
-      </c>
-      <c r="N514" t="s">
-        <v>644</v>
-      </c>
-      <c r="O514" t="s">
-        <v>677</v>
-      </c>
-      <c r="R514">
-        <v>0</v>
-      </c>
-      <c r="T514">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+      <c r="N514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>149</v>
       </c>
@@ -17639,22 +16776,13 @@
         <v>7.3484692283495343E-2</v>
       </c>
       <c r="L515" t="s">
-        <v>331</v>
-      </c>
-      <c r="N515" t="s">
-        <v>644</v>
-      </c>
-      <c r="O515" t="s">
-        <v>332</v>
-      </c>
-      <c r="R515">
-        <v>0</v>
-      </c>
-      <c r="T515">
+        <v>612</v>
+      </c>
+      <c r="N515">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>150</v>
       </c>
@@ -17674,7 +16802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>114</v>
       </c>
@@ -17703,24 +16831,15 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L517" t="s">
-        <v>490</v>
-      </c>
-      <c r="N517" t="s">
-        <v>644</v>
-      </c>
-      <c r="O517" t="s">
-        <v>492</v>
-      </c>
-      <c r="R517">
-        <v>481.12823943976298</v>
-      </c>
-      <c r="T517">
+        <v>612</v>
+      </c>
+      <c r="N517">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
       <c r="B518">
         <v>-9.5999999999999992E-3</v>
@@ -17741,6 +16860,7 @@
   </sheetData>
   <autoFilter ref="A1:T518" xr:uid="{A36E651A-1BBF-4B98-A20A-7DDAE3546228}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/premise/data/additional_inventories/lci-vanadium.xlsx
+++ b/premise/data/additional_inventories/lci-vanadium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F991D-F664-4D4E-B2F9-58E361536BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A2851E-542B-304B-91DC-A6E43943D1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="623">
   <si>
     <t>Activity</t>
   </si>
@@ -743,9 +743,6 @@
   </si>
   <si>
     <t>Mannheim process</t>
-  </si>
-  <si>
-    <t>iron scrap, unsorted, Recycled Content cut-off</t>
   </si>
   <si>
     <t>RER</t>
@@ -927,9 +924,6 @@
   </si>
   <si>
     <t>a2fd8c95-f2db-436a-9f24-f33b17f7975b</t>
-  </si>
-  <si>
-    <t>blast furnace gas, Recycled Content cut-off</t>
   </si>
   <si>
     <t>blast furnace gas</t>
@@ -1808,9 +1802,6 @@
     <t>Based on literature, (Vionnet, S., Quantis Water Database - Technical Report, 2012). based on literature, (Vionnet, S., Quantis Water Database - Technical Report, 2012).</t>
   </si>
   <si>
-    <t>blast furnace slag, Recycled Content cut-off</t>
-  </si>
-  <si>
     <t>blast furnace slag</t>
   </si>
   <si>
@@ -2023,6 +2014,12 @@
 Geography:  Data are taken from blast furnace plants across Europe and are considered representative of the average situation globally. 
 Technology:  Typical blast furnace process
 Time period:  Data are mostly compiled from reports published between 2005 and 2010 but are considered representative of modern operations. </t>
+  </si>
+  <si>
+    <t>market for blast furnace gas</t>
+  </si>
+  <si>
+    <t>market for blast furnace slag</t>
   </si>
 </sst>
 </file>
@@ -2384,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E651A-1BBF-4B98-A20A-7DDAE3546228}">
   <dimension ref="A1:S518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D519" sqref="D519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2397,7 +2394,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B1" t="s">
         <v>65</v>
@@ -2405,10 +2402,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2622,7 +2619,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
       <c r="B20">
         <v>-6.5000000000000002E-2</v>
@@ -2708,7 +2705,7 @@
         <v>0.5</v>
       </c>
       <c r="C24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -2742,13 +2739,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B26">
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D26" t="s">
         <v>198</v>
@@ -2768,7 +2765,7 @@
         <v>3.16</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -2782,7 +2779,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28">
         <v>0.93</v>
@@ -2842,7 +2839,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31">
         <v>-6.3200000000000006E-2</v>
@@ -2885,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -2893,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -2901,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -2909,7 +2906,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -2917,7 +2914,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -2933,7 +2930,7 @@
         <v>213</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -2964,40 +2961,40 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
+        <v>243</v>
+      </c>
+      <c r="I42" t="s">
         <v>244</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>245</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>246</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>247</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>248</v>
-      </c>
-      <c r="M42" t="s">
-        <v>249</v>
       </c>
       <c r="N42" t="s">
         <v>1</v>
       </c>
       <c r="O42" t="s">
+        <v>249</v>
+      </c>
+      <c r="P42" t="s">
         <v>250</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>251</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>252</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>253</v>
-      </c>
-      <c r="S42" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -3017,7 +3014,7 @@
         <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -3029,10 +3026,10 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="N43" t="s">
+        <v>255</v>
+      </c>
+      <c r="O43" t="s">
         <v>256</v>
-      </c>
-      <c r="O43" t="s">
-        <v>257</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3058,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -3070,10 +3067,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3084,7 +3081,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B45">
         <v>2.7386127875258301E-8</v>
@@ -3099,7 +3096,7 @@
         <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -3111,10 +3108,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3125,7 +3122,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B46">
         <v>1.3868418961177301E-7</v>
@@ -3140,7 +3137,7 @@
         <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -3152,10 +3149,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3181,7 +3178,7 @@
         <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -3193,10 +3190,10 @@
         <v>0.55081757415681643</v>
       </c>
       <c r="N47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3207,7 +3204,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48">
         <v>0.204696179355145</v>
@@ -3231,10 +3228,10 @@
         <v>0.30199337741082999</v>
       </c>
       <c r="N48" t="s">
+        <v>268</v>
+      </c>
+      <c r="O48" t="s">
         <v>269</v>
-      </c>
-      <c r="O48" t="s">
-        <v>270</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3245,7 +3242,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49">
         <v>4.1149999999999997E-5</v>
@@ -3272,10 +3269,10 @@
         <v>0.83737685661833294</v>
       </c>
       <c r="N49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3286,7 +3283,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B50">
         <v>4.08166632639171E-7</v>
@@ -3301,7 +3298,7 @@
         <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -3313,10 +3310,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3327,7 +3324,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B51">
         <v>6.8410525505948304E-7</v>
@@ -3342,7 +3339,7 @@
         <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -3354,10 +3351,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -3383,7 +3380,7 @@
         <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -3395,10 +3392,10 @@
         <v>0.2083266665599966</v>
       </c>
       <c r="N52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -3433,10 +3430,10 @@
         <v>0.55081757415681643</v>
       </c>
       <c r="N53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -3447,7 +3444,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B54">
         <v>4.47437146423942E-5</v>
@@ -3471,10 +3468,10 @@
         <v>0.55081757415681643</v>
       </c>
       <c r="N54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -3500,7 +3497,7 @@
         <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -3512,10 +3509,10 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="N55" t="s">
+        <v>284</v>
+      </c>
+      <c r="O55" t="s">
         <v>285</v>
-      </c>
-      <c r="O55" t="s">
-        <v>286</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -3541,7 +3538,7 @@
         <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -3553,10 +3550,10 @@
         <v>0.1232882800593795</v>
       </c>
       <c r="N56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -3567,16 +3564,16 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
@@ -3591,10 +3588,10 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
+        <v>287</v>
+      </c>
+      <c r="O57" t="s">
         <v>288</v>
-      </c>
-      <c r="O57" t="s">
-        <v>289</v>
       </c>
       <c r="Q57">
         <v>1137179252766.3799</v>
@@ -3602,13 +3599,13 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>290</v>
+        <v>621</v>
       </c>
       <c r="B58">
-        <v>1.9900000000000001E-2</v>
+        <v>-1.9900000000000001E-2</v>
       </c>
       <c r="C58" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -3642,16 +3639,16 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B60">
         <v>-8.1418299973658893E-3</v>
       </c>
       <c r="C60" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D60" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -3669,13 +3666,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L60" t="s">
+        <v>293</v>
+      </c>
+      <c r="N60" t="s">
+        <v>294</v>
+      </c>
+      <c r="O60" t="s">
         <v>295</v>
-      </c>
-      <c r="N60" t="s">
-        <v>296</v>
-      </c>
-      <c r="O60" t="s">
-        <v>297</v>
       </c>
       <c r="Q60">
         <v>22056728786.656799</v>
@@ -3686,13 +3683,13 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B61">
         <v>-1.12541700026341E-2</v>
       </c>
       <c r="C61" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -3713,13 +3710,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L61" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N61" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O61" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q61">
         <v>22056728786.656799</v>
@@ -3730,13 +3727,13 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B62">
         <v>-3.0079999999999999E-4</v>
       </c>
       <c r="C62" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -3757,13 +3754,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L62" t="s">
+        <v>299</v>
+      </c>
+      <c r="N62" t="s">
+        <v>300</v>
+      </c>
+      <c r="O62" t="s">
         <v>301</v>
-      </c>
-      <c r="N62" t="s">
-        <v>302</v>
-      </c>
-      <c r="O62" t="s">
-        <v>303</v>
       </c>
       <c r="Q62">
         <v>342063519.23212701</v>
@@ -3774,7 +3771,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B63">
         <v>-0.10489759999999999</v>
@@ -3801,13 +3798,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L63" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N63" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O63" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q63">
         <v>119287374384.987</v>
@@ -3818,13 +3815,13 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B64">
         <v>-3.0079999999999999E-4</v>
       </c>
       <c r="C64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
@@ -3845,13 +3842,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N64" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q64">
         <v>342063519.23212701</v>
@@ -3862,13 +3859,13 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B65">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C65" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -3889,13 +3886,13 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="L65" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O65" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -3906,13 +3903,13 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B66">
         <v>1.4422205101856E-2</v>
       </c>
       <c r="C66" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
@@ -3933,13 +3930,13 @@
         <v>0.23916521486202799</v>
       </c>
       <c r="L66" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O66" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -3977,13 +3974,13 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="L67" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O67" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -4021,13 +4018,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L68" t="s">
+        <v>319</v>
+      </c>
+      <c r="N68" t="s">
+        <v>320</v>
+      </c>
+      <c r="O68" t="s">
         <v>321</v>
-      </c>
-      <c r="N68" t="s">
-        <v>322</v>
-      </c>
-      <c r="O68" t="s">
-        <v>323</v>
       </c>
       <c r="Q68">
         <v>643285245.60114896</v>
@@ -4038,13 +4035,13 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B69">
         <v>-6.6299999999999999E-5</v>
       </c>
       <c r="C69" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -4065,13 +4062,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L69" t="s">
+        <v>324</v>
+      </c>
+      <c r="N69" t="s">
+        <v>325</v>
+      </c>
+      <c r="O69" t="s">
         <v>326</v>
-      </c>
-      <c r="N69" t="s">
-        <v>327</v>
-      </c>
-      <c r="O69" t="s">
-        <v>328</v>
       </c>
       <c r="Q69">
         <v>75394984.458410993</v>
@@ -4109,13 +4106,13 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="L70" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O70" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -4153,13 +4150,13 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="L71" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O71" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -4230,13 +4227,13 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B75">
         <v>-1.3416407864998701E-3</v>
       </c>
       <c r="C75" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -4257,13 +4254,13 @@
         <v>0.30199337741082999</v>
       </c>
       <c r="L75" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O75" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q75">
         <v>1525686067.0728199</v>
@@ -4274,7 +4271,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B76">
         <v>2.086E-2</v>
@@ -4283,7 +4280,7 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E76" t="s">
         <v>15</v>
@@ -4303,7 +4300,7 @@
         <v>66</v>
       </c>
       <c r="D77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -4325,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
@@ -4357,7 +4354,7 @@
         <v>213</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
@@ -4388,40 +4385,40 @@
         <v>11</v>
       </c>
       <c r="H86" t="s">
+        <v>243</v>
+      </c>
+      <c r="I86" t="s">
         <v>244</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>245</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>246</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>247</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>248</v>
-      </c>
-      <c r="M86" t="s">
-        <v>249</v>
       </c>
       <c r="N86" t="s">
         <v>1</v>
       </c>
       <c r="O86" t="s">
+        <v>249</v>
+      </c>
+      <c r="P86" t="s">
         <v>250</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>251</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>252</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>253</v>
-      </c>
-      <c r="S86" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
@@ -4441,7 +4438,7 @@
         <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I87">
         <v>2</v>
@@ -4453,7 +4450,7 @@
         <v>0.42567593307585527</v>
       </c>
       <c r="O87" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -4479,7 +4476,7 @@
         <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I88">
         <v>2</v>
@@ -4491,7 +4488,7 @@
         <v>0.42567593307585527</v>
       </c>
       <c r="O88" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -4502,7 +4499,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B89">
         <v>3.6500000000000003E-8</v>
@@ -4517,7 +4514,7 @@
         <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I89">
         <v>2</v>
@@ -4529,7 +4526,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O89" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -4555,7 +4552,7 @@
         <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -4567,7 +4564,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -4578,7 +4575,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B91">
         <v>1.254E-6</v>
@@ -4593,7 +4590,7 @@
         <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I91">
         <v>2</v>
@@ -4605,7 +4602,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -4616,7 +4613,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B92">
         <v>2.3050000000000001E-7</v>
@@ -4631,7 +4628,7 @@
         <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -4643,7 +4640,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -4669,7 +4666,7 @@
         <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -4681,7 +4678,7 @@
         <v>0.60099916805266884</v>
       </c>
       <c r="O93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q93">
         <v>0</v>
@@ -4716,7 +4713,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O94" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -4727,7 +4724,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B95">
         <v>5.2000000000000002E-6</v>
@@ -4742,7 +4739,7 @@
         <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -4754,7 +4751,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O95" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -4780,7 +4777,7 @@
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -4792,7 +4789,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O96" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -4803,7 +4800,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B97">
         <v>1.8080000000000001E-6</v>
@@ -4818,7 +4815,7 @@
         <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -4830,7 +4827,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -4841,7 +4838,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B98">
         <v>2.238E-6</v>
@@ -4856,7 +4853,7 @@
         <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -4868,7 +4865,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O98" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -4879,7 +4876,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B99">
         <v>7.0050000000000001E-7</v>
@@ -4894,7 +4891,7 @@
         <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -4906,7 +4903,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O99" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -4932,7 +4929,7 @@
         <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -4944,7 +4941,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q100">
         <v>0</v>
@@ -4979,7 +4976,7 @@
         <v>0.60099916805266884</v>
       </c>
       <c r="O101" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -4990,7 +4987,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B102">
         <v>1.6595999999999999E-4</v>
@@ -5014,7 +5011,7 @@
         <v>0.60099916805266884</v>
       </c>
       <c r="O102" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -5025,7 +5022,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B103">
         <v>5.8575000000000001E-5</v>
@@ -5049,7 +5046,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O103" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -5060,7 +5057,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B104">
         <v>1.6595999999999999E-4</v>
@@ -5084,7 +5081,7 @@
         <v>0.42567593307585527</v>
       </c>
       <c r="O104" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -5119,7 +5116,7 @@
         <v>0.60099916805266884</v>
       </c>
       <c r="O105" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q105">
         <v>0</v>
@@ -5145,7 +5142,7 @@
         <v>20</v>
       </c>
       <c r="H106" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I106">
         <v>2</v>
@@ -5157,7 +5154,7 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="O106" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -5183,7 +5180,7 @@
         <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I107">
         <v>2</v>
@@ -5195,10 +5192,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N107" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O107" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -5224,7 +5221,7 @@
         <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -5236,10 +5233,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N108" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O108" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -5265,7 +5262,7 @@
         <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I109">
         <v>2</v>
@@ -5277,10 +5274,10 @@
         <v>0.23366642891095851</v>
       </c>
       <c r="N109" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O109" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -5291,7 +5288,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B110">
         <v>2.2940000000000001E-5</v>
@@ -5306,7 +5303,7 @@
         <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -5318,7 +5315,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O110" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -5353,13 +5350,13 @@
         <v>1</v>
       </c>
       <c r="L111" t="s">
+        <v>369</v>
+      </c>
+      <c r="N111" t="s">
+        <v>370</v>
+      </c>
+      <c r="O111" t="s">
         <v>371</v>
-      </c>
-      <c r="N111" t="s">
-        <v>372</v>
-      </c>
-      <c r="O111" t="s">
-        <v>373</v>
       </c>
       <c r="Q111">
         <v>66239548000</v>
@@ -5394,13 +5391,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L112" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N112" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O112" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q112">
         <v>0</v>
@@ -5438,13 +5435,13 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="L113" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N113" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O113" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -5482,13 +5479,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L114" t="s">
+        <v>376</v>
+      </c>
+      <c r="N114" t="s">
+        <v>377</v>
+      </c>
+      <c r="O114" t="s">
         <v>378</v>
-      </c>
-      <c r="N114" t="s">
-        <v>379</v>
-      </c>
-      <c r="O114" t="s">
-        <v>380</v>
       </c>
       <c r="Q114">
         <v>635899660.79999995</v>
@@ -5526,13 +5523,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L115" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N115" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O115" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Q115">
         <v>6147030054.3999996</v>
@@ -5590,13 +5587,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L117" t="s">
+        <v>381</v>
+      </c>
+      <c r="N117" t="s">
+        <v>382</v>
+      </c>
+      <c r="O117" t="s">
         <v>383</v>
-      </c>
-      <c r="N117" t="s">
-        <v>384</v>
-      </c>
-      <c r="O117" t="s">
-        <v>385</v>
       </c>
       <c r="Q117">
         <v>0</v>
@@ -5634,13 +5631,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L118" t="s">
+        <v>319</v>
+      </c>
+      <c r="N118" t="s">
+        <v>377</v>
+      </c>
+      <c r="O118" t="s">
         <v>321</v>
-      </c>
-      <c r="N118" t="s">
-        <v>379</v>
-      </c>
-      <c r="O118" t="s">
-        <v>323</v>
       </c>
       <c r="Q118">
         <v>331197740</v>
@@ -5651,13 +5648,13 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B119">
         <v>0.38674999999999998</v>
       </c>
       <c r="C119" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D119" t="s">
         <v>14</v>
@@ -5678,13 +5675,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L119" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N119" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O119" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -5722,13 +5719,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L120" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N120" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O120" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -5766,13 +5763,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L121" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N121" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O121" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -5810,13 +5807,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L122" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N122" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O122" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -5854,13 +5851,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L123" t="s">
+        <v>390</v>
+      </c>
+      <c r="N123" t="s">
+        <v>391</v>
+      </c>
+      <c r="O123" t="s">
         <v>392</v>
-      </c>
-      <c r="N123" t="s">
-        <v>393</v>
-      </c>
-      <c r="O123" t="s">
-        <v>394</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -5902,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
@@ -5910,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
@@ -5942,7 +5939,7 @@
         <v>213</v>
       </c>
       <c r="B132" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
@@ -5981,7 +5978,7 @@
         <v>187</v>
       </c>
       <c r="D135" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E135" t="s">
         <v>7</v>
@@ -5992,16 +5989,16 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B136">
         <v>0.36707802470940898</v>
       </c>
       <c r="C136" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E136" t="s">
         <v>6</v>
@@ -6015,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
@@ -6023,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="140" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6080,7 +6077,7 @@
         <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.2">
@@ -6110,7 +6107,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -6159,7 +6156,7 @@
         <v>187</v>
       </c>
       <c r="D149" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -6173,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.2">
@@ -6181,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.2">
@@ -6189,7 +6186,7 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.2">
@@ -6197,7 +6194,7 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.2">
@@ -6221,7 +6218,7 @@
         <v>213</v>
       </c>
       <c r="B157" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.2">
@@ -6272,7 +6269,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B160">
         <v>3.2358900000000003E-2</v>
@@ -6306,7 +6303,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B162">
         <v>0.28254944641739999</v>
@@ -6357,13 +6354,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B165">
         <v>0.13861725499999999</v>
       </c>
       <c r="C165" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
@@ -6372,12 +6369,12 @@
         <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B166">
         <v>9.0939999999999993E-2</v>
@@ -6397,13 +6394,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B167">
         <v>0.04</v>
       </c>
       <c r="C167" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
@@ -6412,18 +6409,18 @@
         <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B168">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C168" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D168" t="s">
         <v>6</v>
@@ -6432,12 +6429,12 @@
         <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B169">
         <v>2.4E-2</v>
@@ -6452,18 +6449,18 @@
         <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B170">
         <v>0.13206000000000001</v>
       </c>
       <c r="C170" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
@@ -6472,18 +6469,18 @@
         <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B171">
         <v>2.47E-2</v>
       </c>
       <c r="C171" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D171" t="s">
         <v>198</v>
@@ -6497,13 +6494,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B172">
         <v>2.2577489371428598E-3</v>
       </c>
       <c r="C172" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D172" t="s">
         <v>15</v>
@@ -6517,13 +6514,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B173">
         <v>0.27442155024368597</v>
       </c>
       <c r="C173" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D173" t="s">
         <v>17</v>
@@ -6537,13 +6534,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B174">
         <v>-2.3742571000000001E-2</v>
       </c>
       <c r="C174" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -6552,7 +6549,7 @@
         <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -6563,7 +6560,7 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="C175" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D175" t="s">
         <v>198</v>
@@ -6580,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
@@ -6588,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="B179" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
@@ -6596,7 +6593,7 @@
         <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
@@ -6604,7 +6601,7 @@
         <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
@@ -6620,7 +6617,7 @@
         <v>213</v>
       </c>
       <c r="B183" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
@@ -6651,45 +6648,45 @@
         <v>11</v>
       </c>
       <c r="H185" t="s">
+        <v>243</v>
+      </c>
+      <c r="I185" t="s">
         <v>244</v>
       </c>
-      <c r="I185" t="s">
+      <c r="J185" t="s">
         <v>245</v>
       </c>
-      <c r="J185" t="s">
+      <c r="K185" t="s">
         <v>246</v>
       </c>
-      <c r="K185" t="s">
+      <c r="L185" t="s">
         <v>247</v>
       </c>
-      <c r="L185" t="s">
+      <c r="M185" t="s">
         <v>248</v>
-      </c>
-      <c r="M185" t="s">
-        <v>249</v>
       </c>
       <c r="N185" t="s">
         <v>1</v>
       </c>
       <c r="O185" t="s">
+        <v>249</v>
+      </c>
+      <c r="P185" t="s">
         <v>250</v>
       </c>
-      <c r="P185" t="s">
+      <c r="Q185" t="s">
         <v>251</v>
       </c>
-      <c r="Q185" t="s">
+      <c r="R185" t="s">
         <v>252</v>
       </c>
-      <c r="R185" t="s">
+      <c r="S185" t="s">
         <v>253</v>
-      </c>
-      <c r="S185" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B186">
         <v>1.902E-10</v>
@@ -6704,7 +6701,7 @@
         <v>20</v>
       </c>
       <c r="H186" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I186">
         <v>2</v>
@@ -6716,10 +6713,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N186" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O186" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -6730,7 +6727,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B187">
         <v>9.5090000000000005E-11</v>
@@ -6745,7 +6742,7 @@
         <v>20</v>
       </c>
       <c r="H187" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I187">
         <v>2</v>
@@ -6757,10 +6754,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N187" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O187" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -6786,7 +6783,7 @@
         <v>20</v>
       </c>
       <c r="H188" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I188">
         <v>2</v>
@@ -6798,10 +6795,10 @@
         <v>9.6436507609929542E-2</v>
       </c>
       <c r="N188" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O188" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -6827,7 +6824,7 @@
         <v>20</v>
       </c>
       <c r="H189" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I189">
         <v>2</v>
@@ -6839,10 +6836,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N189" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O189" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q189">
         <v>0</v>
@@ -6853,7 +6850,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B190">
         <v>1.521E-9</v>
@@ -6868,7 +6865,7 @@
         <v>20</v>
       </c>
       <c r="H190" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I190">
         <v>2</v>
@@ -6880,10 +6877,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N190" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O190" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Q190">
         <v>0</v>
@@ -6894,7 +6891,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B191">
         <v>1.902E-10</v>
@@ -6909,7 +6906,7 @@
         <v>20</v>
       </c>
       <c r="H191" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I191">
         <v>2</v>
@@ -6921,10 +6918,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N191" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O191" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q191">
         <v>0</v>
@@ -6935,7 +6932,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B192">
         <v>1.902E-10</v>
@@ -6950,7 +6947,7 @@
         <v>20</v>
       </c>
       <c r="H192" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I192">
         <v>2</v>
@@ -6962,10 +6959,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N192" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O192" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -6991,7 +6988,7 @@
         <v>20</v>
       </c>
       <c r="H193" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I193">
         <v>2</v>
@@ -7003,10 +7000,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N193" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O193" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q193">
         <v>0</v>
@@ -7017,7 +7014,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B194">
         <v>6.0700000000000003E-6</v>
@@ -7032,7 +7029,7 @@
         <v>20</v>
       </c>
       <c r="H194" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I194">
         <v>2</v>
@@ -7044,10 +7041,10 @@
         <v>0.2238302928559939</v>
       </c>
       <c r="N194" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O194" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Q194">
         <v>0</v>
@@ -7073,7 +7070,7 @@
         <v>20</v>
       </c>
       <c r="H195" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I195">
         <v>2</v>
@@ -7085,10 +7082,10 @@
         <v>0.2238302928559939</v>
       </c>
       <c r="N195" t="s">
+        <v>431</v>
+      </c>
+      <c r="O195" t="s">
         <v>433</v>
-      </c>
-      <c r="O195" t="s">
-        <v>435</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -7099,7 +7096,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B196">
         <v>3.6160000000000001E-7</v>
@@ -7114,7 +7111,7 @@
         <v>20</v>
       </c>
       <c r="H196" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I196">
         <v>2</v>
@@ -7126,10 +7123,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N196" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O196" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -7140,7 +7137,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B197">
         <v>1.902E-10</v>
@@ -7155,7 +7152,7 @@
         <v>20</v>
       </c>
       <c r="H197" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I197">
         <v>2</v>
@@ -7167,10 +7164,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N197" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O197" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q197">
         <v>0</v>
@@ -7181,7 +7178,7 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B198">
         <v>5.7049999999999998E-8</v>
@@ -7196,7 +7193,7 @@
         <v>20</v>
       </c>
       <c r="H198" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I198">
         <v>2</v>
@@ -7208,10 +7205,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N198" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O198" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -7222,7 +7219,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B199">
         <v>2.472E-11</v>
@@ -7237,7 +7234,7 @@
         <v>20</v>
       </c>
       <c r="H199" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I199">
         <v>2</v>
@@ -7249,10 +7246,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N199" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O199" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -7263,7 +7260,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B200">
         <v>3.0300000000000001E-9</v>
@@ -7278,7 +7275,7 @@
         <v>20</v>
       </c>
       <c r="H200" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I200">
         <v>2</v>
@@ -7290,10 +7287,10 @@
         <v>0.81246538387798406</v>
       </c>
       <c r="N200" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O200" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q200">
         <v>0</v>
@@ -7319,7 +7316,7 @@
         <v>20</v>
       </c>
       <c r="H201" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I201">
         <v>2</v>
@@ -7331,10 +7328,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N201" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O201" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q201">
         <v>0</v>
@@ -7345,7 +7342,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B202">
         <v>1.287E-9</v>
@@ -7369,10 +7366,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N202" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O202" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -7383,7 +7380,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B203">
         <v>1.902E-10</v>
@@ -7398,7 +7395,7 @@
         <v>20</v>
       </c>
       <c r="H203" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I203">
         <v>2</v>
@@ -7410,10 +7407,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N203" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O203" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -7439,7 +7436,7 @@
         <v>20</v>
       </c>
       <c r="H204" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -7451,10 +7448,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N204" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O204" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q204">
         <v>0</v>
@@ -7480,7 +7477,7 @@
         <v>20</v>
       </c>
       <c r="H205" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I205">
         <v>2</v>
@@ -7492,10 +7489,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N205" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O205" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q205">
         <v>0</v>
@@ -7506,7 +7503,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B206">
         <v>1.039E-5</v>
@@ -7530,10 +7527,10 @@
         <v>0.55560777532356398</v>
       </c>
       <c r="N206" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O206" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -7544,7 +7541,7 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B207">
         <v>1.7960000000000001E-5</v>
@@ -7568,10 +7565,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N207" t="s">
+        <v>451</v>
+      </c>
+      <c r="O207" t="s">
         <v>453</v>
-      </c>
-      <c r="O207" t="s">
-        <v>455</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -7582,7 +7579,7 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B208">
         <v>1.2310000000000001E-5</v>
@@ -7606,10 +7603,10 @@
         <v>0.35874782229304197</v>
       </c>
       <c r="N208" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O208" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -7635,7 +7632,7 @@
         <v>20</v>
       </c>
       <c r="H209" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I209">
         <v>2</v>
@@ -7647,10 +7644,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N209" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O209" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q209">
         <v>0</v>
@@ -7661,7 +7658,7 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B210">
         <v>1.73E-9</v>
@@ -7676,7 +7673,7 @@
         <v>20</v>
       </c>
       <c r="H210" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I210">
         <v>2</v>
@@ -7688,10 +7685,10 @@
         <v>0.81246538387798406</v>
       </c>
       <c r="N210" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O210" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -7717,7 +7714,7 @@
         <v>20</v>
       </c>
       <c r="H211" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I211">
         <v>2</v>
@@ -7729,10 +7726,10 @@
         <v>9.6436507609929542E-2</v>
       </c>
       <c r="N211" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O211" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q211">
         <v>0</v>
@@ -7767,10 +7764,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N212" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O212" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q212">
         <v>0</v>
@@ -7796,7 +7793,7 @@
         <v>20</v>
       </c>
       <c r="H213" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I213">
         <v>2</v>
@@ -7808,10 +7805,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N213" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O213" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q213">
         <v>0</v>
@@ -7837,7 +7834,7 @@
         <v>20</v>
       </c>
       <c r="H214" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I214">
         <v>2</v>
@@ -7849,10 +7846,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N214" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O214" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -7863,7 +7860,7 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B215">
         <v>7.6069999999999997E-10</v>
@@ -7878,7 +7875,7 @@
         <v>20</v>
       </c>
       <c r="H215" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I215">
         <v>2</v>
@@ -7890,10 +7887,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N215" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O215" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q215">
         <v>0</v>
@@ -7904,16 +7901,16 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D216" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E216" t="s">
         <v>7</v>
@@ -7928,13 +7925,13 @@
         <v>1</v>
       </c>
       <c r="L216" t="s">
+        <v>464</v>
+      </c>
+      <c r="N216" t="s">
+        <v>465</v>
+      </c>
+      <c r="O216" t="s">
         <v>466</v>
-      </c>
-      <c r="N216" t="s">
-        <v>467</v>
-      </c>
-      <c r="O216" t="s">
-        <v>468</v>
       </c>
       <c r="Q216">
         <v>10100000000</v>
@@ -7969,13 +7966,13 @@
         <v>0.71414284285428498</v>
       </c>
       <c r="L217" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N217" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O217" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -7986,13 +7983,13 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B218">
         <v>1.528E-2</v>
       </c>
       <c r="C218" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
@@ -8013,13 +8010,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L218" t="s">
+        <v>471</v>
+      </c>
+      <c r="N218" t="s">
+        <v>472</v>
+      </c>
+      <c r="O218" t="s">
         <v>473</v>
-      </c>
-      <c r="N218" t="s">
-        <v>474</v>
-      </c>
-      <c r="O218" t="s">
-        <v>475</v>
       </c>
       <c r="Q218">
         <v>0</v>
@@ -8030,16 +8027,16 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B219">
         <v>2.9899999999999999E-2</v>
       </c>
       <c r="C219" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D219" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E219" t="s">
         <v>15</v>
@@ -8077,13 +8074,13 @@
         <v>8.9442719099991588E-2</v>
       </c>
       <c r="L220" t="s">
+        <v>476</v>
+      </c>
+      <c r="N220" t="s">
+        <v>477</v>
+      </c>
+      <c r="O220" t="s">
         <v>478</v>
-      </c>
-      <c r="N220" t="s">
-        <v>479</v>
-      </c>
-      <c r="O220" t="s">
-        <v>480</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -8121,13 +8118,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L221" t="s">
+        <v>479</v>
+      </c>
+      <c r="N221" t="s">
+        <v>480</v>
+      </c>
+      <c r="O221" t="s">
         <v>481</v>
-      </c>
-      <c r="N221" t="s">
-        <v>482</v>
-      </c>
-      <c r="O221" t="s">
-        <v>483</v>
       </c>
       <c r="Q221">
         <v>1009596</v>
@@ -8165,13 +8162,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L222" t="s">
+        <v>482</v>
+      </c>
+      <c r="N222" t="s">
+        <v>483</v>
+      </c>
+      <c r="O222" t="s">
         <v>484</v>
-      </c>
-      <c r="N222" t="s">
-        <v>485</v>
-      </c>
-      <c r="O222" t="s">
-        <v>486</v>
       </c>
       <c r="Q222">
         <v>0</v>
@@ -8209,13 +8206,13 @@
         <v>8.9442719099991588E-2</v>
       </c>
       <c r="L223" t="s">
+        <v>485</v>
+      </c>
+      <c r="N223" t="s">
+        <v>486</v>
+      </c>
+      <c r="O223" t="s">
         <v>487</v>
-      </c>
-      <c r="N223" t="s">
-        <v>488</v>
-      </c>
-      <c r="O223" t="s">
-        <v>489</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -8253,13 +8250,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L224" t="s">
+        <v>488</v>
+      </c>
+      <c r="N224" t="s">
+        <v>489</v>
+      </c>
+      <c r="O224" t="s">
         <v>490</v>
-      </c>
-      <c r="N224" t="s">
-        <v>491</v>
-      </c>
-      <c r="O224" t="s">
-        <v>492</v>
       </c>
       <c r="Q224">
         <v>37955.800000000003</v>
@@ -8270,7 +8267,7 @@
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B225">
         <v>0.66080000000000005</v>
@@ -8290,7 +8287,7 @@
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B226">
         <v>0.13534860007647501</v>
@@ -8317,13 +8314,13 @@
         <v>8.9442719099991588E-2</v>
       </c>
       <c r="L226" t="s">
+        <v>493</v>
+      </c>
+      <c r="N226" t="s">
+        <v>494</v>
+      </c>
+      <c r="O226" t="s">
         <v>495</v>
-      </c>
-      <c r="N226" t="s">
-        <v>496</v>
-      </c>
-      <c r="O226" t="s">
-        <v>497</v>
       </c>
       <c r="Q226">
         <v>0</v>
@@ -8361,13 +8358,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L227" t="s">
+        <v>496</v>
+      </c>
+      <c r="N227" t="s">
+        <v>497</v>
+      </c>
+      <c r="O227" t="s">
         <v>498</v>
-      </c>
-      <c r="N227" t="s">
-        <v>499</v>
-      </c>
-      <c r="O227" t="s">
-        <v>500</v>
       </c>
       <c r="Q227">
         <v>26825.599999999999</v>
@@ -8378,16 +8375,16 @@
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B228">
         <v>0.98470000000000002</v>
       </c>
       <c r="C228" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D228" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E228" t="s">
         <v>7</v>
@@ -8401,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.2">
@@ -8409,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.2">
@@ -8417,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="B232" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.2">
@@ -8425,7 +8422,7 @@
         <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.2">
@@ -8449,7 +8446,7 @@
         <v>213</v>
       </c>
       <c r="B236" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.2">
@@ -8480,45 +8477,45 @@
         <v>11</v>
       </c>
       <c r="H238" t="s">
+        <v>243</v>
+      </c>
+      <c r="I238" t="s">
         <v>244</v>
       </c>
-      <c r="I238" t="s">
+      <c r="J238" t="s">
         <v>245</v>
       </c>
-      <c r="J238" t="s">
+      <c r="K238" t="s">
         <v>246</v>
       </c>
-      <c r="K238" t="s">
+      <c r="L238" t="s">
         <v>247</v>
       </c>
-      <c r="L238" t="s">
+      <c r="M238" t="s">
         <v>248</v>
-      </c>
-      <c r="M238" t="s">
-        <v>249</v>
       </c>
       <c r="N238" t="s">
         <v>1</v>
       </c>
       <c r="O238" t="s">
+        <v>249</v>
+      </c>
+      <c r="P238" t="s">
         <v>250</v>
       </c>
-      <c r="P238" t="s">
+      <c r="Q238" t="s">
         <v>251</v>
       </c>
-      <c r="Q238" t="s">
+      <c r="R238" t="s">
         <v>252</v>
       </c>
-      <c r="R238" t="s">
+      <c r="S238" t="s">
         <v>253</v>
-      </c>
-      <c r="S238" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B239">
         <v>3E-9</v>
@@ -8533,7 +8530,7 @@
         <v>20</v>
       </c>
       <c r="H239" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I239">
         <v>2</v>
@@ -8545,10 +8542,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N239" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O239" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -8559,7 +8556,7 @@
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B240">
         <v>2.0371548787E-9</v>
@@ -8574,7 +8571,7 @@
         <v>20</v>
       </c>
       <c r="H240" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I240">
         <v>2</v>
@@ -8586,10 +8583,10 @@
         <v>0.55247171873318546</v>
       </c>
       <c r="N240" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O240" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Q240">
         <v>0</v>
@@ -8600,7 +8597,7 @@
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B241">
         <v>7.4390859654000001E-9</v>
@@ -8615,7 +8612,7 @@
         <v>20</v>
       </c>
       <c r="H241" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I241">
         <v>2</v>
@@ -8627,10 +8624,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N241" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O241" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q241">
         <v>0</v>
@@ -8656,7 +8653,7 @@
         <v>20</v>
       </c>
       <c r="H242" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I242">
         <v>2</v>
@@ -8668,10 +8665,10 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="N242" t="s">
+        <v>255</v>
+      </c>
+      <c r="O242" t="s">
         <v>256</v>
-      </c>
-      <c r="O242" t="s">
-        <v>257</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -8697,7 +8694,7 @@
         <v>20</v>
       </c>
       <c r="H243" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I243">
         <v>2</v>
@@ -8709,10 +8706,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N243" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O243" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -8723,7 +8720,7 @@
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B244">
         <v>2.1221687021000001E-8</v>
@@ -8738,7 +8735,7 @@
         <v>20</v>
       </c>
       <c r="H244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I244">
         <v>2</v>
@@ -8750,10 +8747,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N244" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O244" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q244">
         <v>0</v>
@@ -8764,7 +8761,7 @@
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B245">
         <v>3.3777951387999999E-8</v>
@@ -8779,7 +8776,7 @@
         <v>20</v>
       </c>
       <c r="H245" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I245">
         <v>2</v>
@@ -8791,10 +8788,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N245" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O245" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q245">
         <v>0</v>
@@ -8820,7 +8817,7 @@
         <v>20</v>
       </c>
       <c r="H246" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I246">
         <v>2</v>
@@ -8832,10 +8829,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N246" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O246" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -8846,7 +8843,7 @@
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B247">
         <v>3.4447641429E-5</v>
@@ -8861,7 +8858,7 @@
         <v>20</v>
       </c>
       <c r="H247" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I247">
         <v>2</v>
@@ -8873,10 +8870,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N247" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O247" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q247">
         <v>0</v>
@@ -8902,7 +8899,7 @@
         <v>20</v>
       </c>
       <c r="H248" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I248">
         <v>2</v>
@@ -8914,10 +8911,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N248" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O248" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -8928,7 +8925,7 @@
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B249">
         <v>3.8439214351999999E-7</v>
@@ -8943,7 +8940,7 @@
         <v>20</v>
       </c>
       <c r="H249" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I249">
         <v>2</v>
@@ -8955,10 +8952,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N249" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O249" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q249">
         <v>0</v>
@@ -8969,7 +8966,7 @@
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B250">
         <v>4.2824759194E-8</v>
@@ -8984,7 +8981,7 @@
         <v>20</v>
       </c>
       <c r="H250" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I250">
         <v>2</v>
@@ -8996,10 +8993,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N250" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O250" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q250">
         <v>0</v>
@@ -9010,7 +9007,7 @@
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B251">
         <v>4.5497252663999999E-9</v>
@@ -9025,7 +9022,7 @@
         <v>20</v>
       </c>
       <c r="H251" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I251">
         <v>2</v>
@@ -9037,10 +9034,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N251" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O251" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q251">
         <v>0</v>
@@ -9066,7 +9063,7 @@
         <v>20</v>
       </c>
       <c r="H252" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I252">
         <v>2</v>
@@ -9078,10 +9075,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N252" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O252" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q252">
         <v>0</v>
@@ -9092,7 +9089,7 @@
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B253">
         <v>1.9782568084000002E-5</v>
@@ -9116,10 +9113,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N253" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O253" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Q253">
         <v>0</v>
@@ -9130,7 +9127,7 @@
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B254">
         <v>1.5108937751999999E-8</v>
@@ -9145,7 +9142,7 @@
         <v>20</v>
       </c>
       <c r="H254" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I254">
         <v>2</v>
@@ -9157,10 +9154,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N254" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O254" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -9186,7 +9183,7 @@
         <v>20</v>
       </c>
       <c r="H255" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I255">
         <v>2</v>
@@ -9198,10 +9195,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N255" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O255" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -9221,13 +9218,13 @@
         <v>7</v>
       </c>
       <c r="F256" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G256" t="s">
         <v>20</v>
       </c>
       <c r="H256" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I256">
         <v>2</v>
@@ -9239,10 +9236,10 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="N256" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O256" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="Q256">
         <v>0</v>
@@ -9277,10 +9274,10 @@
         <v>0.55247171873318546</v>
       </c>
       <c r="N257" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O257" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q257">
         <v>0</v>
@@ -9291,7 +9288,7 @@
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B258">
         <v>1.20415E-4</v>
@@ -9312,10 +9309,10 @@
         <v>1.20415E-4</v>
       </c>
       <c r="N258" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="O258" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q258">
         <v>0</v>
@@ -9323,7 +9320,7 @@
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B259">
         <v>9.3775800000000004E-5</v>
@@ -9347,10 +9344,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N259" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="O259" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q259">
         <v>0</v>
@@ -9361,7 +9358,7 @@
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B260">
         <v>1.9602500000000001E-5</v>
@@ -9385,10 +9382,10 @@
         <v>0.35387144558440992</v>
       </c>
       <c r="N260" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="O260" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Q260">
         <v>0</v>
@@ -9423,10 +9420,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N261" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O261" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Q261">
         <v>0</v>
@@ -9437,7 +9434,7 @@
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B262">
         <v>5.1253292576999998E-8</v>
@@ -9452,7 +9449,7 @@
         <v>20</v>
       </c>
       <c r="H262" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I262">
         <v>2</v>
@@ -9464,10 +9461,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N262" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O262" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -9493,7 +9490,7 @@
         <v>20</v>
       </c>
       <c r="H263" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I263">
         <v>2</v>
@@ -9505,10 +9502,10 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="N263" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O263" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q263">
         <v>0</v>
@@ -9519,7 +9516,7 @@
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B264">
         <v>6.5802735504999996E-9</v>
@@ -9534,7 +9531,7 @@
         <v>20</v>
       </c>
       <c r="H264" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I264">
         <v>2</v>
@@ -9546,10 +9543,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N264" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O264" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Q264">
         <v>0</v>
@@ -9560,7 +9557,7 @@
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B265">
         <v>9.7519228873000004E-9</v>
@@ -9575,7 +9572,7 @@
         <v>20</v>
       </c>
       <c r="H265" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I265">
         <v>2</v>
@@ -9587,10 +9584,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N265" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O265" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Q265">
         <v>0</v>
@@ -9616,7 +9613,7 @@
         <v>20</v>
       </c>
       <c r="H266" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I266">
         <v>2</v>
@@ -9628,10 +9625,10 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="N266" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O266" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q266">
         <v>0</v>
@@ -9642,16 +9639,16 @@
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B267">
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D267" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E267" t="s">
         <v>7</v>
@@ -9666,10 +9663,10 @@
         <v>1</v>
       </c>
       <c r="L267" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O267" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Q267">
         <v>113558550000</v>
@@ -9677,13 +9674,13 @@
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B268">
         <v>0.10487776</v>
       </c>
       <c r="C268" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D268" t="s">
         <v>14</v>
@@ -9697,13 +9694,13 @@
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B269">
         <v>0.16200000000000001</v>
       </c>
       <c r="C269" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D269" t="s">
         <v>14</v>
@@ -9744,13 +9741,13 @@
         <v>0.77796208133815881</v>
       </c>
       <c r="L270" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N270" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O270" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q270">
         <v>0</v>
@@ -9770,7 +9767,7 @@
         <v>101</v>
       </c>
       <c r="D271" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E271" t="s">
         <v>7</v>
@@ -9781,13 +9778,13 @@
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B272">
         <v>0.10785797</v>
       </c>
       <c r="C272" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D272" t="s">
         <v>14</v>
@@ -9821,16 +9818,16 @@
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B274">
         <v>-3.2656142502726897E-5</v>
       </c>
       <c r="C274" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D274" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E274" t="s">
         <v>22</v>
@@ -9848,13 +9845,13 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="L274" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="N274" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O274" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q274">
         <v>4817881.6013054997</v>
@@ -9865,16 +9862,16 @@
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B275">
         <v>-9.7702674972731194E-6</v>
       </c>
       <c r="C275" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D275" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E275" t="s">
         <v>22</v>
@@ -9892,13 +9889,13 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="L275" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N275" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O275" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q275">
         <v>4817881.6013054997</v>
@@ -9909,7 +9906,7 @@
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B276">
         <v>5.3600000000000002E-2</v>
@@ -9918,7 +9915,7 @@
         <v>16</v>
       </c>
       <c r="D276" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E276" t="s">
         <v>15</v>
@@ -9929,13 +9926,13 @@
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B277">
         <v>0.05</v>
       </c>
       <c r="C277" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D277" t="s">
         <v>14</v>
@@ -9949,16 +9946,16 @@
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B278">
         <v>0.70660000000000001</v>
       </c>
       <c r="C278" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D278" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E278" t="s">
         <v>7</v>
@@ -9972,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.2">
@@ -9988,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="B282" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.2">
@@ -10004,7 +10001,7 @@
         <v>5</v>
       </c>
       <c r="B284" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.2">
@@ -10028,7 +10025,7 @@
         <v>213</v>
       </c>
       <c r="B287" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.2">
@@ -10061,7 +10058,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B290">
         <v>15.73</v>
@@ -10078,7 +10075,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B291">
         <v>1.44E-2</v>
@@ -10112,13 +10109,13 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D293" t="s">
         <v>7</v>
@@ -10127,18 +10124,18 @@
         <v>12</v>
       </c>
       <c r="G293" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B294">
         <v>0.752</v>
       </c>
       <c r="C294" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D294" t="s">
         <v>7</v>
@@ -10147,12 +10144,12 @@
         <v>13</v>
       </c>
       <c r="G294" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B295">
         <v>0.01</v>
@@ -10167,12 +10164,12 @@
         <v>13</v>
       </c>
       <c r="G295" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B296">
         <v>2.7300000000000001E-2</v>
@@ -10187,12 +10184,12 @@
         <v>13</v>
       </c>
       <c r="G296" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B297">
         <v>5.0400000000000002E-3</v>
@@ -10207,12 +10204,12 @@
         <v>13</v>
       </c>
       <c r="G297" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B298">
         <v>0.251</v>
@@ -10227,7 +10224,7 @@
         <v>13</v>
       </c>
       <c r="G298" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
@@ -10252,13 +10249,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B300">
         <v>0.55000000000000004</v>
       </c>
       <c r="C300" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D300" t="s">
         <v>15</v>
@@ -10272,13 +10269,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B301">
         <v>13.75</v>
       </c>
       <c r="C301" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D301" t="s">
         <v>17</v>
@@ -10292,7 +10289,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B302">
         <v>-1.8</v>
@@ -10307,7 +10304,7 @@
         <v>13</v>
       </c>
       <c r="G302" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
@@ -10323,7 +10320,7 @@
         <v>1</v>
       </c>
       <c r="B305" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.2">
@@ -10331,7 +10328,7 @@
         <v>2</v>
       </c>
       <c r="B306" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.2">
@@ -10355,7 +10352,7 @@
         <v>213</v>
       </c>
       <c r="B309" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.2">
@@ -10386,22 +10383,22 @@
         <v>11</v>
       </c>
       <c r="H311" t="s">
+        <v>243</v>
+      </c>
+      <c r="I311" t="s">
         <v>244</v>
       </c>
-      <c r="I311" t="s">
+      <c r="J311" t="s">
         <v>245</v>
       </c>
-      <c r="J311" t="s">
+      <c r="K311" t="s">
         <v>246</v>
-      </c>
-      <c r="K311" t="s">
-        <v>247</v>
       </c>
       <c r="L311" t="s">
         <v>1</v>
       </c>
       <c r="M311" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.2">
@@ -10421,7 +10418,7 @@
         <v>20</v>
       </c>
       <c r="H312" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I312">
         <v>2</v>
@@ -10433,7 +10430,7 @@
         <v>3.8729833462074169E-2</v>
       </c>
       <c r="L312" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M312">
         <v>0</v>
@@ -10456,7 +10453,7 @@
         <v>20</v>
       </c>
       <c r="H313" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I313">
         <v>2</v>
@@ -10468,7 +10465,7 @@
         <v>0.80715549926888308</v>
       </c>
       <c r="L313" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M313">
         <v>0.80622577482985502</v>
@@ -10491,7 +10488,7 @@
         <v>20</v>
       </c>
       <c r="H314" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I314">
         <v>2</v>
@@ -10503,7 +10500,7 @@
         <v>0.5490901565316938</v>
       </c>
       <c r="L314" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M314">
         <v>0.54772255750516607</v>
@@ -10511,7 +10508,7 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B315">
         <v>1.0745E-5</v>
@@ -10526,7 +10523,7 @@
         <v>20</v>
       </c>
       <c r="H315" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I315">
         <v>2</v>
@@ -10538,7 +10535,7 @@
         <v>0.20371548787463359</v>
       </c>
       <c r="L315" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M315">
         <v>0.2</v>
@@ -10546,7 +10543,7 @@
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B316">
         <v>6.9149000000000006E-8</v>
@@ -10561,7 +10558,7 @@
         <v>20</v>
       </c>
       <c r="H316" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I316">
         <v>2</v>
@@ -10573,7 +10570,7 @@
         <v>0.80715549926888308</v>
       </c>
       <c r="L316" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M316">
         <v>0.80622577482985502</v>
@@ -10581,7 +10578,7 @@
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B317">
         <v>7.4468000000000002E-8</v>
@@ -10596,7 +10593,7 @@
         <v>20</v>
       </c>
       <c r="H317" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I317">
         <v>2</v>
@@ -10608,7 +10605,7 @@
         <v>0.80715549926888308</v>
       </c>
       <c r="L317" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M317">
         <v>0.80622577482985502</v>
@@ -10616,7 +10613,7 @@
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B318">
         <v>1.5956999999999999E-8</v>
@@ -10631,7 +10628,7 @@
         <v>20</v>
       </c>
       <c r="H318" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I318">
         <v>2</v>
@@ -10643,7 +10640,7 @@
         <v>0.80715549926888308</v>
       </c>
       <c r="L318" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M318">
         <v>0.80622577482985502</v>
@@ -10666,7 +10663,7 @@
         <v>20</v>
       </c>
       <c r="H319" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I319">
         <v>2</v>
@@ -10678,7 +10675,7 @@
         <v>0.20371548787463359</v>
       </c>
       <c r="L319" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M319">
         <v>0.2</v>
@@ -10686,7 +10683,7 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B320">
         <v>2.8722999999999999E-5</v>
@@ -10710,7 +10707,7 @@
         <v>0.5490901565316938</v>
       </c>
       <c r="L320" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M320">
         <v>0.54772255750516607</v>
@@ -10718,7 +10715,7 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B321">
         <v>1.5957E-6</v>
@@ -10742,7 +10739,7 @@
         <v>0.20371548787463359</v>
       </c>
       <c r="L321" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M321">
         <v>0.2</v>
@@ -10750,7 +10747,7 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B322">
         <v>1.5957E-6</v>
@@ -10774,7 +10771,7 @@
         <v>0.3485685011586675</v>
       </c>
       <c r="L322" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M322">
         <v>0.34641016151377552</v>
@@ -10797,7 +10794,7 @@
         <v>20</v>
       </c>
       <c r="H323" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I323">
         <v>2</v>
@@ -10809,7 +10806,7 @@
         <v>3.8729833462074169E-2</v>
       </c>
       <c r="L323" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M323">
         <v>0</v>
@@ -10832,7 +10829,7 @@
         <v>20</v>
       </c>
       <c r="H324" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I324">
         <v>2</v>
@@ -10844,7 +10841,7 @@
         <v>0.30335622624235031</v>
       </c>
       <c r="L324" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M324">
         <v>0.2</v>
@@ -10867,7 +10864,7 @@
         <v>20</v>
       </c>
       <c r="H325" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I325">
         <v>2</v>
@@ -10879,7 +10876,7 @@
         <v>0.20174241001832011</v>
       </c>
       <c r="L325" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M325">
         <v>0.2</v>
@@ -10902,7 +10899,7 @@
         <v>20</v>
       </c>
       <c r="H326" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I326">
         <v>2</v>
@@ -10914,7 +10911,7 @@
         <v>0.1132475165290612</v>
       </c>
       <c r="L326" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M326">
         <v>0.1</v>
@@ -10937,7 +10934,7 @@
         <v>20</v>
       </c>
       <c r="H327" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I327">
         <v>2</v>
@@ -10949,7 +10946,7 @@
         <v>0.1132475165290612</v>
       </c>
       <c r="L327" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M327">
         <v>0.1</v>
@@ -10966,7 +10963,7 @@
         <v>66</v>
       </c>
       <c r="D328" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E328" t="s">
         <v>7</v>
@@ -10983,16 +10980,16 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="B329">
         <v>-0.65</v>
       </c>
       <c r="C329" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D329" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E329" t="s">
         <v>7</v>
@@ -11010,7 +11007,7 @@
         <v>0.2095232683975696</v>
       </c>
       <c r="L329" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M329">
         <v>0.2</v>
@@ -11018,13 +11015,13 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B330">
         <v>8.7379999999999999E-2</v>
       </c>
       <c r="C330" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D330" t="s">
         <v>14</v>
@@ -11038,7 +11035,7 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B331">
         <v>-4.6224999999999996</v>
@@ -11058,16 +11055,16 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B332">
         <v>0.42399999999999999</v>
       </c>
       <c r="C332" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D332" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E332" t="s">
         <v>7</v>
@@ -11078,16 +11075,16 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B333">
         <v>1.59</v>
       </c>
       <c r="C333" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D333" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E333" t="s">
         <v>7</v>
@@ -11098,13 +11095,13 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B334">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C334" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -11125,7 +11122,7 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="L334" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M334">
         <v>0.53851648071345037</v>
@@ -11142,7 +11139,7 @@
         <v>101</v>
       </c>
       <c r="D335" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E335" t="s">
         <v>7</v>
@@ -11160,7 +11157,7 @@
         <v>1.4142135623730951E-2</v>
       </c>
       <c r="L335" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M335">
         <v>0</v>
@@ -11195,7 +11192,7 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="L336" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M336">
         <v>0</v>
@@ -11203,13 +11200,13 @@
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B337">
         <v>0.1055556</v>
       </c>
       <c r="C337" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
@@ -11223,13 +11220,13 @@
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B338">
         <v>0.45184999999999997</v>
       </c>
       <c r="C338" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
@@ -11243,13 +11240,13 @@
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B339">
         <v>2E-3</v>
       </c>
       <c r="C339" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
@@ -11270,7 +11267,7 @@
         <v>1.4142135623730951E-2</v>
       </c>
       <c r="L339" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M339">
         <v>0</v>
@@ -11278,13 +11275,13 @@
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B340">
         <v>-1.21643E-4</v>
       </c>
       <c r="C340" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D340" t="s">
         <v>14</v>
@@ -11305,7 +11302,7 @@
         <v>0.2083266665599966</v>
       </c>
       <c r="L340" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M340">
         <v>0.2</v>
@@ -11324,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="B343" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="344" spans="1:19" x14ac:dyDescent="0.2">
@@ -11356,7 +11353,7 @@
         <v>213</v>
       </c>
       <c r="B347" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="348" spans="1:19" x14ac:dyDescent="0.2">
@@ -11387,45 +11384,45 @@
         <v>11</v>
       </c>
       <c r="H349" t="s">
+        <v>243</v>
+      </c>
+      <c r="I349" t="s">
         <v>244</v>
       </c>
-      <c r="I349" t="s">
+      <c r="J349" t="s">
         <v>245</v>
       </c>
-      <c r="J349" t="s">
+      <c r="K349" t="s">
         <v>246</v>
       </c>
-      <c r="K349" t="s">
+      <c r="L349" t="s">
         <v>247</v>
       </c>
-      <c r="L349" t="s">
+      <c r="M349" t="s">
         <v>248</v>
-      </c>
-      <c r="M349" t="s">
-        <v>249</v>
       </c>
       <c r="N349" t="s">
         <v>1</v>
       </c>
       <c r="O349" t="s">
+        <v>249</v>
+      </c>
+      <c r="P349" t="s">
         <v>250</v>
       </c>
-      <c r="P349" t="s">
+      <c r="Q349" t="s">
         <v>251</v>
       </c>
-      <c r="Q349" t="s">
+      <c r="R349" t="s">
         <v>252</v>
       </c>
-      <c r="R349" t="s">
+      <c r="S349" t="s">
         <v>253</v>
-      </c>
-      <c r="S349" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B350">
         <v>2.0000000000000001E-13</v>
@@ -11440,7 +11437,7 @@
         <v>20</v>
       </c>
       <c r="H350" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I350">
         <v>2</v>
@@ -11452,10 +11449,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N350" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O350" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q350">
         <v>0</v>
@@ -11466,7 +11463,7 @@
     </row>
     <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B351">
         <v>2.1E-10</v>
@@ -11481,7 +11478,7 @@
         <v>20</v>
       </c>
       <c r="H351" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I351">
         <v>2</v>
@@ -11493,7 +11490,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O351" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Q351">
         <v>0</v>
@@ -11504,7 +11501,7 @@
     </row>
     <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B352">
         <v>3.1000000000000001E-12</v>
@@ -11519,7 +11516,7 @@
         <v>20</v>
       </c>
       <c r="H352" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I352">
         <v>2</v>
@@ -11531,10 +11528,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N352" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O352" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q352">
         <v>0</v>
@@ -11560,7 +11557,7 @@
         <v>20</v>
       </c>
       <c r="H353" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I353">
         <v>2</v>
@@ -11572,7 +11569,7 @@
         <v>0.2032240143290158</v>
       </c>
       <c r="O353" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q353">
         <v>0</v>
@@ -11598,7 +11595,7 @@
         <v>20</v>
       </c>
       <c r="H354" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I354">
         <v>2</v>
@@ -11610,7 +11607,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O354" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q354">
         <v>0</v>
@@ -11621,7 +11618,7 @@
     </row>
     <row r="355" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B355">
         <v>2.7000000000000002E-9</v>
@@ -11636,7 +11633,7 @@
         <v>20</v>
       </c>
       <c r="H355" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I355">
         <v>2</v>
@@ -11648,7 +11645,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O355" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q355">
         <v>0</v>
@@ -11659,7 +11656,7 @@
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B356">
         <v>4.9600000000000002E-11</v>
@@ -11674,7 +11671,7 @@
         <v>20</v>
       </c>
       <c r="H356" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I356">
         <v>2</v>
@@ -11686,10 +11683,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N356" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O356" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Q356">
         <v>0</v>
@@ -11700,7 +11697,7 @@
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B357">
         <v>6.2000000000000002E-12</v>
@@ -11715,7 +11712,7 @@
         <v>20</v>
       </c>
       <c r="H357" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I357">
         <v>2</v>
@@ -11727,10 +11724,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N357" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O357" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q357">
         <v>0</v>
@@ -11741,7 +11738,7 @@
     </row>
     <row r="358" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B358">
         <v>4.5999999999999998E-9</v>
@@ -11756,7 +11753,7 @@
         <v>20</v>
       </c>
       <c r="H358" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I358">
         <v>2</v>
@@ -11768,7 +11765,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O358" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q358">
         <v>0</v>
@@ -11779,7 +11776,7 @@
     </row>
     <row r="359" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B359">
         <v>6.2000000000000002E-12</v>
@@ -11794,7 +11791,7 @@
         <v>20</v>
       </c>
       <c r="H359" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I359">
         <v>2</v>
@@ -11806,10 +11803,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N359" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O359" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Q359">
         <v>0</v>
@@ -11835,7 +11832,7 @@
         <v>20</v>
       </c>
       <c r="H360" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I360">
         <v>2</v>
@@ -11847,10 +11844,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N360" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O360" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q360">
         <v>0</v>
@@ -11876,7 +11873,7 @@
         <v>20</v>
       </c>
       <c r="H361" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I361">
         <v>2</v>
@@ -11888,7 +11885,7 @@
         <v>0.58420886675914119</v>
       </c>
       <c r="O361" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q361">
         <v>0</v>
@@ -11923,7 +11920,7 @@
         <v>0.28513154858766498</v>
       </c>
       <c r="O362" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="Q362">
         <v>0</v>
@@ -11934,7 +11931,7 @@
     </row>
     <row r="363" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B363">
         <v>2.5000000000000001E-5</v>
@@ -11949,7 +11946,7 @@
         <v>20</v>
       </c>
       <c r="H363" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I363">
         <v>2</v>
@@ -11961,7 +11958,7 @@
         <v>0.28513154858766498</v>
       </c>
       <c r="O363" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q363">
         <v>0</v>
@@ -11987,7 +11984,7 @@
         <v>20</v>
       </c>
       <c r="H364" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I364">
         <v>2</v>
@@ -11999,7 +11996,7 @@
         <v>0.28513154858766498</v>
       </c>
       <c r="O364" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q364">
         <v>0</v>
@@ -12025,7 +12022,7 @@
         <v>20</v>
       </c>
       <c r="H365" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I365">
         <v>2</v>
@@ -12037,10 +12034,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="N365" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O365" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Q365">
         <v>0</v>
@@ -12051,7 +12048,7 @@
     </row>
     <row r="366" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B366">
         <v>6.6063256317524603E-9</v>
@@ -12066,7 +12063,7 @@
         <v>20</v>
       </c>
       <c r="H366" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I366">
         <v>2</v>
@@ -12078,10 +12075,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N366" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O366" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q366">
         <v>0</v>
@@ -12092,7 +12089,7 @@
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B367">
         <v>6.6500000000000007E-8</v>
@@ -12107,7 +12104,7 @@
         <v>20</v>
       </c>
       <c r="H367" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I367">
         <v>2</v>
@@ -12119,7 +12116,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O367" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q367">
         <v>0</v>
@@ -12130,7 +12127,7 @@
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B368">
         <v>3.4748980507724499E-12</v>
@@ -12145,7 +12142,7 @@
         <v>20</v>
       </c>
       <c r="H368" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I368">
         <v>2</v>
@@ -12157,10 +12154,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N368" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O368" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q368">
         <v>0</v>
@@ -12171,7 +12168,7 @@
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B369">
         <v>1.86E-9</v>
@@ -12186,7 +12183,7 @@
         <v>20</v>
       </c>
       <c r="H369" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I369">
         <v>2</v>
@@ -12198,10 +12195,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N369" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O369" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q369">
         <v>0</v>
@@ -12212,7 +12209,7 @@
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B370">
         <v>2.3000000000000001E-8</v>
@@ -12227,7 +12224,7 @@
         <v>20</v>
       </c>
       <c r="H370" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I370">
         <v>2</v>
@@ -12239,7 +12236,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O370" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q370">
         <v>0</v>
@@ -12250,7 +12247,7 @@
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B371">
         <v>5.5357208695270903E-11</v>
@@ -12265,7 +12262,7 @@
         <v>20</v>
       </c>
       <c r="H371" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I371">
         <v>2</v>
@@ -12277,10 +12274,10 @@
         <v>0.83312664103364265</v>
       </c>
       <c r="N371" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O371" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q371">
         <v>0</v>
@@ -12291,7 +12288,7 @@
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B372">
         <v>2.5000000000000002E-10</v>
@@ -12306,7 +12303,7 @@
         <v>20</v>
       </c>
       <c r="H372" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I372">
         <v>2</v>
@@ -12318,7 +12315,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O372" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q372">
         <v>0</v>
@@ -12329,7 +12326,7 @@
     </row>
     <row r="373" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B373">
         <v>4.5162712836537899E-13</v>
@@ -12344,7 +12341,7 @@
         <v>20</v>
       </c>
       <c r="H373" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I373">
         <v>2</v>
@@ -12356,10 +12353,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N373" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O373" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q373">
         <v>0</v>
@@ -12385,7 +12382,7 @@
         <v>20</v>
       </c>
       <c r="H374" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I374">
         <v>2</v>
@@ -12397,10 +12394,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N374" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O374" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q374">
         <v>0</v>
@@ -12411,7 +12408,7 @@
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B375">
         <v>4.1999999999999997E-11</v>
@@ -12435,10 +12432,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N375" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O375" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Q375">
         <v>0</v>
@@ -12449,7 +12446,7 @@
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B376">
         <v>1.4999999999999999E-8</v>
@@ -12464,7 +12461,7 @@
         <v>20</v>
       </c>
       <c r="H376" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I376">
         <v>2</v>
@@ -12476,7 +12473,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O376" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q376">
         <v>0</v>
@@ -12487,7 +12484,7 @@
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B377">
         <v>3.4748980507724499E-12</v>
@@ -12502,7 +12499,7 @@
         <v>20</v>
       </c>
       <c r="H377" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I377">
         <v>2</v>
@@ -12514,10 +12511,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N377" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O377" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q377">
         <v>0</v>
@@ -12543,7 +12540,7 @@
         <v>20</v>
       </c>
       <c r="H378" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I378">
         <v>2</v>
@@ -12555,10 +12552,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N378" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O378" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q378">
         <v>0</v>
@@ -12584,7 +12581,7 @@
         <v>20</v>
       </c>
       <c r="H379" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I379">
         <v>2</v>
@@ -12596,7 +12593,7 @@
         <v>0.28513154858766498</v>
       </c>
       <c r="O379" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q379">
         <v>0</v>
@@ -12622,7 +12619,7 @@
         <v>20</v>
       </c>
       <c r="H380" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I380">
         <v>2</v>
@@ -12634,10 +12631,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N380" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O380" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q380">
         <v>0</v>
@@ -12672,7 +12669,7 @@
         <v>0.58420886675914119</v>
       </c>
       <c r="O381" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q381">
         <v>0</v>
@@ -12683,7 +12680,7 @@
     </row>
     <row r="382" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B382">
         <v>7.4999999999999993E-5</v>
@@ -12707,7 +12704,7 @@
         <v>0.58420886675914119</v>
       </c>
       <c r="O382" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q382">
         <v>0</v>
@@ -12718,7 +12715,7 @@
     </row>
     <row r="383" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B383">
         <v>1.8982224367784301E-7</v>
@@ -12742,10 +12739,10 @@
         <v>0.58540584213005598</v>
       </c>
       <c r="N383" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O383" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q383">
         <v>0</v>
@@ -12756,7 +12753,7 @@
     </row>
     <row r="384" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B384">
         <v>3.2812391688682001E-7</v>
@@ -12780,10 +12777,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N384" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O384" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q384">
         <v>0</v>
@@ -12794,7 +12791,7 @@
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B385">
         <v>2.2490007889068799E-7</v>
@@ -12818,10 +12815,10 @@
         <v>0.40336088060197411</v>
       </c>
       <c r="N385" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O385" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q385">
         <v>0</v>
@@ -12847,7 +12844,7 @@
         <v>20</v>
       </c>
       <c r="H386" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I386">
         <v>2</v>
@@ -12859,10 +12856,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N386" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O386" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q386">
         <v>0</v>
@@ -12873,7 +12870,7 @@
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B387">
         <v>3.1606591103240501E-11</v>
@@ -12888,7 +12885,7 @@
         <v>20</v>
       </c>
       <c r="H387" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I387">
         <v>2</v>
@@ -12900,10 +12897,10 @@
         <v>0.83312664103364265</v>
       </c>
       <c r="N387" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O387" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q387">
         <v>0</v>
@@ -12929,7 +12926,7 @@
         <v>20</v>
       </c>
       <c r="H388" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I388">
         <v>2</v>
@@ -12941,7 +12938,7 @@
         <v>0.2032240143290158</v>
       </c>
       <c r="O388" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q388">
         <v>0</v>
@@ -12967,7 +12964,7 @@
         <v>20</v>
       </c>
       <c r="H389" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I389">
         <v>2</v>
@@ -12979,10 +12976,10 @@
         <v>0.20808652046684811</v>
       </c>
       <c r="N389" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O389" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q389">
         <v>0</v>
@@ -13017,10 +13014,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N390" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O390" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q390">
         <v>0</v>
@@ -13031,7 +13028,7 @@
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B391">
         <v>8.5500000000000005E-8</v>
@@ -13046,7 +13043,7 @@
         <v>20</v>
       </c>
       <c r="H391" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -13058,7 +13055,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O391" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Q391">
         <v>0</v>
@@ -13084,7 +13081,7 @@
         <v>20</v>
       </c>
       <c r="H392" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I392">
         <v>0</v>
@@ -13093,10 +13090,10 @@
         <v>8.6761728376224398E-5</v>
       </c>
       <c r="N392" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O392" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q392">
         <v>0</v>
@@ -13119,7 +13116,7 @@
         <v>20</v>
       </c>
       <c r="H393" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I393">
         <v>2</v>
@@ -13131,10 +13128,10 @@
         <v>0.28407745422683578</v>
       </c>
       <c r="N393" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O393" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q393">
         <v>0</v>
@@ -13160,7 +13157,7 @@
         <v>20</v>
       </c>
       <c r="H394" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I394">
         <v>2</v>
@@ -13172,7 +13169,7 @@
         <v>0.20024984394500789</v>
       </c>
       <c r="O394" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q394">
         <v>0</v>
@@ -13183,7 +13180,7 @@
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B395">
         <v>5.62E-8</v>
@@ -13198,7 +13195,7 @@
         <v>20</v>
       </c>
       <c r="H395" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I395">
         <v>2</v>
@@ -13210,7 +13207,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O395" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q395">
         <v>0</v>
@@ -13221,7 +13218,7 @@
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B396">
         <v>1.38977652325058E-11</v>
@@ -13236,7 +13233,7 @@
         <v>20</v>
       </c>
       <c r="H396" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I396">
         <v>2</v>
@@ -13248,10 +13245,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N396" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O396" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q396">
         <v>0</v>
@@ -13286,13 +13283,13 @@
         <v>1</v>
       </c>
       <c r="L397" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="N397" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="O397" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Q397">
         <v>473333424000</v>
@@ -13300,7 +13297,7 @@
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B398">
         <v>2.3300000000000001E-2</v>
@@ -13327,13 +13324,13 @@
         <v>0.2</v>
       </c>
       <c r="L398" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="N398" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O398" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="Q398">
         <v>0</v>
@@ -13344,13 +13341,13 @@
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B399">
         <v>0.04</v>
       </c>
       <c r="C399" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -13371,13 +13368,13 @@
         <v>0.2004993765576342</v>
       </c>
       <c r="L399" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="N399" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O399" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="Q399">
         <v>0</v>
@@ -13415,13 +13412,13 @@
         <v>0.89442719099991586</v>
       </c>
       <c r="L400" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N400" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O400" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q400">
         <v>0</v>
@@ -13459,13 +13456,13 @@
         <v>0.2</v>
       </c>
       <c r="L401" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="N401" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O401" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Q401">
         <v>0</v>
@@ -13563,13 +13560,13 @@
         <v>0.2004993765576342</v>
       </c>
       <c r="L405" t="s">
+        <v>381</v>
+      </c>
+      <c r="N405" t="s">
+        <v>382</v>
+      </c>
+      <c r="O405" t="s">
         <v>383</v>
-      </c>
-      <c r="N405" t="s">
-        <v>384</v>
-      </c>
-      <c r="O405" t="s">
-        <v>385</v>
       </c>
       <c r="Q405">
         <v>0</v>
@@ -13607,13 +13604,13 @@
         <v>0.2004993765576342</v>
       </c>
       <c r="L406" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="N406" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O406" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="Q406">
         <v>0</v>
@@ -13711,13 +13708,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L410" t="s">
+        <v>482</v>
+      </c>
+      <c r="N410" t="s">
+        <v>570</v>
+      </c>
+      <c r="O410" t="s">
         <v>484</v>
-      </c>
-      <c r="N410" t="s">
-        <v>573</v>
-      </c>
-      <c r="O410" t="s">
-        <v>486</v>
       </c>
       <c r="Q410">
         <v>0</v>
@@ -13755,13 +13752,13 @@
         <v>0.2</v>
       </c>
       <c r="L411" t="s">
+        <v>485</v>
+      </c>
+      <c r="N411" t="s">
+        <v>570</v>
+      </c>
+      <c r="O411" t="s">
         <v>487</v>
-      </c>
-      <c r="N411" t="s">
-        <v>573</v>
-      </c>
-      <c r="O411" t="s">
-        <v>489</v>
       </c>
       <c r="Q411">
         <v>0</v>
@@ -13781,7 +13778,7 @@
         <v>115</v>
       </c>
       <c r="D412" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E412" t="s">
         <v>7</v>
@@ -13799,13 +13796,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L412" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="N412" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O412" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Q412">
         <v>0</v>
@@ -13825,7 +13822,7 @@
         <v>115</v>
       </c>
       <c r="D413" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E413" t="s">
         <v>7</v>
@@ -13843,13 +13840,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L413" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N413" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O413" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Q413">
         <v>0</v>
@@ -13887,13 +13884,13 @@
         <v>0.2</v>
       </c>
       <c r="L414" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N414" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O414" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q414">
         <v>0</v>
@@ -13904,7 +13901,7 @@
     </row>
     <row r="415" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B415">
         <v>2.1600000000000001E-2</v>
@@ -13931,13 +13928,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L415" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N415" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O415" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Q415">
         <v>0</v>
@@ -13957,7 +13954,7 @@
         <v>111</v>
       </c>
       <c r="D416" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E416" t="s">
         <v>7</v>
@@ -13975,13 +13972,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L416" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="N416" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O416" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Q416">
         <v>0</v>
@@ -14001,7 +13998,7 @@
         <v>111</v>
       </c>
       <c r="D417" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E417" t="s">
         <v>7</v>
@@ -14019,13 +14016,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L417" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="N417" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O417" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Q417">
         <v>0</v>
@@ -14067,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="B421" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="422" spans="1:19" x14ac:dyDescent="0.2">
@@ -14107,7 +14104,7 @@
         <v>213</v>
       </c>
       <c r="B426" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.2">
@@ -14138,22 +14135,22 @@
         <v>11</v>
       </c>
       <c r="H428" t="s">
+        <v>243</v>
+      </c>
+      <c r="I428" t="s">
         <v>244</v>
       </c>
-      <c r="I428" t="s">
+      <c r="J428" t="s">
         <v>245</v>
       </c>
-      <c r="J428" t="s">
+      <c r="K428" t="s">
         <v>246</v>
-      </c>
-      <c r="K428" t="s">
-        <v>247</v>
       </c>
       <c r="L428" t="s">
         <v>1</v>
       </c>
       <c r="M428" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="429" spans="1:19" x14ac:dyDescent="0.2">
@@ -14199,7 +14196,7 @@
         <v>0.20976176963403029</v>
       </c>
       <c r="L430" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M430">
         <v>0.2</v>
@@ -14207,7 +14204,7 @@
     </row>
     <row r="431" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B431">
         <v>1.77E-5</v>
@@ -14231,7 +14228,7 @@
         <v>0.45607017003965522</v>
       </c>
       <c r="L431" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M431">
         <v>0.2</v>
@@ -14239,7 +14236,7 @@
     </row>
     <row r="432" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B432">
         <v>2.3699999999999999E-4</v>
@@ -14263,7 +14260,7 @@
         <v>0.45607017003965522</v>
       </c>
       <c r="L432" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M432">
         <v>0.2</v>
@@ -14271,7 +14268,7 @@
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B433">
         <v>9.5699999999999995E-5</v>
@@ -14295,7 +14292,7 @@
         <v>0.45607017003965522</v>
       </c>
       <c r="L433" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M433">
         <v>0.2</v>
@@ -14303,7 +14300,7 @@
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B434">
         <v>0.25</v>
@@ -14335,7 +14332,7 @@
         <v>20</v>
       </c>
       <c r="H435" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I435">
         <v>2</v>
@@ -14347,7 +14344,7 @@
         <v>0.20976176963403029</v>
       </c>
       <c r="L435" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M435">
         <v>0.2</v>
@@ -14370,7 +14367,7 @@
         <v>20</v>
       </c>
       <c r="H436" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I436">
         <v>2</v>
@@ -14382,7 +14379,7 @@
         <v>0.20976176963403029</v>
       </c>
       <c r="L436" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M436">
         <v>0.2</v>
@@ -14422,7 +14419,7 @@
         <v>20</v>
       </c>
       <c r="H438" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I438">
         <v>2</v>
@@ -14434,7 +14431,7 @@
         <v>0.36058979464205582</v>
       </c>
       <c r="L438" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M438">
         <v>0.2</v>
@@ -14457,7 +14454,7 @@
         <v>20</v>
       </c>
       <c r="H439" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I439">
         <v>2</v>
@@ -14469,7 +14466,7 @@
         <v>0.36058979464205582</v>
       </c>
       <c r="L439" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M439">
         <v>0.2</v>
@@ -14477,7 +14474,7 @@
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B440">
         <v>4.5859999999999998E-5</v>
@@ -14492,7 +14489,7 @@
         <v>20</v>
       </c>
       <c r="H440" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I440">
         <v>2</v>
@@ -14504,7 +14501,7 @@
         <v>0.45607017003965522</v>
       </c>
       <c r="L440" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M440">
         <v>0.2</v>
@@ -14538,7 +14535,7 @@
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B442">
         <v>-0.46</v>
@@ -14585,7 +14582,7 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L443" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M443">
         <v>0.54772255750516607</v>
@@ -14620,7 +14617,7 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L444" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M444">
         <v>0.54772255750516607</v>
@@ -14655,7 +14652,7 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L445" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M445">
         <v>2.4494897427831779E-2</v>
@@ -14710,7 +14707,7 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L447" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M447">
         <v>0.54772255750516607</v>
@@ -14745,7 +14742,7 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L448" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="M448">
         <v>0.54772255750516607</v>
@@ -14753,13 +14750,13 @@
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B449">
         <v>6.2700000000000006E-2</v>
       </c>
       <c r="C449" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D449" t="s">
         <v>14</v>
@@ -14780,7 +14777,7 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L449" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M449">
         <v>2.4494897427831779E-2</v>
@@ -14815,7 +14812,7 @@
         <v>0.29664793948382651</v>
       </c>
       <c r="L450" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M450">
         <v>0.2</v>
@@ -14823,7 +14820,7 @@
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B451">
         <v>1.54E-2</v>
@@ -14850,7 +14847,7 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L451" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M451">
         <v>2.4494897427831779E-2</v>
@@ -14869,7 +14866,7 @@
         <v>1</v>
       </c>
       <c r="B454" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.2">
@@ -14901,7 +14898,7 @@
         <v>213</v>
       </c>
       <c r="B458" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.2">
@@ -14932,25 +14929,25 @@
         <v>11</v>
       </c>
       <c r="H460" t="s">
+        <v>243</v>
+      </c>
+      <c r="I460" t="s">
         <v>244</v>
       </c>
-      <c r="I460" t="s">
+      <c r="J460" t="s">
         <v>245</v>
       </c>
-      <c r="J460" t="s">
+      <c r="K460" t="s">
         <v>246</v>
-      </c>
-      <c r="K460" t="s">
-        <v>247</v>
       </c>
       <c r="L460" t="s">
         <v>1</v>
       </c>
       <c r="M460" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="N460" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.2">
@@ -14970,7 +14967,7 @@
         <v>20</v>
       </c>
       <c r="H461" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I461">
         <v>2</v>
@@ -14982,7 +14979,7 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L461" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M461">
         <v>1.55606191968828E-5</v>
@@ -15008,7 +15005,7 @@
         <v>20</v>
       </c>
       <c r="H462" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I462">
         <v>2</v>
@@ -15020,7 +15017,7 @@
         <v>0.35608987629529709</v>
       </c>
       <c r="L462" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M462">
         <v>8.4863684140488602E-7</v>
@@ -15046,7 +15043,7 @@
         <v>20</v>
       </c>
       <c r="H463" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I463">
         <v>2</v>
@@ -15058,7 +15055,7 @@
         <v>0.3541186241925155</v>
       </c>
       <c r="L463" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M463">
         <v>6.4229257012328897E-9</v>
@@ -15069,7 +15066,7 @@
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B464">
         <v>3.6500000000000003E-8</v>
@@ -15084,7 +15081,7 @@
         <v>20</v>
       </c>
       <c r="H464" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I464">
         <v>2</v>
@@ -15096,7 +15093,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L464" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M464">
         <v>1.91118207484922E-8</v>
@@ -15122,7 +15119,7 @@
         <v>20</v>
       </c>
       <c r="H465" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I465">
         <v>2</v>
@@ -15134,7 +15131,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L465" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M465">
         <v>9.2654649732402505E-4</v>
@@ -15160,7 +15157,7 @@
         <v>20</v>
       </c>
       <c r="H466" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I466">
         <v>2</v>
@@ -15172,7 +15169,7 @@
         <v>0.21587033144922901</v>
       </c>
       <c r="L466" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M466">
         <v>7.17664459147306E-5</v>
@@ -15183,7 +15180,7 @@
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B467">
         <v>1.2500000000000001E-6</v>
@@ -15198,7 +15195,7 @@
         <v>20</v>
       </c>
       <c r="H467" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I467">
         <v>2</v>
@@ -15210,7 +15207,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L467" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M467">
         <v>4.7308045462582802E-7</v>
@@ -15236,7 +15233,7 @@
         <v>20</v>
       </c>
       <c r="H468" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I468">
         <v>2</v>
@@ -15248,7 +15245,7 @@
         <v>0.21587033144922901</v>
       </c>
       <c r="L468" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M468">
         <v>7.55436126385394E-8</v>
@@ -15259,7 +15256,7 @@
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B469">
         <v>2.3099999999999999E-7</v>
@@ -15274,7 +15271,7 @@
         <v>20</v>
       </c>
       <c r="H469" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I469">
         <v>2</v>
@@ -15286,7 +15283,7 @@
         <v>0.81154174261093925</v>
       </c>
       <c r="L469" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M469">
         <v>1.10953178654857E-7</v>
@@ -15312,7 +15309,7 @@
         <v>20</v>
       </c>
       <c r="H470" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I470">
         <v>2</v>
@@ -15324,7 +15321,7 @@
         <v>0.55389529696504913</v>
       </c>
       <c r="L470" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M470">
         <v>1.5630125721248699E-12</v>
@@ -15359,7 +15356,7 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L471" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N471">
         <v>0.2</v>
@@ -15367,7 +15364,7 @@
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B472">
         <v>5.2000000000000002E-6</v>
@@ -15382,7 +15379,7 @@
         <v>20</v>
       </c>
       <c r="H472" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I472">
         <v>2</v>
@@ -15394,7 +15391,7 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L472" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M472">
         <v>4.7174811009129099E-6</v>
@@ -15420,7 +15417,7 @@
         <v>20</v>
       </c>
       <c r="H473" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I473">
         <v>2</v>
@@ -15432,7 +15429,7 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L473" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M473">
         <v>6.6876972018751299E-7</v>
@@ -15443,7 +15440,7 @@
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B474">
         <v>1.81E-6</v>
@@ -15458,7 +15455,7 @@
         <v>20</v>
       </c>
       <c r="H474" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I474">
         <v>2</v>
@@ -15470,7 +15467,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L474" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M474">
         <v>7.9732840401622596E-7</v>
@@ -15481,7 +15478,7 @@
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B475">
         <v>2.2400000000000002E-6</v>
@@ -15496,7 +15493,7 @@
         <v>20</v>
       </c>
       <c r="H475" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I475">
         <v>2</v>
@@ -15508,7 +15505,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L475" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M475">
         <v>6.2426905715800202E-7</v>
@@ -15519,7 +15516,7 @@
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B476">
         <v>7.0100000000000004E-7</v>
@@ -15534,7 +15531,7 @@
         <v>20</v>
       </c>
       <c r="H476" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I476">
         <v>2</v>
@@ -15546,7 +15543,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L476" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M476">
         <v>2.43482893582134E-7</v>
@@ -15572,7 +15569,7 @@
         <v>20</v>
       </c>
       <c r="H477" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I477">
         <v>2</v>
@@ -15584,7 +15581,7 @@
         <v>0.2163330765278394</v>
       </c>
       <c r="L477" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M477">
         <v>1.01936932435993E-4</v>
@@ -15619,7 +15616,7 @@
         <v>0.55425625842204074</v>
       </c>
       <c r="L478" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N478">
         <v>0.54772255750516607</v>
@@ -15627,7 +15624,7 @@
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B479">
         <v>1.7000000000000001E-4</v>
@@ -15651,7 +15648,7 @@
         <v>0.55389529696504913</v>
       </c>
       <c r="L479" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N479">
         <v>0.54772255750516607</v>
@@ -15659,7 +15656,7 @@
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B480">
         <v>5.8600000000000001E-5</v>
@@ -15683,7 +15680,7 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L480" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N480">
         <v>0.2</v>
@@ -15691,7 +15688,7 @@
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B481">
         <v>1.7000000000000001E-4</v>
@@ -15715,7 +15712,7 @@
         <v>0.35608987629529709</v>
       </c>
       <c r="L481" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N481">
         <v>0.34641016151377552</v>
@@ -15723,7 +15720,7 @@
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B482">
         <v>1.7000000000000001E-4</v>
@@ -15764,7 +15761,7 @@
         <v>0.552630075185924</v>
       </c>
       <c r="L483" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N483">
         <v>0.54772255750516607</v>
@@ -15787,7 +15784,7 @@
         <v>20</v>
       </c>
       <c r="H484" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I484">
         <v>2</v>
@@ -15799,7 +15796,7 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L484" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M484">
         <v>5.2058060269292197E-5</v>
@@ -15825,7 +15822,7 @@
         <v>20</v>
       </c>
       <c r="H485" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I485">
         <v>2</v>
@@ -15837,7 +15834,7 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L485" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M485">
         <v>1.47176176815489E-3</v>
@@ -15863,7 +15860,7 @@
         <v>20</v>
       </c>
       <c r="H486" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I486">
         <v>2</v>
@@ -15875,7 +15872,7 @@
         <v>0.20712315177207979</v>
       </c>
       <c r="L486" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M486">
         <v>8.8716527537463005E-3</v>
@@ -15910,7 +15907,7 @@
         <v>7.6157731058639086E-2</v>
       </c>
       <c r="L487" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N487">
         <v>2.4494897427831779E-2</v>
@@ -15935,7 +15932,7 @@
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B489">
         <v>2.2900000000000001E-5</v>
@@ -15950,7 +15947,7 @@
         <v>20</v>
       </c>
       <c r="H489" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I489">
         <v>2</v>
@@ -15962,7 +15959,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L489" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M489">
         <v>7.8463778271888698E-6</v>
@@ -16046,7 +16043,7 @@
         <v>8.4852813742385708E-2</v>
       </c>
       <c r="L492" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N492">
         <v>2.4494897427831779E-2</v>
@@ -16081,7 +16078,7 @@
         <v>7.3484692283495343E-2</v>
       </c>
       <c r="L493" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N493">
         <v>2.4494897427831779E-2</v>
@@ -16116,7 +16113,7 @@
         <v>7.7459666924148338E-2</v>
       </c>
       <c r="L494" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N494">
         <v>2.4494897427831779E-2</v>
@@ -16151,7 +16148,7 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L495" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N495">
         <v>2.4494897427831779E-2</v>
@@ -16186,7 +16183,7 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L496" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N496">
         <v>0</v>
@@ -16221,7 +16218,7 @@
         <v>0.71414284285428498</v>
       </c>
       <c r="L497" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N497">
         <v>0.54772255750516607</v>
@@ -16229,13 +16226,13 @@
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B498">
         <v>-4.9799999999999997E-2</v>
       </c>
       <c r="C498" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D498" t="s">
         <v>14</v>
@@ -16256,7 +16253,7 @@
         <v>0.08</v>
       </c>
       <c r="L498" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N498">
         <v>2.4494897427831779E-2</v>
@@ -16291,7 +16288,7 @@
         <v>8.8317608663278466E-2</v>
       </c>
       <c r="L499" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N499">
         <v>2.4494897427831779E-2</v>
@@ -16366,7 +16363,7 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L502" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N502">
         <v>0</v>
@@ -16401,7 +16398,7 @@
         <v>8.4852813742385708E-2</v>
       </c>
       <c r="L503" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N503">
         <v>2.4494897427831779E-2</v>
@@ -16436,7 +16433,7 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L504" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N504">
         <v>2.4494897427831779E-2</v>
@@ -16471,7 +16468,7 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L505" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N505">
         <v>2.4494897427831779E-2</v>
@@ -16546,7 +16543,7 @@
         <v>8.8317608663278466E-2</v>
       </c>
       <c r="L508" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N508">
         <v>2.4494897427831779E-2</v>
@@ -16581,7 +16578,7 @@
         <v>5.2915026221291808E-2</v>
       </c>
       <c r="L509" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N509">
         <v>2.4494897427831779E-2</v>
@@ -16616,7 +16613,7 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L510" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N510">
         <v>2.4494897427831779E-2</v>
@@ -16671,7 +16668,7 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L512" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N512">
         <v>2.4494897427831779E-2</v>
@@ -16706,7 +16703,7 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L513" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N513">
         <v>2.4494897427831779E-2</v>
@@ -16741,7 +16738,7 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L514" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N514">
         <v>0</v>
@@ -16776,7 +16773,7 @@
         <v>7.3484692283495343E-2</v>
       </c>
       <c r="L515" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N515">
         <v>2.4494897427831779E-2</v>
@@ -16831,7 +16828,7 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L517" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N517">
         <v>2.4494897427831779E-2</v>
@@ -16839,7 +16836,7 @@
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B518">
         <v>-9.5999999999999992E-3</v>
@@ -16848,7 +16845,7 @@
         <v>135</v>
       </c>
       <c r="D518" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E518" t="s">
         <v>7</v>

--- a/premise/data/additional_inventories/lci-vanadium.xlsx
+++ b/premise/data/additional_inventories/lci-vanadium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A2851E-542B-304B-91DC-A6E43943D1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2046165-E5D2-5940-94D6-EC7261D6DD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2381,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E651A-1BBF-4B98-A20A-7DDAE3546228}">
   <dimension ref="A1:S518"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D519" sqref="D519"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="D330" sqref="D330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10989,7 +10989,7 @@
         <v>559</v>
       </c>
       <c r="D329" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E329" t="s">
         <v>7</v>

--- a/premise/data/additional_inventories/lci-vanadium.xlsx
+++ b/premise/data/additional_inventories/lci-vanadium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2046165-E5D2-5940-94D6-EC7261D6DD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845C23C9-2744-8A4F-AD53-54EFF218ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="622">
   <si>
     <t>Activity</t>
   </si>
@@ -740,9 +740,6 @@
   </si>
   <si>
     <t>Transformation, from dump site, slag compartment</t>
-  </si>
-  <si>
-    <t>Mannheim process</t>
   </si>
   <si>
     <t>RER</t>
@@ -1303,9 +1300,6 @@
     <t>Ammonia</t>
   </si>
   <si>
-    <t>air separation, cryogenic</t>
-  </si>
-  <si>
     <t>nitrogen, liquid</t>
   </si>
   <si>
@@ -2020,6 +2014,9 @@
   </si>
   <si>
     <t>market for blast furnace slag</t>
+  </si>
+  <si>
+    <t>market for nitrogen, liquid</t>
   </si>
 </sst>
 </file>
@@ -2381,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E651A-1BBF-4B98-A20A-7DDAE3546228}">
   <dimension ref="A1:S518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="D330" sqref="D330"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2394,7 +2391,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B1" t="s">
         <v>65</v>
@@ -2402,10 +2399,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2599,7 +2596,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="B19">
         <v>-0.5</v>
@@ -2705,7 +2702,7 @@
         <v>0.5</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -2739,13 +2736,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B26">
         <v>7.7100000000000002E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
         <v>198</v>
@@ -2765,7 +2762,7 @@
         <v>3.16</v>
       </c>
       <c r="C27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -2779,7 +2776,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28">
         <v>0.93</v>
@@ -2839,7 +2836,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31">
         <v>-6.3200000000000006E-2</v>
@@ -2882,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -2890,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -2898,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -2906,7 +2903,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -2914,7 +2911,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -2930,7 +2927,7 @@
         <v>213</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -2961,40 +2958,40 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
+        <v>242</v>
+      </c>
+      <c r="I42" t="s">
         <v>243</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>244</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>245</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>246</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>247</v>
-      </c>
-      <c r="M42" t="s">
-        <v>248</v>
       </c>
       <c r="N42" t="s">
         <v>1</v>
       </c>
       <c r="O42" t="s">
+        <v>248</v>
+      </c>
+      <c r="P42" t="s">
         <v>249</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>250</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>251</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>252</v>
-      </c>
-      <c r="S42" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -3014,7 +3011,7 @@
         <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -3026,10 +3023,10 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="N43" t="s">
+        <v>254</v>
+      </c>
+      <c r="O43" t="s">
         <v>255</v>
-      </c>
-      <c r="O43" t="s">
-        <v>256</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -3055,7 +3052,7 @@
         <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -3067,10 +3064,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -3081,7 +3078,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B45">
         <v>2.7386127875258301E-8</v>
@@ -3096,7 +3093,7 @@
         <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -3108,10 +3105,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -3122,7 +3119,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B46">
         <v>1.3868418961177301E-7</v>
@@ -3137,7 +3134,7 @@
         <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -3149,10 +3146,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -3178,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -3190,10 +3187,10 @@
         <v>0.55081757415681643</v>
       </c>
       <c r="N47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -3204,7 +3201,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B48">
         <v>0.204696179355145</v>
@@ -3228,10 +3225,10 @@
         <v>0.30199337741082999</v>
       </c>
       <c r="N48" t="s">
+        <v>267</v>
+      </c>
+      <c r="O48" t="s">
         <v>268</v>
-      </c>
-      <c r="O48" t="s">
-        <v>269</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3242,7 +3239,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B49">
         <v>4.1149999999999997E-5</v>
@@ -3269,10 +3266,10 @@
         <v>0.83737685661833294</v>
       </c>
       <c r="N49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -3283,7 +3280,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B50">
         <v>4.08166632639171E-7</v>
@@ -3298,7 +3295,7 @@
         <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -3310,10 +3307,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -3324,7 +3321,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51">
         <v>6.8410525505948304E-7</v>
@@ -3339,7 +3336,7 @@
         <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -3351,10 +3348,10 @@
         <v>0.80833161511844875</v>
       </c>
       <c r="N51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -3380,7 +3377,7 @@
         <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I52">
         <v>2</v>
@@ -3392,10 +3389,10 @@
         <v>0.2083266665599966</v>
       </c>
       <c r="N52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -3430,10 +3427,10 @@
         <v>0.55081757415681643</v>
       </c>
       <c r="N53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -3444,7 +3441,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54">
         <v>4.47437146423942E-5</v>
@@ -3468,10 +3465,10 @@
         <v>0.55081757415681643</v>
       </c>
       <c r="N54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -3497,7 +3494,7 @@
         <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -3509,10 +3506,10 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="N55" t="s">
+        <v>283</v>
+      </c>
+      <c r="O55" t="s">
         <v>284</v>
-      </c>
-      <c r="O55" t="s">
-        <v>285</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -3538,7 +3535,7 @@
         <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -3550,10 +3547,10 @@
         <v>0.1232882800593795</v>
       </c>
       <c r="N56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -3564,16 +3561,16 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
@@ -3588,10 +3585,10 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
+        <v>286</v>
+      </c>
+      <c r="O57" t="s">
         <v>287</v>
-      </c>
-      <c r="O57" t="s">
-        <v>288</v>
       </c>
       <c r="Q57">
         <v>1137179252766.3799</v>
@@ -3599,13 +3596,13 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B58">
         <v>-1.9900000000000001E-2</v>
       </c>
       <c r="C58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -3639,16 +3636,16 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B60">
         <v>-8.1418299973658893E-3</v>
       </c>
       <c r="C60" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" t="s">
         <v>291</v>
-      </c>
-      <c r="D60" t="s">
-        <v>292</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -3666,13 +3663,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L60" t="s">
+        <v>292</v>
+      </c>
+      <c r="N60" t="s">
         <v>293</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>294</v>
-      </c>
-      <c r="O60" t="s">
-        <v>295</v>
       </c>
       <c r="Q60">
         <v>22056728786.656799</v>
@@ -3683,13 +3680,13 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B61">
         <v>-1.12541700026341E-2</v>
       </c>
       <c r="C61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -3710,13 +3707,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N61" t="s">
+        <v>293</v>
+      </c>
+      <c r="O61" t="s">
         <v>294</v>
-      </c>
-      <c r="O61" t="s">
-        <v>295</v>
       </c>
       <c r="Q61">
         <v>22056728786.656799</v>
@@ -3727,13 +3724,13 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B62">
         <v>-3.0079999999999999E-4</v>
       </c>
       <c r="C62" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -3754,13 +3751,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L62" t="s">
+        <v>298</v>
+      </c>
+      <c r="N62" t="s">
         <v>299</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>300</v>
-      </c>
-      <c r="O62" t="s">
-        <v>301</v>
       </c>
       <c r="Q62">
         <v>342063519.23212701</v>
@@ -3771,7 +3768,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B63">
         <v>-0.10489759999999999</v>
@@ -3798,13 +3795,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L63" t="s">
+        <v>302</v>
+      </c>
+      <c r="N63" t="s">
+        <v>299</v>
+      </c>
+      <c r="O63" t="s">
         <v>303</v>
-      </c>
-      <c r="N63" t="s">
-        <v>300</v>
-      </c>
-      <c r="O63" t="s">
-        <v>304</v>
       </c>
       <c r="Q63">
         <v>119287374384.987</v>
@@ -3815,13 +3812,13 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B64">
         <v>-3.0079999999999999E-4</v>
       </c>
       <c r="C64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
@@ -3842,13 +3839,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L64" t="s">
+        <v>306</v>
+      </c>
+      <c r="N64" t="s">
+        <v>293</v>
+      </c>
+      <c r="O64" t="s">
         <v>307</v>
-      </c>
-      <c r="N64" t="s">
-        <v>294</v>
-      </c>
-      <c r="O64" t="s">
-        <v>308</v>
       </c>
       <c r="Q64">
         <v>342063519.23212701</v>
@@ -3859,13 +3856,13 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B65">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -3886,13 +3883,13 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="L65" t="s">
+        <v>310</v>
+      </c>
+      <c r="N65" t="s">
+        <v>283</v>
+      </c>
+      <c r="O65" t="s">
         <v>311</v>
-      </c>
-      <c r="N65" t="s">
-        <v>284</v>
-      </c>
-      <c r="O65" t="s">
-        <v>312</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -3903,13 +3900,13 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B66">
         <v>1.4422205101856E-2</v>
       </c>
       <c r="C66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
@@ -3930,13 +3927,13 @@
         <v>0.23916521486202799</v>
       </c>
       <c r="L66" t="s">
+        <v>314</v>
+      </c>
+      <c r="N66" t="s">
+        <v>254</v>
+      </c>
+      <c r="O66" t="s">
         <v>315</v>
-      </c>
-      <c r="N66" t="s">
-        <v>255</v>
-      </c>
-      <c r="O66" t="s">
-        <v>316</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -3974,13 +3971,13 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="L67" t="s">
+        <v>316</v>
+      </c>
+      <c r="N67" t="s">
+        <v>283</v>
+      </c>
+      <c r="O67" t="s">
         <v>317</v>
-      </c>
-      <c r="N67" t="s">
-        <v>284</v>
-      </c>
-      <c r="O67" t="s">
-        <v>318</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -4018,13 +4015,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L68" t="s">
+        <v>318</v>
+      </c>
+      <c r="N68" t="s">
         <v>319</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>320</v>
-      </c>
-      <c r="O68" t="s">
-        <v>321</v>
       </c>
       <c r="Q68">
         <v>643285245.60114896</v>
@@ -4035,13 +4032,13 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B69">
         <v>-6.6299999999999999E-5</v>
       </c>
       <c r="C69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -4062,13 +4059,13 @@
         <v>6.6520673478250358E-2</v>
       </c>
       <c r="L69" t="s">
+        <v>323</v>
+      </c>
+      <c r="N69" t="s">
         <v>324</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>325</v>
-      </c>
-      <c r="O69" t="s">
-        <v>326</v>
       </c>
       <c r="Q69">
         <v>75394984.458410993</v>
@@ -4106,13 +4103,13 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="L70" t="s">
+        <v>326</v>
+      </c>
+      <c r="N70" t="s">
+        <v>254</v>
+      </c>
+      <c r="O70" t="s">
         <v>327</v>
-      </c>
-      <c r="N70" t="s">
-        <v>255</v>
-      </c>
-      <c r="O70" t="s">
-        <v>328</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -4150,13 +4147,13 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="L71" t="s">
+        <v>328</v>
+      </c>
+      <c r="N71" t="s">
+        <v>254</v>
+      </c>
+      <c r="O71" t="s">
         <v>329</v>
-      </c>
-      <c r="N71" t="s">
-        <v>255</v>
-      </c>
-      <c r="O71" t="s">
-        <v>330</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -4227,13 +4224,13 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B75">
         <v>-1.3416407864998701E-3</v>
       </c>
       <c r="C75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -4254,13 +4251,13 @@
         <v>0.30199337741082999</v>
       </c>
       <c r="L75" t="s">
+        <v>332</v>
+      </c>
+      <c r="N75" t="s">
+        <v>254</v>
+      </c>
+      <c r="O75" t="s">
         <v>333</v>
-      </c>
-      <c r="N75" t="s">
-        <v>255</v>
-      </c>
-      <c r="O75" t="s">
-        <v>334</v>
       </c>
       <c r="Q75">
         <v>1525686067.0728199</v>
@@ -4271,7 +4268,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B76">
         <v>2.086E-2</v>
@@ -4280,7 +4277,7 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E76" t="s">
         <v>15</v>
@@ -4300,7 +4297,7 @@
         <v>66</v>
       </c>
       <c r="D77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -4322,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
@@ -4354,7 +4351,7 @@
         <v>213</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
@@ -4385,40 +4382,40 @@
         <v>11</v>
       </c>
       <c r="H86" t="s">
+        <v>242</v>
+      </c>
+      <c r="I86" t="s">
         <v>243</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>244</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>245</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>246</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>247</v>
-      </c>
-      <c r="M86" t="s">
-        <v>248</v>
       </c>
       <c r="N86" t="s">
         <v>1</v>
       </c>
       <c r="O86" t="s">
+        <v>248</v>
+      </c>
+      <c r="P86" t="s">
         <v>249</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>250</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>251</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>252</v>
-      </c>
-      <c r="S86" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
@@ -4438,7 +4435,7 @@
         <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I87">
         <v>2</v>
@@ -4450,7 +4447,7 @@
         <v>0.42567593307585527</v>
       </c>
       <c r="O87" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -4476,7 +4473,7 @@
         <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I88">
         <v>2</v>
@@ -4488,7 +4485,7 @@
         <v>0.42567593307585527</v>
       </c>
       <c r="O88" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -4499,7 +4496,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B89">
         <v>3.6500000000000003E-8</v>
@@ -4514,7 +4511,7 @@
         <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I89">
         <v>2</v>
@@ -4526,7 +4523,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O89" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -4552,7 +4549,7 @@
         <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -4564,7 +4561,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -4575,7 +4572,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B91">
         <v>1.254E-6</v>
@@ -4590,7 +4587,7 @@
         <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I91">
         <v>2</v>
@@ -4602,7 +4599,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -4613,7 +4610,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B92">
         <v>2.3050000000000001E-7</v>
@@ -4628,7 +4625,7 @@
         <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -4640,7 +4637,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -4666,7 +4663,7 @@
         <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -4678,7 +4675,7 @@
         <v>0.60099916805266884</v>
       </c>
       <c r="O93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q93">
         <v>0</v>
@@ -4713,7 +4710,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O94" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -4724,7 +4721,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B95">
         <v>5.2000000000000002E-6</v>
@@ -4739,7 +4736,7 @@
         <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -4751,7 +4748,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O95" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q95">
         <v>0</v>
@@ -4777,7 +4774,7 @@
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -4789,7 +4786,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O96" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -4800,7 +4797,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B97">
         <v>1.8080000000000001E-6</v>
@@ -4815,7 +4812,7 @@
         <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -4827,7 +4824,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -4838,7 +4835,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B98">
         <v>2.238E-6</v>
@@ -4853,7 +4850,7 @@
         <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -4865,7 +4862,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -4876,7 +4873,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B99">
         <v>7.0050000000000001E-7</v>
@@ -4891,7 +4888,7 @@
         <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -4903,7 +4900,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O99" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -4929,7 +4926,7 @@
         <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -4941,7 +4938,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O100" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q100">
         <v>0</v>
@@ -4976,7 +4973,7 @@
         <v>0.60099916805266884</v>
       </c>
       <c r="O101" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q101">
         <v>0</v>
@@ -4987,7 +4984,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B102">
         <v>1.6595999999999999E-4</v>
@@ -5011,7 +5008,7 @@
         <v>0.60099916805266884</v>
       </c>
       <c r="O102" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -5022,7 +5019,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B103">
         <v>5.8575000000000001E-5</v>
@@ -5046,7 +5043,7 @@
         <v>0.31811947441173732</v>
       </c>
       <c r="O103" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q103">
         <v>0</v>
@@ -5057,7 +5054,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B104">
         <v>1.6595999999999999E-4</v>
@@ -5081,7 +5078,7 @@
         <v>0.42567593307585527</v>
       </c>
       <c r="O104" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -5116,7 +5113,7 @@
         <v>0.60099916805266884</v>
       </c>
       <c r="O105" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q105">
         <v>0</v>
@@ -5142,7 +5139,7 @@
         <v>20</v>
       </c>
       <c r="H106" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I106">
         <v>2</v>
@@ -5154,7 +5151,7 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="O106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -5180,7 +5177,7 @@
         <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I107">
         <v>2</v>
@@ -5192,10 +5189,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N107" t="s">
+        <v>362</v>
+      </c>
+      <c r="O107" t="s">
         <v>363</v>
-      </c>
-      <c r="O107" t="s">
-        <v>364</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -5221,7 +5218,7 @@
         <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -5233,10 +5230,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N108" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O108" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -5262,7 +5259,7 @@
         <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I109">
         <v>2</v>
@@ -5274,10 +5271,10 @@
         <v>0.23366642891095851</v>
       </c>
       <c r="N109" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O109" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -5288,7 +5285,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B110">
         <v>2.2940000000000001E-5</v>
@@ -5303,7 +5300,7 @@
         <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -5315,7 +5312,7 @@
         <v>0.84332674569232069</v>
       </c>
       <c r="O110" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -5350,13 +5347,13 @@
         <v>1</v>
       </c>
       <c r="L111" t="s">
+        <v>368</v>
+      </c>
+      <c r="N111" t="s">
         <v>369</v>
       </c>
-      <c r="N111" t="s">
+      <c r="O111" t="s">
         <v>370</v>
-      </c>
-      <c r="O111" t="s">
-        <v>371</v>
       </c>
       <c r="Q111">
         <v>66239548000</v>
@@ -5391,13 +5388,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L112" t="s">
+        <v>371</v>
+      </c>
+      <c r="N112" t="s">
+        <v>369</v>
+      </c>
+      <c r="O112" t="s">
         <v>372</v>
-      </c>
-      <c r="N112" t="s">
-        <v>370</v>
-      </c>
-      <c r="O112" t="s">
-        <v>373</v>
       </c>
       <c r="Q112">
         <v>0</v>
@@ -5435,13 +5432,13 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="L113" t="s">
+        <v>373</v>
+      </c>
+      <c r="N113" t="s">
+        <v>369</v>
+      </c>
+      <c r="O113" t="s">
         <v>374</v>
-      </c>
-      <c r="N113" t="s">
-        <v>370</v>
-      </c>
-      <c r="O113" t="s">
-        <v>375</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -5479,13 +5476,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L114" t="s">
+        <v>375</v>
+      </c>
+      <c r="N114" t="s">
         <v>376</v>
       </c>
-      <c r="N114" t="s">
+      <c r="O114" t="s">
         <v>377</v>
-      </c>
-      <c r="O114" t="s">
-        <v>378</v>
       </c>
       <c r="Q114">
         <v>635899660.79999995</v>
@@ -5523,13 +5520,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L115" t="s">
+        <v>378</v>
+      </c>
+      <c r="N115" t="s">
+        <v>376</v>
+      </c>
+      <c r="O115" t="s">
         <v>379</v>
-      </c>
-      <c r="N115" t="s">
-        <v>377</v>
-      </c>
-      <c r="O115" t="s">
-        <v>380</v>
       </c>
       <c r="Q115">
         <v>6147030054.3999996</v>
@@ -5587,13 +5584,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L117" t="s">
+        <v>380</v>
+      </c>
+      <c r="N117" t="s">
         <v>381</v>
       </c>
-      <c r="N117" t="s">
+      <c r="O117" t="s">
         <v>382</v>
-      </c>
-      <c r="O117" t="s">
-        <v>383</v>
       </c>
       <c r="Q117">
         <v>0</v>
@@ -5631,13 +5628,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L118" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N118" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O118" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q118">
         <v>331197740</v>
@@ -5648,13 +5645,13 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B119">
         <v>0.38674999999999998</v>
       </c>
       <c r="C119" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D119" t="s">
         <v>14</v>
@@ -5675,13 +5672,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L119" t="s">
+        <v>385</v>
+      </c>
+      <c r="N119" t="s">
+        <v>369</v>
+      </c>
+      <c r="O119" t="s">
         <v>386</v>
-      </c>
-      <c r="N119" t="s">
-        <v>370</v>
-      </c>
-      <c r="O119" t="s">
-        <v>387</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -5719,13 +5716,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L120" t="s">
+        <v>387</v>
+      </c>
+      <c r="N120" t="s">
+        <v>369</v>
+      </c>
+      <c r="O120" t="s">
         <v>388</v>
-      </c>
-      <c r="N120" t="s">
-        <v>370</v>
-      </c>
-      <c r="O120" t="s">
-        <v>389</v>
       </c>
       <c r="Q120">
         <v>0</v>
@@ -5763,13 +5760,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L121" t="s">
+        <v>326</v>
+      </c>
+      <c r="N121" t="s">
+        <v>369</v>
+      </c>
+      <c r="O121" t="s">
         <v>327</v>
-      </c>
-      <c r="N121" t="s">
-        <v>370</v>
-      </c>
-      <c r="O121" t="s">
-        <v>328</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -5807,13 +5804,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L122" t="s">
+        <v>328</v>
+      </c>
+      <c r="N122" t="s">
+        <v>376</v>
+      </c>
+      <c r="O122" t="s">
         <v>329</v>
-      </c>
-      <c r="N122" t="s">
-        <v>377</v>
-      </c>
-      <c r="O122" t="s">
-        <v>330</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -5851,13 +5848,13 @@
         <v>0.2473863375370596</v>
       </c>
       <c r="L123" t="s">
+        <v>389</v>
+      </c>
+      <c r="N123" t="s">
         <v>390</v>
       </c>
-      <c r="N123" t="s">
+      <c r="O123" t="s">
         <v>391</v>
-      </c>
-      <c r="O123" t="s">
-        <v>392</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -5899,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
@@ -5907,7 +5904,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
@@ -5939,7 +5936,7 @@
         <v>213</v>
       </c>
       <c r="B132" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
@@ -5978,7 +5975,7 @@
         <v>187</v>
       </c>
       <c r="D135" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E135" t="s">
         <v>7</v>
@@ -5989,16 +5986,16 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B136">
         <v>0.36707802470940898</v>
       </c>
       <c r="C136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E136" t="s">
         <v>6</v>
@@ -6012,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
@@ -6020,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="140" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6077,7 +6074,7 @@
         <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.2">
@@ -6107,7 +6104,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -6156,7 +6153,7 @@
         <v>187</v>
       </c>
       <c r="D149" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -6170,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.2">
@@ -6178,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.2">
@@ -6186,7 +6183,7 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.2">
@@ -6194,7 +6191,7 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.2">
@@ -6218,7 +6215,7 @@
         <v>213</v>
       </c>
       <c r="B157" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.2">
@@ -6269,7 +6266,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B160">
         <v>3.2358900000000003E-2</v>
@@ -6303,7 +6300,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B162">
         <v>0.28254944641739999</v>
@@ -6354,13 +6351,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B165">
         <v>0.13861725499999999</v>
       </c>
       <c r="C165" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
@@ -6369,12 +6366,12 @@
         <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B166">
         <v>9.0939999999999993E-2</v>
@@ -6394,13 +6391,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>399</v>
+        <v>621</v>
       </c>
       <c r="B167">
         <v>0.04</v>
       </c>
       <c r="C167" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
@@ -6409,18 +6406,18 @@
         <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B168">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C168" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D168" t="s">
         <v>6</v>
@@ -6429,12 +6426,12 @@
         <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B169">
         <v>2.4E-2</v>
@@ -6449,18 +6446,18 @@
         <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B170">
         <v>0.13206000000000001</v>
       </c>
       <c r="C170" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
@@ -6469,18 +6466,18 @@
         <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B171">
         <v>2.47E-2</v>
       </c>
       <c r="C171" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D171" t="s">
         <v>198</v>
@@ -6494,13 +6491,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B172">
         <v>2.2577489371428598E-3</v>
       </c>
       <c r="C172" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D172" t="s">
         <v>15</v>
@@ -6514,13 +6511,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B173">
         <v>0.27442155024368597</v>
       </c>
       <c r="C173" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D173" t="s">
         <v>17</v>
@@ -6534,13 +6531,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B174">
         <v>-2.3742571000000001E-2</v>
       </c>
       <c r="C174" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -6549,7 +6546,7 @@
         <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -6560,7 +6557,7 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="C175" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D175" t="s">
         <v>198</v>
@@ -6577,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
@@ -6585,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="B179" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
@@ -6593,7 +6590,7 @@
         <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
@@ -6601,7 +6598,7 @@
         <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
@@ -6617,7 +6614,7 @@
         <v>213</v>
       </c>
       <c r="B183" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
@@ -6648,45 +6645,45 @@
         <v>11</v>
       </c>
       <c r="H185" t="s">
+        <v>242</v>
+      </c>
+      <c r="I185" t="s">
         <v>243</v>
       </c>
-      <c r="I185" t="s">
+      <c r="J185" t="s">
         <v>244</v>
       </c>
-      <c r="J185" t="s">
+      <c r="K185" t="s">
         <v>245</v>
       </c>
-      <c r="K185" t="s">
+      <c r="L185" t="s">
         <v>246</v>
       </c>
-      <c r="L185" t="s">
+      <c r="M185" t="s">
         <v>247</v>
-      </c>
-      <c r="M185" t="s">
-        <v>248</v>
       </c>
       <c r="N185" t="s">
         <v>1</v>
       </c>
       <c r="O185" t="s">
+        <v>248</v>
+      </c>
+      <c r="P185" t="s">
         <v>249</v>
       </c>
-      <c r="P185" t="s">
+      <c r="Q185" t="s">
         <v>250</v>
       </c>
-      <c r="Q185" t="s">
+      <c r="R185" t="s">
         <v>251</v>
       </c>
-      <c r="R185" t="s">
+      <c r="S185" t="s">
         <v>252</v>
-      </c>
-      <c r="S185" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B186">
         <v>1.902E-10</v>
@@ -6701,7 +6698,7 @@
         <v>20</v>
       </c>
       <c r="H186" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I186">
         <v>2</v>
@@ -6713,10 +6710,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N186" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O186" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -6727,7 +6724,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B187">
         <v>9.5090000000000005E-11</v>
@@ -6742,7 +6739,7 @@
         <v>20</v>
       </c>
       <c r="H187" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I187">
         <v>2</v>
@@ -6754,10 +6751,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N187" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O187" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q187">
         <v>0</v>
@@ -6783,7 +6780,7 @@
         <v>20</v>
       </c>
       <c r="H188" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I188">
         <v>2</v>
@@ -6795,10 +6792,10 @@
         <v>9.6436507609929542E-2</v>
       </c>
       <c r="N188" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O188" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q188">
         <v>0</v>
@@ -6824,7 +6821,7 @@
         <v>20</v>
       </c>
       <c r="H189" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I189">
         <v>2</v>
@@ -6836,10 +6833,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N189" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O189" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q189">
         <v>0</v>
@@ -6850,7 +6847,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B190">
         <v>1.521E-9</v>
@@ -6865,7 +6862,7 @@
         <v>20</v>
       </c>
       <c r="H190" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I190">
         <v>2</v>
@@ -6877,10 +6874,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N190" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O190" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q190">
         <v>0</v>
@@ -6891,7 +6888,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B191">
         <v>1.902E-10</v>
@@ -6906,7 +6903,7 @@
         <v>20</v>
       </c>
       <c r="H191" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I191">
         <v>2</v>
@@ -6918,10 +6915,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N191" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O191" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Q191">
         <v>0</v>
@@ -6932,7 +6929,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B192">
         <v>1.902E-10</v>
@@ -6947,7 +6944,7 @@
         <v>20</v>
       </c>
       <c r="H192" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I192">
         <v>2</v>
@@ -6959,10 +6956,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N192" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O192" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q192">
         <v>0</v>
@@ -6988,7 +6985,7 @@
         <v>20</v>
       </c>
       <c r="H193" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I193">
         <v>2</v>
@@ -7000,10 +6997,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N193" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O193" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Q193">
         <v>0</v>
@@ -7014,7 +7011,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B194">
         <v>6.0700000000000003E-6</v>
@@ -7029,7 +7026,7 @@
         <v>20</v>
       </c>
       <c r="H194" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I194">
         <v>2</v>
@@ -7041,10 +7038,10 @@
         <v>0.2238302928559939</v>
       </c>
       <c r="N194" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O194" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q194">
         <v>0</v>
@@ -7070,7 +7067,7 @@
         <v>20</v>
       </c>
       <c r="H195" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I195">
         <v>2</v>
@@ -7082,10 +7079,10 @@
         <v>0.2238302928559939</v>
       </c>
       <c r="N195" t="s">
+        <v>429</v>
+      </c>
+      <c r="O195" t="s">
         <v>431</v>
-      </c>
-      <c r="O195" t="s">
-        <v>433</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -7096,7 +7093,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B196">
         <v>3.6160000000000001E-7</v>
@@ -7111,7 +7108,7 @@
         <v>20</v>
       </c>
       <c r="H196" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I196">
         <v>2</v>
@@ -7123,10 +7120,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N196" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O196" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Q196">
         <v>0</v>
@@ -7137,7 +7134,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B197">
         <v>1.902E-10</v>
@@ -7152,7 +7149,7 @@
         <v>20</v>
       </c>
       <c r="H197" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I197">
         <v>2</v>
@@ -7164,10 +7161,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N197" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O197" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Q197">
         <v>0</v>
@@ -7178,7 +7175,7 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B198">
         <v>5.7049999999999998E-8</v>
@@ -7193,7 +7190,7 @@
         <v>20</v>
       </c>
       <c r="H198" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I198">
         <v>2</v>
@@ -7205,10 +7202,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N198" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O198" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q198">
         <v>0</v>
@@ -7219,7 +7216,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B199">
         <v>2.472E-11</v>
@@ -7234,7 +7231,7 @@
         <v>20</v>
       </c>
       <c r="H199" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I199">
         <v>2</v>
@@ -7246,10 +7243,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N199" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O199" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q199">
         <v>0</v>
@@ -7260,7 +7257,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B200">
         <v>3.0300000000000001E-9</v>
@@ -7275,7 +7272,7 @@
         <v>20</v>
       </c>
       <c r="H200" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I200">
         <v>2</v>
@@ -7287,10 +7284,10 @@
         <v>0.81246538387798406</v>
       </c>
       <c r="N200" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O200" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q200">
         <v>0</v>
@@ -7316,7 +7313,7 @@
         <v>20</v>
       </c>
       <c r="H201" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I201">
         <v>2</v>
@@ -7328,10 +7325,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N201" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O201" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q201">
         <v>0</v>
@@ -7342,7 +7339,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B202">
         <v>1.287E-9</v>
@@ -7366,10 +7363,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N202" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O202" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q202">
         <v>0</v>
@@ -7380,7 +7377,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B203">
         <v>1.902E-10</v>
@@ -7395,7 +7392,7 @@
         <v>20</v>
       </c>
       <c r="H203" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I203">
         <v>2</v>
@@ -7407,10 +7404,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N203" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O203" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Q203">
         <v>0</v>
@@ -7436,7 +7433,7 @@
         <v>20</v>
       </c>
       <c r="H204" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -7448,10 +7445,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N204" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O204" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q204">
         <v>0</v>
@@ -7477,7 +7474,7 @@
         <v>20</v>
       </c>
       <c r="H205" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I205">
         <v>2</v>
@@ -7489,10 +7486,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N205" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O205" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Q205">
         <v>0</v>
@@ -7503,7 +7500,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B206">
         <v>1.039E-5</v>
@@ -7527,10 +7524,10 @@
         <v>0.55560777532356398</v>
       </c>
       <c r="N206" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O206" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -7541,7 +7538,7 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B207">
         <v>1.7960000000000001E-5</v>
@@ -7565,10 +7562,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N207" t="s">
+        <v>449</v>
+      </c>
+      <c r="O207" t="s">
         <v>451</v>
-      </c>
-      <c r="O207" t="s">
-        <v>453</v>
       </c>
       <c r="Q207">
         <v>0</v>
@@ -7579,7 +7576,7 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B208">
         <v>1.2310000000000001E-5</v>
@@ -7603,10 +7600,10 @@
         <v>0.35874782229304197</v>
       </c>
       <c r="N208" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O208" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q208">
         <v>0</v>
@@ -7632,7 +7629,7 @@
         <v>20</v>
       </c>
       <c r="H209" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I209">
         <v>2</v>
@@ -7644,10 +7641,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N209" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O209" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q209">
         <v>0</v>
@@ -7658,7 +7655,7 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B210">
         <v>1.73E-9</v>
@@ -7673,7 +7670,7 @@
         <v>20</v>
       </c>
       <c r="H210" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I210">
         <v>2</v>
@@ -7685,10 +7682,10 @@
         <v>0.81246538387798406</v>
       </c>
       <c r="N210" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O210" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -7714,7 +7711,7 @@
         <v>20</v>
       </c>
       <c r="H211" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I211">
         <v>2</v>
@@ -7726,10 +7723,10 @@
         <v>9.6436507609929542E-2</v>
       </c>
       <c r="N211" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O211" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Q211">
         <v>0</v>
@@ -7764,10 +7761,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N212" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O212" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q212">
         <v>0</v>
@@ -7793,7 +7790,7 @@
         <v>20</v>
       </c>
       <c r="H213" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I213">
         <v>2</v>
@@ -7805,10 +7802,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N213" t="s">
+        <v>362</v>
+      </c>
+      <c r="O213" t="s">
         <v>363</v>
-      </c>
-      <c r="O213" t="s">
-        <v>364</v>
       </c>
       <c r="Q213">
         <v>0</v>
@@ -7834,7 +7831,7 @@
         <v>20</v>
       </c>
       <c r="H214" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I214">
         <v>2</v>
@@ -7846,10 +7843,10 @@
         <v>0.22068076490713909</v>
       </c>
       <c r="N214" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O214" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -7860,7 +7857,7 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B215">
         <v>7.6069999999999997E-10</v>
@@ -7875,7 +7872,7 @@
         <v>20</v>
       </c>
       <c r="H215" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I215">
         <v>2</v>
@@ -7887,10 +7884,10 @@
         <v>0.81160335139771322</v>
       </c>
       <c r="N215" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O215" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q215">
         <v>0</v>
@@ -7901,16 +7898,16 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D216" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E216" t="s">
         <v>7</v>
@@ -7925,13 +7922,13 @@
         <v>1</v>
       </c>
       <c r="L216" t="s">
+        <v>462</v>
+      </c>
+      <c r="N216" t="s">
+        <v>463</v>
+      </c>
+      <c r="O216" t="s">
         <v>464</v>
-      </c>
-      <c r="N216" t="s">
-        <v>465</v>
-      </c>
-      <c r="O216" t="s">
-        <v>466</v>
       </c>
       <c r="Q216">
         <v>10100000000</v>
@@ -7966,13 +7963,13 @@
         <v>0.71414284285428498</v>
       </c>
       <c r="L217" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N217" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O217" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -7983,13 +7980,13 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B218">
         <v>1.528E-2</v>
       </c>
       <c r="C218" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D218" t="s">
         <v>3</v>
@@ -8010,13 +8007,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L218" t="s">
+        <v>469</v>
+      </c>
+      <c r="N218" t="s">
+        <v>470</v>
+      </c>
+      <c r="O218" t="s">
         <v>471</v>
-      </c>
-      <c r="N218" t="s">
-        <v>472</v>
-      </c>
-      <c r="O218" t="s">
-        <v>473</v>
       </c>
       <c r="Q218">
         <v>0</v>
@@ -8027,16 +8024,16 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B219">
         <v>2.9899999999999999E-2</v>
       </c>
       <c r="C219" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D219" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E219" t="s">
         <v>15</v>
@@ -8074,13 +8071,13 @@
         <v>8.9442719099991588E-2</v>
       </c>
       <c r="L220" t="s">
+        <v>474</v>
+      </c>
+      <c r="N220" t="s">
+        <v>475</v>
+      </c>
+      <c r="O220" t="s">
         <v>476</v>
-      </c>
-      <c r="N220" t="s">
-        <v>477</v>
-      </c>
-      <c r="O220" t="s">
-        <v>478</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -8118,13 +8115,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L221" t="s">
+        <v>477</v>
+      </c>
+      <c r="N221" t="s">
+        <v>478</v>
+      </c>
+      <c r="O221" t="s">
         <v>479</v>
-      </c>
-      <c r="N221" t="s">
-        <v>480</v>
-      </c>
-      <c r="O221" t="s">
-        <v>481</v>
       </c>
       <c r="Q221">
         <v>1009596</v>
@@ -8162,13 +8159,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L222" t="s">
+        <v>480</v>
+      </c>
+      <c r="N222" t="s">
+        <v>481</v>
+      </c>
+      <c r="O222" t="s">
         <v>482</v>
-      </c>
-      <c r="N222" t="s">
-        <v>483</v>
-      </c>
-      <c r="O222" t="s">
-        <v>484</v>
       </c>
       <c r="Q222">
         <v>0</v>
@@ -8206,13 +8203,13 @@
         <v>8.9442719099991588E-2</v>
       </c>
       <c r="L223" t="s">
+        <v>483</v>
+      </c>
+      <c r="N223" t="s">
+        <v>484</v>
+      </c>
+      <c r="O223" t="s">
         <v>485</v>
-      </c>
-      <c r="N223" t="s">
-        <v>486</v>
-      </c>
-      <c r="O223" t="s">
-        <v>487</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -8250,13 +8247,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L224" t="s">
+        <v>486</v>
+      </c>
+      <c r="N224" t="s">
+        <v>487</v>
+      </c>
+      <c r="O224" t="s">
         <v>488</v>
-      </c>
-      <c r="N224" t="s">
-        <v>489</v>
-      </c>
-      <c r="O224" t="s">
-        <v>490</v>
       </c>
       <c r="Q224">
         <v>37955.800000000003</v>
@@ -8267,7 +8264,7 @@
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B225">
         <v>0.66080000000000005</v>
@@ -8287,7 +8284,7 @@
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B226">
         <v>0.13534860007647501</v>
@@ -8314,13 +8311,13 @@
         <v>8.9442719099991588E-2</v>
       </c>
       <c r="L226" t="s">
+        <v>491</v>
+      </c>
+      <c r="N226" t="s">
+        <v>492</v>
+      </c>
+      <c r="O226" t="s">
         <v>493</v>
-      </c>
-      <c r="N226" t="s">
-        <v>494</v>
-      </c>
-      <c r="O226" t="s">
-        <v>495</v>
       </c>
       <c r="Q226">
         <v>0</v>
@@ -8358,13 +8355,13 @@
         <v>9.3273790530888148E-2</v>
       </c>
       <c r="L227" t="s">
+        <v>494</v>
+      </c>
+      <c r="N227" t="s">
+        <v>495</v>
+      </c>
+      <c r="O227" t="s">
         <v>496</v>
-      </c>
-      <c r="N227" t="s">
-        <v>497</v>
-      </c>
-      <c r="O227" t="s">
-        <v>498</v>
       </c>
       <c r="Q227">
         <v>26825.599999999999</v>
@@ -8375,16 +8372,16 @@
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B228">
         <v>0.98470000000000002</v>
       </c>
       <c r="C228" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D228" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E228" t="s">
         <v>7</v>
@@ -8398,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.2">
@@ -8406,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.2">
@@ -8414,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="B232" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.2">
@@ -8422,7 +8419,7 @@
         <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.2">
@@ -8446,7 +8443,7 @@
         <v>213</v>
       </c>
       <c r="B236" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.2">
@@ -8477,45 +8474,45 @@
         <v>11</v>
       </c>
       <c r="H238" t="s">
+        <v>242</v>
+      </c>
+      <c r="I238" t="s">
         <v>243</v>
       </c>
-      <c r="I238" t="s">
+      <c r="J238" t="s">
         <v>244</v>
       </c>
-      <c r="J238" t="s">
+      <c r="K238" t="s">
         <v>245</v>
       </c>
-      <c r="K238" t="s">
+      <c r="L238" t="s">
         <v>246</v>
       </c>
-      <c r="L238" t="s">
+      <c r="M238" t="s">
         <v>247</v>
-      </c>
-      <c r="M238" t="s">
-        <v>248</v>
       </c>
       <c r="N238" t="s">
         <v>1</v>
       </c>
       <c r="O238" t="s">
+        <v>248</v>
+      </c>
+      <c r="P238" t="s">
         <v>249</v>
       </c>
-      <c r="P238" t="s">
+      <c r="Q238" t="s">
         <v>250</v>
       </c>
-      <c r="Q238" t="s">
+      <c r="R238" t="s">
         <v>251</v>
       </c>
-      <c r="R238" t="s">
+      <c r="S238" t="s">
         <v>252</v>
-      </c>
-      <c r="S238" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B239">
         <v>3E-9</v>
@@ -8530,7 +8527,7 @@
         <v>20</v>
       </c>
       <c r="H239" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I239">
         <v>2</v>
@@ -8542,10 +8539,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N239" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O239" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -8556,7 +8553,7 @@
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B240">
         <v>2.0371548787E-9</v>
@@ -8571,7 +8568,7 @@
         <v>20</v>
       </c>
       <c r="H240" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I240">
         <v>2</v>
@@ -8583,10 +8580,10 @@
         <v>0.55247171873318546</v>
       </c>
       <c r="N240" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O240" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Q240">
         <v>0</v>
@@ -8597,7 +8594,7 @@
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B241">
         <v>7.4390859654000001E-9</v>
@@ -8612,7 +8609,7 @@
         <v>20</v>
       </c>
       <c r="H241" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I241">
         <v>2</v>
@@ -8624,10 +8621,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N241" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O241" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q241">
         <v>0</v>
@@ -8653,7 +8650,7 @@
         <v>20</v>
       </c>
       <c r="H242" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I242">
         <v>2</v>
@@ -8665,10 +8662,10 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="N242" t="s">
+        <v>254</v>
+      </c>
+      <c r="O242" t="s">
         <v>255</v>
-      </c>
-      <c r="O242" t="s">
-        <v>256</v>
       </c>
       <c r="Q242">
         <v>0</v>
@@ -8694,7 +8691,7 @@
         <v>20</v>
       </c>
       <c r="H243" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I243">
         <v>2</v>
@@ -8706,10 +8703,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N243" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O243" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q243">
         <v>0</v>
@@ -8720,7 +8717,7 @@
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B244">
         <v>2.1221687021000001E-8</v>
@@ -8735,7 +8732,7 @@
         <v>20</v>
       </c>
       <c r="H244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I244">
         <v>2</v>
@@ -8747,10 +8744,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N244" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q244">
         <v>0</v>
@@ -8761,7 +8758,7 @@
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B245">
         <v>3.3777951387999999E-8</v>
@@ -8776,7 +8773,7 @@
         <v>20</v>
       </c>
       <c r="H245" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I245">
         <v>2</v>
@@ -8788,10 +8785,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N245" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O245" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q245">
         <v>0</v>
@@ -8817,7 +8814,7 @@
         <v>20</v>
       </c>
       <c r="H246" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I246">
         <v>2</v>
@@ -8829,10 +8826,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N246" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O246" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q246">
         <v>0</v>
@@ -8843,7 +8840,7 @@
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B247">
         <v>3.4447641429E-5</v>
@@ -8858,7 +8855,7 @@
         <v>20</v>
       </c>
       <c r="H247" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I247">
         <v>2</v>
@@ -8870,10 +8867,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N247" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O247" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q247">
         <v>0</v>
@@ -8899,7 +8896,7 @@
         <v>20</v>
       </c>
       <c r="H248" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I248">
         <v>2</v>
@@ -8911,10 +8908,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N248" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O248" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -8925,7 +8922,7 @@
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>3.8439214351999999E-7</v>
@@ -8940,7 +8937,7 @@
         <v>20</v>
       </c>
       <c r="H249" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I249">
         <v>2</v>
@@ -8952,10 +8949,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N249" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O249" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q249">
         <v>0</v>
@@ -8966,7 +8963,7 @@
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B250">
         <v>4.2824759194E-8</v>
@@ -8981,7 +8978,7 @@
         <v>20</v>
       </c>
       <c r="H250" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I250">
         <v>2</v>
@@ -8993,10 +8990,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N250" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O250" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q250">
         <v>0</v>
@@ -9007,7 +9004,7 @@
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B251">
         <v>4.5497252663999999E-9</v>
@@ -9022,7 +9019,7 @@
         <v>20</v>
       </c>
       <c r="H251" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I251">
         <v>2</v>
@@ -9034,10 +9031,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N251" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O251" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q251">
         <v>0</v>
@@ -9063,7 +9060,7 @@
         <v>20</v>
       </c>
       <c r="H252" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I252">
         <v>2</v>
@@ -9075,10 +9072,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N252" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O252" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q252">
         <v>0</v>
@@ -9089,7 +9086,7 @@
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B253">
         <v>1.9782568084000002E-5</v>
@@ -9113,10 +9110,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N253" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O253" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Q253">
         <v>0</v>
@@ -9127,7 +9124,7 @@
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B254">
         <v>1.5108937751999999E-8</v>
@@ -9142,7 +9139,7 @@
         <v>20</v>
       </c>
       <c r="H254" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I254">
         <v>2</v>
@@ -9154,10 +9151,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N254" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O254" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -9183,7 +9180,7 @@
         <v>20</v>
       </c>
       <c r="H255" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I255">
         <v>2</v>
@@ -9195,10 +9192,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N255" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O255" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -9218,13 +9215,13 @@
         <v>7</v>
       </c>
       <c r="F256" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G256" t="s">
         <v>20</v>
       </c>
       <c r="H256" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I256">
         <v>2</v>
@@ -9236,10 +9233,10 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="N256" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O256" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Q256">
         <v>0</v>
@@ -9274,10 +9271,10 @@
         <v>0.55247171873318546</v>
       </c>
       <c r="N257" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O257" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q257">
         <v>0</v>
@@ -9288,7 +9285,7 @@
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>1.20415E-4</v>
@@ -9309,10 +9306,10 @@
         <v>1.20415E-4</v>
       </c>
       <c r="N258" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="O258" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q258">
         <v>0</v>
@@ -9320,7 +9317,7 @@
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B259">
         <v>9.3775800000000004E-5</v>
@@ -9344,10 +9341,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N259" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O259" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q259">
         <v>0</v>
@@ -9358,7 +9355,7 @@
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B260">
         <v>1.9602500000000001E-5</v>
@@ -9382,10 +9379,10 @@
         <v>0.35387144558440992</v>
       </c>
       <c r="N260" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="O260" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q260">
         <v>0</v>
@@ -9420,10 +9417,10 @@
         <v>0.2126617031813674</v>
       </c>
       <c r="N261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O261" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q261">
         <v>0</v>
@@ -9434,7 +9431,7 @@
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B262">
         <v>5.1253292576999998E-8</v>
@@ -9449,7 +9446,7 @@
         <v>20</v>
       </c>
       <c r="H262" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I262">
         <v>2</v>
@@ -9461,10 +9458,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N262" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O262" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Q262">
         <v>0</v>
@@ -9490,7 +9487,7 @@
         <v>20</v>
       </c>
       <c r="H263" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I263">
         <v>2</v>
@@ -9502,10 +9499,10 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="N263" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O263" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q263">
         <v>0</v>
@@ -9516,7 +9513,7 @@
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B264">
         <v>6.5802735504999996E-9</v>
@@ -9531,7 +9528,7 @@
         <v>20</v>
       </c>
       <c r="H264" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I264">
         <v>2</v>
@@ -9543,10 +9540,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N264" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O264" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Q264">
         <v>0</v>
@@ -9557,7 +9554,7 @@
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B265">
         <v>9.7519228873000004E-9</v>
@@ -9572,7 +9569,7 @@
         <v>20</v>
       </c>
       <c r="H265" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I265">
         <v>2</v>
@@ -9584,10 +9581,10 @@
         <v>0.80945969634071335</v>
       </c>
       <c r="N265" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O265" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="Q265">
         <v>0</v>
@@ -9613,7 +9610,7 @@
         <v>20</v>
       </c>
       <c r="H266" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I266">
         <v>2</v>
@@ -9625,10 +9622,10 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="N266" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O266" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Q266">
         <v>0</v>
@@ -9639,16 +9636,16 @@
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B267">
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D267" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E267" t="s">
         <v>7</v>
@@ -9663,10 +9660,10 @@
         <v>1</v>
       </c>
       <c r="L267" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O267" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q267">
         <v>113558550000</v>
@@ -9674,13 +9671,13 @@
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B268">
         <v>0.10487776</v>
       </c>
       <c r="C268" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D268" t="s">
         <v>14</v>
@@ -9694,13 +9691,13 @@
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B269">
         <v>0.16200000000000001</v>
       </c>
       <c r="C269" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D269" t="s">
         <v>14</v>
@@ -9741,13 +9738,13 @@
         <v>0.77796208133815881</v>
       </c>
       <c r="L270" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N270" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O270" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Q270">
         <v>0</v>
@@ -9767,7 +9764,7 @@
         <v>101</v>
       </c>
       <c r="D271" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E271" t="s">
         <v>7</v>
@@ -9778,13 +9775,13 @@
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B272">
         <v>0.10785797</v>
       </c>
       <c r="C272" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D272" t="s">
         <v>14</v>
@@ -9818,16 +9815,16 @@
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B274">
         <v>-3.2656142502726897E-5</v>
       </c>
       <c r="C274" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D274" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E274" t="s">
         <v>22</v>
@@ -9845,13 +9842,13 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="L274" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N274" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O274" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q274">
         <v>4817881.6013054997</v>
@@ -9862,16 +9859,16 @@
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B275">
         <v>-9.7702674972731194E-6</v>
       </c>
       <c r="C275" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D275" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E275" t="s">
         <v>22</v>
@@ -9889,13 +9886,13 @@
         <v>7.6321687612368738E-2</v>
       </c>
       <c r="L275" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="N275" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O275" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q275">
         <v>4817881.6013054997</v>
@@ -9906,7 +9903,7 @@
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B276">
         <v>5.3600000000000002E-2</v>
@@ -9915,7 +9912,7 @@
         <v>16</v>
       </c>
       <c r="D276" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E276" t="s">
         <v>15</v>
@@ -9926,13 +9923,13 @@
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B277">
         <v>0.05</v>
       </c>
       <c r="C277" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D277" t="s">
         <v>14</v>
@@ -9946,16 +9943,16 @@
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B278">
         <v>0.70660000000000001</v>
       </c>
       <c r="C278" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D278" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E278" t="s">
         <v>7</v>
@@ -9969,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.2">
@@ -9985,7 +9982,7 @@
         <v>2</v>
       </c>
       <c r="B282" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.2">
@@ -10001,7 +9998,7 @@
         <v>5</v>
       </c>
       <c r="B284" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.2">
@@ -10025,7 +10022,7 @@
         <v>213</v>
       </c>
       <c r="B287" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.2">
@@ -10058,7 +10055,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B290">
         <v>15.73</v>
@@ -10075,7 +10072,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B291">
         <v>1.44E-2</v>
@@ -10109,13 +10106,13 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D293" t="s">
         <v>7</v>
@@ -10124,18 +10121,18 @@
         <v>12</v>
       </c>
       <c r="G293" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B294">
         <v>0.752</v>
       </c>
       <c r="C294" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D294" t="s">
         <v>7</v>
@@ -10144,12 +10141,12 @@
         <v>13</v>
       </c>
       <c r="G294" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B295">
         <v>0.01</v>
@@ -10164,12 +10161,12 @@
         <v>13</v>
       </c>
       <c r="G295" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B296">
         <v>2.7300000000000001E-2</v>
@@ -10184,12 +10181,12 @@
         <v>13</v>
       </c>
       <c r="G296" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B297">
         <v>5.0400000000000002E-3</v>
@@ -10204,12 +10201,12 @@
         <v>13</v>
       </c>
       <c r="G297" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B298">
         <v>0.251</v>
@@ -10224,7 +10221,7 @@
         <v>13</v>
       </c>
       <c r="G298" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
@@ -10249,13 +10246,13 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B300">
         <v>0.55000000000000004</v>
       </c>
       <c r="C300" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D300" t="s">
         <v>15</v>
@@ -10269,13 +10266,13 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B301">
         <v>13.75</v>
       </c>
       <c r="C301" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D301" t="s">
         <v>17</v>
@@ -10289,7 +10286,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B302">
         <v>-1.8</v>
@@ -10304,7 +10301,7 @@
         <v>13</v>
       </c>
       <c r="G302" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
@@ -10320,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="B305" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.2">
@@ -10328,7 +10325,7 @@
         <v>2</v>
       </c>
       <c r="B306" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.2">
@@ -10352,7 +10349,7 @@
         <v>213</v>
       </c>
       <c r="B309" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.2">
@@ -10383,22 +10380,22 @@
         <v>11</v>
       </c>
       <c r="H311" t="s">
+        <v>242</v>
+      </c>
+      <c r="I311" t="s">
         <v>243</v>
       </c>
-      <c r="I311" t="s">
+      <c r="J311" t="s">
         <v>244</v>
       </c>
-      <c r="J311" t="s">
+      <c r="K311" t="s">
         <v>245</v>
-      </c>
-      <c r="K311" t="s">
-        <v>246</v>
       </c>
       <c r="L311" t="s">
         <v>1</v>
       </c>
       <c r="M311" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.2">
@@ -10418,7 +10415,7 @@
         <v>20</v>
       </c>
       <c r="H312" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I312">
         <v>2</v>
@@ -10430,7 +10427,7 @@
         <v>3.8729833462074169E-2</v>
       </c>
       <c r="L312" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M312">
         <v>0</v>
@@ -10453,7 +10450,7 @@
         <v>20</v>
       </c>
       <c r="H313" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I313">
         <v>2</v>
@@ -10465,7 +10462,7 @@
         <v>0.80715549926888308</v>
       </c>
       <c r="L313" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M313">
         <v>0.80622577482985502</v>
@@ -10488,7 +10485,7 @@
         <v>20</v>
       </c>
       <c r="H314" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I314">
         <v>2</v>
@@ -10500,7 +10497,7 @@
         <v>0.5490901565316938</v>
       </c>
       <c r="L314" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M314">
         <v>0.54772255750516607</v>
@@ -10508,7 +10505,7 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B315">
         <v>1.0745E-5</v>
@@ -10523,7 +10520,7 @@
         <v>20</v>
       </c>
       <c r="H315" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I315">
         <v>2</v>
@@ -10535,7 +10532,7 @@
         <v>0.20371548787463359</v>
       </c>
       <c r="L315" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M315">
         <v>0.2</v>
@@ -10543,7 +10540,7 @@
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B316">
         <v>6.9149000000000006E-8</v>
@@ -10558,7 +10555,7 @@
         <v>20</v>
       </c>
       <c r="H316" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I316">
         <v>2</v>
@@ -10570,7 +10567,7 @@
         <v>0.80715549926888308</v>
       </c>
       <c r="L316" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M316">
         <v>0.80622577482985502</v>
@@ -10578,7 +10575,7 @@
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B317">
         <v>7.4468000000000002E-8</v>
@@ -10593,7 +10590,7 @@
         <v>20</v>
       </c>
       <c r="H317" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I317">
         <v>2</v>
@@ -10605,7 +10602,7 @@
         <v>0.80715549926888308</v>
       </c>
       <c r="L317" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M317">
         <v>0.80622577482985502</v>
@@ -10613,7 +10610,7 @@
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B318">
         <v>1.5956999999999999E-8</v>
@@ -10628,7 +10625,7 @@
         <v>20</v>
       </c>
       <c r="H318" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I318">
         <v>2</v>
@@ -10640,7 +10637,7 @@
         <v>0.80715549926888308</v>
       </c>
       <c r="L318" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M318">
         <v>0.80622577482985502</v>
@@ -10663,7 +10660,7 @@
         <v>20</v>
       </c>
       <c r="H319" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I319">
         <v>2</v>
@@ -10675,7 +10672,7 @@
         <v>0.20371548787463359</v>
       </c>
       <c r="L319" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M319">
         <v>0.2</v>
@@ -10683,7 +10680,7 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B320">
         <v>2.8722999999999999E-5</v>
@@ -10707,7 +10704,7 @@
         <v>0.5490901565316938</v>
       </c>
       <c r="L320" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M320">
         <v>0.54772255750516607</v>
@@ -10715,7 +10712,7 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B321">
         <v>1.5957E-6</v>
@@ -10739,7 +10736,7 @@
         <v>0.20371548787463359</v>
       </c>
       <c r="L321" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M321">
         <v>0.2</v>
@@ -10747,7 +10744,7 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B322">
         <v>1.5957E-6</v>
@@ -10771,7 +10768,7 @@
         <v>0.3485685011586675</v>
       </c>
       <c r="L322" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M322">
         <v>0.34641016151377552</v>
@@ -10794,7 +10791,7 @@
         <v>20</v>
       </c>
       <c r="H323" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I323">
         <v>2</v>
@@ -10806,7 +10803,7 @@
         <v>3.8729833462074169E-2</v>
       </c>
       <c r="L323" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M323">
         <v>0</v>
@@ -10829,7 +10826,7 @@
         <v>20</v>
       </c>
       <c r="H324" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I324">
         <v>2</v>
@@ -10841,7 +10838,7 @@
         <v>0.30335622624235031</v>
       </c>
       <c r="L324" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M324">
         <v>0.2</v>
@@ -10864,7 +10861,7 @@
         <v>20</v>
       </c>
       <c r="H325" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I325">
         <v>2</v>
@@ -10876,7 +10873,7 @@
         <v>0.20174241001832011</v>
       </c>
       <c r="L325" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M325">
         <v>0.2</v>
@@ -10899,7 +10896,7 @@
         <v>20</v>
       </c>
       <c r="H326" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I326">
         <v>2</v>
@@ -10911,7 +10908,7 @@
         <v>0.1132475165290612</v>
       </c>
       <c r="L326" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M326">
         <v>0.1</v>
@@ -10934,7 +10931,7 @@
         <v>20</v>
       </c>
       <c r="H327" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I327">
         <v>2</v>
@@ -10946,7 +10943,7 @@
         <v>0.1132475165290612</v>
       </c>
       <c r="L327" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M327">
         <v>0.1</v>
@@ -10963,7 +10960,7 @@
         <v>66</v>
       </c>
       <c r="D328" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E328" t="s">
         <v>7</v>
@@ -10980,13 +10977,13 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B329">
         <v>-0.65</v>
       </c>
       <c r="C329" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
@@ -11007,7 +11004,7 @@
         <v>0.2095232683975696</v>
       </c>
       <c r="L329" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M329">
         <v>0.2</v>
@@ -11015,13 +11012,13 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B330">
         <v>8.7379999999999999E-2</v>
       </c>
       <c r="C330" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D330" t="s">
         <v>14</v>
@@ -11035,7 +11032,7 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B331">
         <v>-4.6224999999999996</v>
@@ -11055,16 +11052,16 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B332">
         <v>0.42399999999999999</v>
       </c>
       <c r="C332" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D332" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E332" t="s">
         <v>7</v>
@@ -11075,16 +11072,16 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B333">
         <v>1.59</v>
       </c>
       <c r="C333" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D333" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E333" t="s">
         <v>7</v>
@@ -11095,13 +11092,13 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B334">
         <v>1.3333000000000001E-11</v>
       </c>
       <c r="C334" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D334" t="s">
         <v>3</v>
@@ -11122,7 +11119,7 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="L334" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M334">
         <v>0.53851648071345037</v>
@@ -11139,7 +11136,7 @@
         <v>101</v>
       </c>
       <c r="D335" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E335" t="s">
         <v>7</v>
@@ -11157,7 +11154,7 @@
         <v>1.4142135623730951E-2</v>
       </c>
       <c r="L335" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M335">
         <v>0</v>
@@ -11192,7 +11189,7 @@
         <v>5.8309518948453001E-2</v>
       </c>
       <c r="L336" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M336">
         <v>0</v>
@@ -11200,13 +11197,13 @@
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B337">
         <v>0.1055556</v>
       </c>
       <c r="C337" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D337" t="s">
         <v>3</v>
@@ -11220,13 +11217,13 @@
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B338">
         <v>0.45184999999999997</v>
       </c>
       <c r="C338" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
@@ -11240,13 +11237,13 @@
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B339">
         <v>2E-3</v>
       </c>
       <c r="C339" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D339" t="s">
         <v>3</v>
@@ -11267,7 +11264,7 @@
         <v>1.4142135623730951E-2</v>
       </c>
       <c r="L339" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M339">
         <v>0</v>
@@ -11275,13 +11272,13 @@
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B340">
         <v>-1.21643E-4</v>
       </c>
       <c r="C340" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D340" t="s">
         <v>14</v>
@@ -11302,7 +11299,7 @@
         <v>0.2083266665599966</v>
       </c>
       <c r="L340" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M340">
         <v>0.2</v>
@@ -11321,7 +11318,7 @@
         <v>1</v>
       </c>
       <c r="B343" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="344" spans="1:19" x14ac:dyDescent="0.2">
@@ -11353,7 +11350,7 @@
         <v>213</v>
       </c>
       <c r="B347" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="348" spans="1:19" x14ac:dyDescent="0.2">
@@ -11384,45 +11381,45 @@
         <v>11</v>
       </c>
       <c r="H349" t="s">
+        <v>242</v>
+      </c>
+      <c r="I349" t="s">
         <v>243</v>
       </c>
-      <c r="I349" t="s">
+      <c r="J349" t="s">
         <v>244</v>
       </c>
-      <c r="J349" t="s">
+      <c r="K349" t="s">
         <v>245</v>
       </c>
-      <c r="K349" t="s">
+      <c r="L349" t="s">
         <v>246</v>
       </c>
-      <c r="L349" t="s">
+      <c r="M349" t="s">
         <v>247</v>
-      </c>
-      <c r="M349" t="s">
-        <v>248</v>
       </c>
       <c r="N349" t="s">
         <v>1</v>
       </c>
       <c r="O349" t="s">
+        <v>248</v>
+      </c>
+      <c r="P349" t="s">
         <v>249</v>
       </c>
-      <c r="P349" t="s">
+      <c r="Q349" t="s">
         <v>250</v>
       </c>
-      <c r="Q349" t="s">
+      <c r="R349" t="s">
         <v>251</v>
       </c>
-      <c r="R349" t="s">
+      <c r="S349" t="s">
         <v>252</v>
-      </c>
-      <c r="S349" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B350">
         <v>2.0000000000000001E-13</v>
@@ -11437,7 +11434,7 @@
         <v>20</v>
       </c>
       <c r="H350" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I350">
         <v>2</v>
@@ -11449,10 +11446,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N350" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O350" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q350">
         <v>0</v>
@@ -11463,7 +11460,7 @@
     </row>
     <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B351">
         <v>2.1E-10</v>
@@ -11478,7 +11475,7 @@
         <v>20</v>
       </c>
       <c r="H351" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I351">
         <v>2</v>
@@ -11490,7 +11487,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O351" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q351">
         <v>0</v>
@@ -11501,7 +11498,7 @@
     </row>
     <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B352">
         <v>3.1000000000000001E-12</v>
@@ -11516,7 +11513,7 @@
         <v>20</v>
       </c>
       <c r="H352" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I352">
         <v>2</v>
@@ -11528,10 +11525,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N352" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O352" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q352">
         <v>0</v>
@@ -11557,7 +11554,7 @@
         <v>20</v>
       </c>
       <c r="H353" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I353">
         <v>2</v>
@@ -11569,7 +11566,7 @@
         <v>0.2032240143290158</v>
       </c>
       <c r="O353" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q353">
         <v>0</v>
@@ -11595,7 +11592,7 @@
         <v>20</v>
       </c>
       <c r="H354" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I354">
         <v>2</v>
@@ -11607,7 +11604,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O354" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q354">
         <v>0</v>
@@ -11618,7 +11615,7 @@
     </row>
     <row r="355" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B355">
         <v>2.7000000000000002E-9</v>
@@ -11633,7 +11630,7 @@
         <v>20</v>
       </c>
       <c r="H355" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I355">
         <v>2</v>
@@ -11645,7 +11642,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O355" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q355">
         <v>0</v>
@@ -11656,7 +11653,7 @@
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B356">
         <v>4.9600000000000002E-11</v>
@@ -11671,7 +11668,7 @@
         <v>20</v>
       </c>
       <c r="H356" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I356">
         <v>2</v>
@@ -11683,10 +11680,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N356" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O356" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q356">
         <v>0</v>
@@ -11697,7 +11694,7 @@
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B357">
         <v>6.2000000000000002E-12</v>
@@ -11712,7 +11709,7 @@
         <v>20</v>
       </c>
       <c r="H357" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I357">
         <v>2</v>
@@ -11724,10 +11721,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N357" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O357" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Q357">
         <v>0</v>
@@ -11738,7 +11735,7 @@
     </row>
     <row r="358" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B358">
         <v>4.5999999999999998E-9</v>
@@ -11753,7 +11750,7 @@
         <v>20</v>
       </c>
       <c r="H358" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I358">
         <v>2</v>
@@ -11765,7 +11762,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O358" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q358">
         <v>0</v>
@@ -11776,7 +11773,7 @@
     </row>
     <row r="359" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B359">
         <v>6.2000000000000002E-12</v>
@@ -11791,7 +11788,7 @@
         <v>20</v>
       </c>
       <c r="H359" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I359">
         <v>2</v>
@@ -11803,10 +11800,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N359" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O359" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q359">
         <v>0</v>
@@ -11832,7 +11829,7 @@
         <v>20</v>
       </c>
       <c r="H360" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I360">
         <v>2</v>
@@ -11844,10 +11841,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N360" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O360" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Q360">
         <v>0</v>
@@ -11873,7 +11870,7 @@
         <v>20</v>
       </c>
       <c r="H361" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I361">
         <v>2</v>
@@ -11885,7 +11882,7 @@
         <v>0.58420886675914119</v>
       </c>
       <c r="O361" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q361">
         <v>0</v>
@@ -11920,7 +11917,7 @@
         <v>0.28513154858766498</v>
       </c>
       <c r="O362" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="Q362">
         <v>0</v>
@@ -11931,7 +11928,7 @@
     </row>
     <row r="363" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B363">
         <v>2.5000000000000001E-5</v>
@@ -11946,7 +11943,7 @@
         <v>20</v>
       </c>
       <c r="H363" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I363">
         <v>2</v>
@@ -11958,7 +11955,7 @@
         <v>0.28513154858766498</v>
       </c>
       <c r="O363" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q363">
         <v>0</v>
@@ -11984,7 +11981,7 @@
         <v>20</v>
       </c>
       <c r="H364" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I364">
         <v>2</v>
@@ -11996,7 +11993,7 @@
         <v>0.28513154858766498</v>
       </c>
       <c r="O364" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q364">
         <v>0</v>
@@ -12022,7 +12019,7 @@
         <v>20</v>
       </c>
       <c r="H365" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I365">
         <v>2</v>
@@ -12034,10 +12031,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="N365" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O365" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Q365">
         <v>0</v>
@@ -12048,7 +12045,7 @@
     </row>
     <row r="366" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B366">
         <v>6.6063256317524603E-9</v>
@@ -12063,7 +12060,7 @@
         <v>20</v>
       </c>
       <c r="H366" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I366">
         <v>2</v>
@@ -12075,10 +12072,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N366" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O366" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Q366">
         <v>0</v>
@@ -12089,7 +12086,7 @@
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B367">
         <v>6.6500000000000007E-8</v>
@@ -12104,7 +12101,7 @@
         <v>20</v>
       </c>
       <c r="H367" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I367">
         <v>2</v>
@@ -12116,7 +12113,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O367" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q367">
         <v>0</v>
@@ -12127,7 +12124,7 @@
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B368">
         <v>3.4748980507724499E-12</v>
@@ -12142,7 +12139,7 @@
         <v>20</v>
       </c>
       <c r="H368" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I368">
         <v>2</v>
@@ -12154,10 +12151,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N368" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O368" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Q368">
         <v>0</v>
@@ -12168,7 +12165,7 @@
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B369">
         <v>1.86E-9</v>
@@ -12183,7 +12180,7 @@
         <v>20</v>
       </c>
       <c r="H369" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I369">
         <v>2</v>
@@ -12195,10 +12192,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N369" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O369" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q369">
         <v>0</v>
@@ -12209,7 +12206,7 @@
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B370">
         <v>2.3000000000000001E-8</v>
@@ -12224,7 +12221,7 @@
         <v>20</v>
       </c>
       <c r="H370" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I370">
         <v>2</v>
@@ -12236,7 +12233,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O370" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q370">
         <v>0</v>
@@ -12247,7 +12244,7 @@
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B371">
         <v>5.5357208695270903E-11</v>
@@ -12262,7 +12259,7 @@
         <v>20</v>
       </c>
       <c r="H371" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I371">
         <v>2</v>
@@ -12274,10 +12271,10 @@
         <v>0.83312664103364265</v>
       </c>
       <c r="N371" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O371" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q371">
         <v>0</v>
@@ -12288,7 +12285,7 @@
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B372">
         <v>2.5000000000000002E-10</v>
@@ -12303,7 +12300,7 @@
         <v>20</v>
       </c>
       <c r="H372" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I372">
         <v>2</v>
@@ -12315,7 +12312,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O372" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q372">
         <v>0</v>
@@ -12326,7 +12323,7 @@
     </row>
     <row r="373" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B373">
         <v>4.5162712836537899E-13</v>
@@ -12341,7 +12338,7 @@
         <v>20</v>
       </c>
       <c r="H373" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I373">
         <v>2</v>
@@ -12353,10 +12350,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N373" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O373" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q373">
         <v>0</v>
@@ -12382,7 +12379,7 @@
         <v>20</v>
       </c>
       <c r="H374" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I374">
         <v>2</v>
@@ -12394,10 +12391,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N374" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O374" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q374">
         <v>0</v>
@@ -12408,7 +12405,7 @@
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B375">
         <v>4.1999999999999997E-11</v>
@@ -12432,10 +12429,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N375" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O375" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q375">
         <v>0</v>
@@ -12446,7 +12443,7 @@
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B376">
         <v>1.4999999999999999E-8</v>
@@ -12461,7 +12458,7 @@
         <v>20</v>
       </c>
       <c r="H376" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I376">
         <v>2</v>
@@ -12473,7 +12470,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O376" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q376">
         <v>0</v>
@@ -12484,7 +12481,7 @@
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B377">
         <v>3.4748980507724499E-12</v>
@@ -12499,7 +12496,7 @@
         <v>20</v>
       </c>
       <c r="H377" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I377">
         <v>2</v>
@@ -12511,10 +12508,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N377" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O377" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Q377">
         <v>0</v>
@@ -12540,7 +12537,7 @@
         <v>20</v>
       </c>
       <c r="H378" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I378">
         <v>2</v>
@@ -12552,10 +12549,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N378" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O378" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q378">
         <v>0</v>
@@ -12581,7 +12578,7 @@
         <v>20</v>
       </c>
       <c r="H379" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I379">
         <v>2</v>
@@ -12593,7 +12590,7 @@
         <v>0.28513154858766498</v>
       </c>
       <c r="O379" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q379">
         <v>0</v>
@@ -12619,7 +12616,7 @@
         <v>20</v>
       </c>
       <c r="H380" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I380">
         <v>2</v>
@@ -12631,10 +12628,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N380" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O380" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Q380">
         <v>0</v>
@@ -12669,7 +12666,7 @@
         <v>0.58420886675914119</v>
       </c>
       <c r="O381" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q381">
         <v>0</v>
@@ -12680,7 +12677,7 @@
     </row>
     <row r="382" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B382">
         <v>7.4999999999999993E-5</v>
@@ -12704,7 +12701,7 @@
         <v>0.58420886675914119</v>
       </c>
       <c r="O382" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q382">
         <v>0</v>
@@ -12715,7 +12712,7 @@
     </row>
     <row r="383" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B383">
         <v>1.8982224367784301E-7</v>
@@ -12739,10 +12736,10 @@
         <v>0.58540584213005598</v>
       </c>
       <c r="N383" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O383" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q383">
         <v>0</v>
@@ -12753,7 +12750,7 @@
     </row>
     <row r="384" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B384">
         <v>3.2812391688682001E-7</v>
@@ -12777,10 +12774,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N384" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O384" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Q384">
         <v>0</v>
@@ -12791,7 +12788,7 @@
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B385">
         <v>2.2490007889068799E-7</v>
@@ -12815,10 +12812,10 @@
         <v>0.40336088060197411</v>
       </c>
       <c r="N385" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O385" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q385">
         <v>0</v>
@@ -12844,7 +12841,7 @@
         <v>20</v>
       </c>
       <c r="H386" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I386">
         <v>2</v>
@@ -12856,10 +12853,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N386" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O386" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q386">
         <v>0</v>
@@ -12870,7 +12867,7 @@
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B387">
         <v>3.1606591103240501E-11</v>
@@ -12885,7 +12882,7 @@
         <v>20</v>
       </c>
       <c r="H387" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I387">
         <v>2</v>
@@ -12897,10 +12894,10 @@
         <v>0.83312664103364265</v>
       </c>
       <c r="N387" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O387" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="Q387">
         <v>0</v>
@@ -12926,7 +12923,7 @@
         <v>20</v>
       </c>
       <c r="H388" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I388">
         <v>2</v>
@@ -12938,7 +12935,7 @@
         <v>0.2032240143290158</v>
       </c>
       <c r="O388" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q388">
         <v>0</v>
@@ -12964,7 +12961,7 @@
         <v>20</v>
       </c>
       <c r="H389" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I389">
         <v>2</v>
@@ -12976,10 +12973,10 @@
         <v>0.20808652046684811</v>
       </c>
       <c r="N389" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O389" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Q389">
         <v>0</v>
@@ -13014,10 +13011,10 @@
         <v>0.28757607689096809</v>
       </c>
       <c r="N390" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O390" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q390">
         <v>0</v>
@@ -13028,7 +13025,7 @@
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B391">
         <v>8.5500000000000005E-8</v>
@@ -13043,7 +13040,7 @@
         <v>20</v>
       </c>
       <c r="H391" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -13055,7 +13052,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O391" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="Q391">
         <v>0</v>
@@ -13081,7 +13078,7 @@
         <v>20</v>
       </c>
       <c r="H392" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I392">
         <v>0</v>
@@ -13090,10 +13087,10 @@
         <v>8.6761728376224398E-5</v>
       </c>
       <c r="N392" t="s">
+        <v>362</v>
+      </c>
+      <c r="O392" t="s">
         <v>363</v>
-      </c>
-      <c r="O392" t="s">
-        <v>364</v>
       </c>
       <c r="Q392">
         <v>0</v>
@@ -13116,7 +13113,7 @@
         <v>20</v>
       </c>
       <c r="H393" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I393">
         <v>2</v>
@@ -13128,10 +13125,10 @@
         <v>0.28407745422683578</v>
       </c>
       <c r="N393" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O393" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q393">
         <v>0</v>
@@ -13157,7 +13154,7 @@
         <v>20</v>
       </c>
       <c r="H394" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I394">
         <v>2</v>
@@ -13169,7 +13166,7 @@
         <v>0.20024984394500789</v>
       </c>
       <c r="O394" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Q394">
         <v>0</v>
@@ -13180,7 +13177,7 @@
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B395">
         <v>5.62E-8</v>
@@ -13195,7 +13192,7 @@
         <v>20</v>
       </c>
       <c r="H395" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I395">
         <v>2</v>
@@ -13207,7 +13204,7 @@
         <v>0.83144452611103292</v>
       </c>
       <c r="O395" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q395">
         <v>0</v>
@@ -13218,7 +13215,7 @@
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B396">
         <v>1.38977652325058E-11</v>
@@ -13233,7 +13230,7 @@
         <v>20</v>
       </c>
       <c r="H396" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I396">
         <v>2</v>
@@ -13245,10 +13242,10 @@
         <v>0.8322860085331244</v>
       </c>
       <c r="N396" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O396" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q396">
         <v>0</v>
@@ -13283,13 +13280,13 @@
         <v>1</v>
       </c>
       <c r="L397" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="N397" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O397" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q397">
         <v>473333424000</v>
@@ -13297,7 +13294,7 @@
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B398">
         <v>2.3300000000000001E-2</v>
@@ -13324,13 +13321,13 @@
         <v>0.2</v>
       </c>
       <c r="L398" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N398" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O398" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q398">
         <v>0</v>
@@ -13341,13 +13338,13 @@
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B399">
         <v>0.04</v>
       </c>
       <c r="C399" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -13368,13 +13365,13 @@
         <v>0.2004993765576342</v>
       </c>
       <c r="L399" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="N399" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O399" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q399">
         <v>0</v>
@@ -13412,13 +13409,13 @@
         <v>0.89442719099991586</v>
       </c>
       <c r="L400" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N400" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O400" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Q400">
         <v>0</v>
@@ -13456,13 +13453,13 @@
         <v>0.2</v>
       </c>
       <c r="L401" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="N401" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O401" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Q401">
         <v>0</v>
@@ -13560,13 +13557,13 @@
         <v>0.2004993765576342</v>
       </c>
       <c r="L405" t="s">
+        <v>380</v>
+      </c>
+      <c r="N405" t="s">
         <v>381</v>
       </c>
-      <c r="N405" t="s">
+      <c r="O405" t="s">
         <v>382</v>
-      </c>
-      <c r="O405" t="s">
-        <v>383</v>
       </c>
       <c r="Q405">
         <v>0</v>
@@ -13604,13 +13601,13 @@
         <v>0.2004993765576342</v>
       </c>
       <c r="L406" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N406" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O406" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Q406">
         <v>0</v>
@@ -13708,13 +13705,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L410" t="s">
+        <v>480</v>
+      </c>
+      <c r="N410" t="s">
+        <v>568</v>
+      </c>
+      <c r="O410" t="s">
         <v>482</v>
-      </c>
-      <c r="N410" t="s">
-        <v>570</v>
-      </c>
-      <c r="O410" t="s">
-        <v>484</v>
       </c>
       <c r="Q410">
         <v>0</v>
@@ -13752,13 +13749,13 @@
         <v>0.2</v>
       </c>
       <c r="L411" t="s">
+        <v>483</v>
+      </c>
+      <c r="N411" t="s">
+        <v>568</v>
+      </c>
+      <c r="O411" t="s">
         <v>485</v>
-      </c>
-      <c r="N411" t="s">
-        <v>570</v>
-      </c>
-      <c r="O411" t="s">
-        <v>487</v>
       </c>
       <c r="Q411">
         <v>0</v>
@@ -13778,7 +13775,7 @@
         <v>115</v>
       </c>
       <c r="D412" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E412" t="s">
         <v>7</v>
@@ -13796,13 +13793,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L412" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="N412" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O412" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Q412">
         <v>0</v>
@@ -13822,7 +13819,7 @@
         <v>115</v>
       </c>
       <c r="D413" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E413" t="s">
         <v>7</v>
@@ -13840,13 +13837,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L413" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="N413" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O413" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Q413">
         <v>0</v>
@@ -13884,13 +13881,13 @@
         <v>0.2</v>
       </c>
       <c r="L414" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="N414" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O414" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q414">
         <v>0</v>
@@ -13901,7 +13898,7 @@
     </row>
     <row r="415" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B415">
         <v>2.1600000000000001E-2</v>
@@ -13928,13 +13925,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L415" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N415" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O415" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Q415">
         <v>0</v>
@@ -13954,7 +13951,7 @@
         <v>111</v>
       </c>
       <c r="D416" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E416" t="s">
         <v>7</v>
@@ -13972,13 +13969,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L416" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N416" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O416" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q416">
         <v>0</v>
@@ -13998,7 +13995,7 @@
         <v>111</v>
       </c>
       <c r="D417" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E417" t="s">
         <v>7</v>
@@ -14016,13 +14013,13 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L417" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N417" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O417" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Q417">
         <v>0</v>
@@ -14064,7 +14061,7 @@
         <v>1</v>
       </c>
       <c r="B421" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="422" spans="1:19" x14ac:dyDescent="0.2">
@@ -14104,7 +14101,7 @@
         <v>213</v>
       </c>
       <c r="B426" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.2">
@@ -14135,22 +14132,22 @@
         <v>11</v>
       </c>
       <c r="H428" t="s">
+        <v>242</v>
+      </c>
+      <c r="I428" t="s">
         <v>243</v>
       </c>
-      <c r="I428" t="s">
+      <c r="J428" t="s">
         <v>244</v>
       </c>
-      <c r="J428" t="s">
+      <c r="K428" t="s">
         <v>245</v>
-      </c>
-      <c r="K428" t="s">
-        <v>246</v>
       </c>
       <c r="L428" t="s">
         <v>1</v>
       </c>
       <c r="M428" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="429" spans="1:19" x14ac:dyDescent="0.2">
@@ -14196,7 +14193,7 @@
         <v>0.20976176963403029</v>
       </c>
       <c r="L430" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M430">
         <v>0.2</v>
@@ -14204,7 +14201,7 @@
     </row>
     <row r="431" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B431">
         <v>1.77E-5</v>
@@ -14228,7 +14225,7 @@
         <v>0.45607017003965522</v>
       </c>
       <c r="L431" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M431">
         <v>0.2</v>
@@ -14236,7 +14233,7 @@
     </row>
     <row r="432" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B432">
         <v>2.3699999999999999E-4</v>
@@ -14260,7 +14257,7 @@
         <v>0.45607017003965522</v>
       </c>
       <c r="L432" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M432">
         <v>0.2</v>
@@ -14268,7 +14265,7 @@
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B433">
         <v>9.5699999999999995E-5</v>
@@ -14292,7 +14289,7 @@
         <v>0.45607017003965522</v>
       </c>
       <c r="L433" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M433">
         <v>0.2</v>
@@ -14300,7 +14297,7 @@
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B434">
         <v>0.25</v>
@@ -14332,7 +14329,7 @@
         <v>20</v>
       </c>
       <c r="H435" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I435">
         <v>2</v>
@@ -14344,7 +14341,7 @@
         <v>0.20976176963403029</v>
       </c>
       <c r="L435" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M435">
         <v>0.2</v>
@@ -14367,7 +14364,7 @@
         <v>20</v>
       </c>
       <c r="H436" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I436">
         <v>2</v>
@@ -14379,7 +14376,7 @@
         <v>0.20976176963403029</v>
       </c>
       <c r="L436" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M436">
         <v>0.2</v>
@@ -14419,7 +14416,7 @@
         <v>20</v>
       </c>
       <c r="H438" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I438">
         <v>2</v>
@@ -14431,7 +14428,7 @@
         <v>0.36058979464205582</v>
       </c>
       <c r="L438" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M438">
         <v>0.2</v>
@@ -14454,7 +14451,7 @@
         <v>20</v>
       </c>
       <c r="H439" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I439">
         <v>2</v>
@@ -14466,7 +14463,7 @@
         <v>0.36058979464205582</v>
       </c>
       <c r="L439" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M439">
         <v>0.2</v>
@@ -14474,7 +14471,7 @@
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B440">
         <v>4.5859999999999998E-5</v>
@@ -14489,7 +14486,7 @@
         <v>20</v>
       </c>
       <c r="H440" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I440">
         <v>2</v>
@@ -14501,7 +14498,7 @@
         <v>0.45607017003965522</v>
       </c>
       <c r="L440" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M440">
         <v>0.2</v>
@@ -14535,7 +14532,7 @@
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B442">
         <v>-0.46</v>
@@ -14582,7 +14579,7 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L443" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M443">
         <v>0.54772255750516607</v>
@@ -14617,7 +14614,7 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L444" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M444">
         <v>0.54772255750516607</v>
@@ -14652,7 +14649,7 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L445" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="M445">
         <v>2.4494897427831779E-2</v>
@@ -14707,7 +14704,7 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L447" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M447">
         <v>0.54772255750516607</v>
@@ -14742,7 +14739,7 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L448" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M448">
         <v>0.54772255750516607</v>
@@ -14750,13 +14747,13 @@
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B449">
         <v>6.2700000000000006E-2</v>
       </c>
       <c r="C449" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D449" t="s">
         <v>14</v>
@@ -14777,7 +14774,7 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L449" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="M449">
         <v>2.4494897427831779E-2</v>
@@ -14812,7 +14809,7 @@
         <v>0.29664793948382651</v>
       </c>
       <c r="L450" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M450">
         <v>0.2</v>
@@ -14820,7 +14817,7 @@
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B451">
         <v>1.54E-2</v>
@@ -14847,7 +14844,7 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L451" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="M451">
         <v>2.4494897427831779E-2</v>
@@ -14866,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="B454" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.2">
@@ -14898,7 +14895,7 @@
         <v>213</v>
       </c>
       <c r="B458" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.2">
@@ -14929,25 +14926,25 @@
         <v>11</v>
       </c>
       <c r="H460" t="s">
+        <v>242</v>
+      </c>
+      <c r="I460" t="s">
         <v>243</v>
       </c>
-      <c r="I460" t="s">
+      <c r="J460" t="s">
         <v>244</v>
       </c>
-      <c r="J460" t="s">
+      <c r="K460" t="s">
         <v>245</v>
-      </c>
-      <c r="K460" t="s">
-        <v>246</v>
       </c>
       <c r="L460" t="s">
         <v>1</v>
       </c>
       <c r="M460" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N460" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.2">
@@ -14967,7 +14964,7 @@
         <v>20</v>
       </c>
       <c r="H461" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I461">
         <v>2</v>
@@ -14979,7 +14976,7 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L461" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M461">
         <v>1.55606191968828E-5</v>
@@ -15005,7 +15002,7 @@
         <v>20</v>
       </c>
       <c r="H462" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I462">
         <v>2</v>
@@ -15017,7 +15014,7 @@
         <v>0.35608987629529709</v>
       </c>
       <c r="L462" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M462">
         <v>8.4863684140488602E-7</v>
@@ -15043,7 +15040,7 @@
         <v>20</v>
       </c>
       <c r="H463" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I463">
         <v>2</v>
@@ -15055,7 +15052,7 @@
         <v>0.3541186241925155</v>
       </c>
       <c r="L463" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M463">
         <v>6.4229257012328897E-9</v>
@@ -15066,7 +15063,7 @@
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B464">
         <v>3.6500000000000003E-8</v>
@@ -15081,7 +15078,7 @@
         <v>20</v>
       </c>
       <c r="H464" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I464">
         <v>2</v>
@@ -15093,7 +15090,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L464" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M464">
         <v>1.91118207484922E-8</v>
@@ -15119,7 +15116,7 @@
         <v>20</v>
       </c>
       <c r="H465" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I465">
         <v>2</v>
@@ -15131,7 +15128,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L465" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M465">
         <v>9.2654649732402505E-4</v>
@@ -15157,7 +15154,7 @@
         <v>20</v>
       </c>
       <c r="H466" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I466">
         <v>2</v>
@@ -15169,7 +15166,7 @@
         <v>0.21587033144922901</v>
       </c>
       <c r="L466" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M466">
         <v>7.17664459147306E-5</v>
@@ -15180,7 +15177,7 @@
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B467">
         <v>1.2500000000000001E-6</v>
@@ -15195,7 +15192,7 @@
         <v>20</v>
       </c>
       <c r="H467" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I467">
         <v>2</v>
@@ -15207,7 +15204,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L467" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M467">
         <v>4.7308045462582802E-7</v>
@@ -15233,7 +15230,7 @@
         <v>20</v>
       </c>
       <c r="H468" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I468">
         <v>2</v>
@@ -15245,7 +15242,7 @@
         <v>0.21587033144922901</v>
       </c>
       <c r="L468" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M468">
         <v>7.55436126385394E-8</v>
@@ -15256,7 +15253,7 @@
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B469">
         <v>2.3099999999999999E-7</v>
@@ -15271,7 +15268,7 @@
         <v>20</v>
       </c>
       <c r="H469" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I469">
         <v>2</v>
@@ -15283,7 +15280,7 @@
         <v>0.81154174261093925</v>
       </c>
       <c r="L469" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M469">
         <v>1.10953178654857E-7</v>
@@ -15309,7 +15306,7 @@
         <v>20</v>
       </c>
       <c r="H470" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I470">
         <v>2</v>
@@ -15321,7 +15318,7 @@
         <v>0.55389529696504913</v>
       </c>
       <c r="L470" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M470">
         <v>1.5630125721248699E-12</v>
@@ -15356,7 +15353,7 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L471" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N471">
         <v>0.2</v>
@@ -15364,7 +15361,7 @@
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B472">
         <v>5.2000000000000002E-6</v>
@@ -15379,7 +15376,7 @@
         <v>20</v>
       </c>
       <c r="H472" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I472">
         <v>2</v>
@@ -15391,7 +15388,7 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L472" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M472">
         <v>4.7174811009129099E-6</v>
@@ -15417,7 +15414,7 @@
         <v>20</v>
       </c>
       <c r="H473" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I473">
         <v>2</v>
@@ -15429,7 +15426,7 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L473" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M473">
         <v>6.6876972018751299E-7</v>
@@ -15440,7 +15437,7 @@
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B474">
         <v>1.81E-6</v>
@@ -15455,7 +15452,7 @@
         <v>20</v>
       </c>
       <c r="H474" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I474">
         <v>2</v>
@@ -15467,7 +15464,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L474" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M474">
         <v>7.9732840401622596E-7</v>
@@ -15478,7 +15475,7 @@
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B475">
         <v>2.2400000000000002E-6</v>
@@ -15493,7 +15490,7 @@
         <v>20</v>
       </c>
       <c r="H475" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I475">
         <v>2</v>
@@ -15505,7 +15502,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L475" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M475">
         <v>6.2426905715800202E-7</v>
@@ -15516,7 +15513,7 @@
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B476">
         <v>7.0100000000000004E-7</v>
@@ -15531,7 +15528,7 @@
         <v>20</v>
       </c>
       <c r="H476" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I476">
         <v>2</v>
@@ -15543,7 +15540,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L476" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M476">
         <v>2.43482893582134E-7</v>
@@ -15569,7 +15566,7 @@
         <v>20</v>
       </c>
       <c r="H477" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I477">
         <v>2</v>
@@ -15581,7 +15578,7 @@
         <v>0.2163330765278394</v>
       </c>
       <c r="L477" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M477">
         <v>1.01936932435993E-4</v>
@@ -15616,7 +15613,7 @@
         <v>0.55425625842204074</v>
       </c>
       <c r="L478" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N478">
         <v>0.54772255750516607</v>
@@ -15624,7 +15621,7 @@
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B479">
         <v>1.7000000000000001E-4</v>
@@ -15648,7 +15645,7 @@
         <v>0.55389529696504913</v>
       </c>
       <c r="L479" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N479">
         <v>0.54772255750516607</v>
@@ -15656,7 +15653,7 @@
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B480">
         <v>5.8600000000000001E-5</v>
@@ -15680,7 +15677,7 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L480" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N480">
         <v>0.2</v>
@@ -15688,7 +15685,7 @@
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B481">
         <v>1.7000000000000001E-4</v>
@@ -15712,7 +15709,7 @@
         <v>0.35608987629529709</v>
       </c>
       <c r="L481" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N481">
         <v>0.34641016151377552</v>
@@ -15720,7 +15717,7 @@
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B482">
         <v>1.7000000000000001E-4</v>
@@ -15761,7 +15758,7 @@
         <v>0.552630075185924</v>
       </c>
       <c r="L483" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N483">
         <v>0.54772255750516607</v>
@@ -15784,7 +15781,7 @@
         <v>20</v>
       </c>
       <c r="H484" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I484">
         <v>2</v>
@@ -15796,7 +15793,7 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L484" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M484">
         <v>5.2058060269292197E-5</v>
@@ -15822,7 +15819,7 @@
         <v>20</v>
       </c>
       <c r="H485" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I485">
         <v>2</v>
@@ -15834,7 +15831,7 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L485" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M485">
         <v>1.47176176815489E-3</v>
@@ -15860,7 +15857,7 @@
         <v>20</v>
       </c>
       <c r="H486" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I486">
         <v>2</v>
@@ -15872,7 +15869,7 @@
         <v>0.20712315177207979</v>
       </c>
       <c r="L486" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M486">
         <v>8.8716527537463005E-3</v>
@@ -15907,7 +15904,7 @@
         <v>7.6157731058639086E-2</v>
       </c>
       <c r="L487" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N487">
         <v>2.4494897427831779E-2</v>
@@ -15932,7 +15929,7 @@
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B489">
         <v>2.2900000000000001E-5</v>
@@ -15947,7 +15944,7 @@
         <v>20</v>
       </c>
       <c r="H489" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I489">
         <v>2</v>
@@ -15959,7 +15956,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L489" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M489">
         <v>7.8463778271888698E-6</v>
@@ -16043,7 +16040,7 @@
         <v>8.4852813742385708E-2</v>
       </c>
       <c r="L492" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N492">
         <v>2.4494897427831779E-2</v>
@@ -16078,7 +16075,7 @@
         <v>7.3484692283495343E-2</v>
       </c>
       <c r="L493" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N493">
         <v>2.4494897427831779E-2</v>
@@ -16113,7 +16110,7 @@
         <v>7.7459666924148338E-2</v>
       </c>
       <c r="L494" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N494">
         <v>2.4494897427831779E-2</v>
@@ -16148,7 +16145,7 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L495" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N495">
         <v>2.4494897427831779E-2</v>
@@ -16183,7 +16180,7 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L496" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N496">
         <v>0</v>
@@ -16218,7 +16215,7 @@
         <v>0.71414284285428498</v>
       </c>
       <c r="L497" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N497">
         <v>0.54772255750516607</v>
@@ -16226,13 +16223,13 @@
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B498">
         <v>-4.9799999999999997E-2</v>
       </c>
       <c r="C498" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D498" t="s">
         <v>14</v>
@@ -16253,7 +16250,7 @@
         <v>0.08</v>
       </c>
       <c r="L498" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N498">
         <v>2.4494897427831779E-2</v>
@@ -16288,7 +16285,7 @@
         <v>8.8317608663278466E-2</v>
       </c>
       <c r="L499" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N499">
         <v>2.4494897427831779E-2</v>
@@ -16363,7 +16360,7 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L502" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N502">
         <v>0</v>
@@ -16398,7 +16395,7 @@
         <v>8.4852813742385708E-2</v>
       </c>
       <c r="L503" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N503">
         <v>2.4494897427831779E-2</v>
@@ -16433,7 +16430,7 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L504" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N504">
         <v>2.4494897427831779E-2</v>
@@ -16468,7 +16465,7 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L505" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N505">
         <v>2.4494897427831779E-2</v>
@@ -16543,7 +16540,7 @@
         <v>8.8317608663278466E-2</v>
       </c>
       <c r="L508" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N508">
         <v>2.4494897427831779E-2</v>
@@ -16578,7 +16575,7 @@
         <v>5.2915026221291808E-2</v>
       </c>
       <c r="L509" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N509">
         <v>2.4494897427831779E-2</v>
@@ -16613,7 +16610,7 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L510" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N510">
         <v>2.4494897427831779E-2</v>
@@ -16668,7 +16665,7 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L512" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N512">
         <v>2.4494897427831779E-2</v>
@@ -16703,7 +16700,7 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L513" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N513">
         <v>2.4494897427831779E-2</v>
@@ -16738,7 +16735,7 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L514" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N514">
         <v>0</v>
@@ -16773,7 +16770,7 @@
         <v>7.3484692283495343E-2</v>
       </c>
       <c r="L515" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N515">
         <v>2.4494897427831779E-2</v>
@@ -16828,7 +16825,7 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L517" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N517">
         <v>2.4494897427831779E-2</v>
@@ -16836,7 +16833,7 @@
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B518">
         <v>-9.5999999999999992E-3</v>
@@ -16845,7 +16842,7 @@
         <v>135</v>
       </c>
       <c r="D518" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E518" t="s">
         <v>7</v>

--- a/premise/data/additional_inventories/lci-vanadium.xlsx
+++ b/premise/data/additional_inventories/lci-vanadium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845C23C9-2744-8A4F-AD53-54EFF218ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE062C8-99FE-4F0C-A8C3-EB52B418E2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="623">
   <si>
     <t>Activity</t>
   </si>
@@ -1907,9 +1907,6 @@
     <t>Estimate, based on "limestone quarry operation" and "limestone production, crushed, for mill" datasets.</t>
   </si>
   <si>
-    <t>TiO2, 54% in ilmenite, 18% in crude ore</t>
-  </si>
-  <si>
     <t>CORINE 31</t>
   </si>
   <si>
@@ -2017,6 +2014,12 @@
   </si>
   <si>
     <t>market for nitrogen, liquid</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Titanium</t>
   </si>
 </sst>
 </file>
@@ -2097,8 +2100,8 @@
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
     <cellStyle name="Per cent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2378,34 +2381,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36E651A-1BBF-4B98-A20A-7DDAE3546228}">
   <dimension ref="A1:S518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="F424" sqref="F424"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B2" t="s">
         <v>614</v>
       </c>
-      <c r="B2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2437,7 +2440,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>213</v>
       </c>
@@ -2461,12 +2464,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>231</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2574,7 +2577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>220</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>190</v>
       </c>
@@ -2614,7 +2617,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>169</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>192</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>190</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>233</v>
       </c>
@@ -2754,7 +2757,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>194</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>235</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>199</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>236</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>219</v>
       </c>
@@ -2874,7 +2877,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2882,15 +2885,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -2930,12 +2933,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>258</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>261</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>266</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>269</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>271</v>
       </c>
@@ -3319,7 +3322,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>274</v>
       </c>
@@ -3360,7 +3363,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>280</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>237</v>
       </c>
@@ -3594,9 +3597,9 @@
         <v>1137179252766.3799</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B58">
         <v>-1.9900000000000001E-2</v>
@@ -3614,7 +3617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>188</v>
       </c>
@@ -3634,7 +3637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>289</v>
       </c>
@@ -3678,7 +3681,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>289</v>
       </c>
@@ -3722,7 +3725,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>296</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>301</v>
       </c>
@@ -3810,7 +3813,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>304</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>308</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>0.53851648071345037</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>312</v>
       </c>
@@ -3942,7 +3945,7 @@
         <v>7.7459666924148338E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>167</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -4030,7 +4033,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>321</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>148</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -4162,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>192</v>
       </c>
@@ -4182,7 +4185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -4222,7 +4225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>330</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>334</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>215</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4317,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -4322,7 +4325,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>213</v>
       </c>
@@ -4354,12 +4357,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -4418,7 +4421,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -4456,7 +4459,7 @@
         <v>0.36055512754639901</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>152</v>
       </c>
@@ -4494,7 +4497,7 @@
         <v>0.36055512754639901</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>340</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>0.81240384046359604</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>0.81240384046359604</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>258</v>
       </c>
@@ -4608,7 +4611,7 @@
         <v>0.81240384046359604</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>261</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>0.81240384046359604</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>0.55677643628300222</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>153</v>
       </c>
@@ -4719,7 +4722,7 @@
         <v>0.22360679774997899</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>344</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>0.22360679774997899</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>0.22360679774997899</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>271</v>
       </c>
@@ -4833,7 +4836,7 @@
         <v>0.81240384046359604</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>349</v>
       </c>
@@ -4871,7 +4874,7 @@
         <v>0.81240384046359604</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>352</v>
       </c>
@@ -4909,7 +4912,7 @@
         <v>0.81240384046359604</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -4947,7 +4950,7 @@
         <v>0.22360679774997899</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>125</v>
       </c>
@@ -4982,7 +4985,7 @@
         <v>0.55677643628300222</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>280</v>
       </c>
@@ -5017,7 +5020,7 @@
         <v>0.55677643628300222</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>355</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>0.22360679774997899</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>357</v>
       </c>
@@ -5087,7 +5090,7 @@
         <v>0.36055512754639901</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>154</v>
       </c>
@@ -5122,7 +5125,7 @@
         <v>0.55677643628300222</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>128</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -5201,7 +5204,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -5242,7 +5245,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>155</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>365</v>
       </c>
@@ -5321,7 +5324,7 @@
         <v>0.81240384046359604</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>132</v>
       </c>
@@ -5359,7 +5362,7 @@
         <v>66239548000</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>142</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>143</v>
       </c>
@@ -5447,7 +5450,7 @@
         <v>0.53851648071345037</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>144</v>
       </c>
@@ -5491,7 +5494,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>145</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -5555,7 +5558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>100</v>
       </c>
@@ -5599,7 +5602,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>146</v>
       </c>
@@ -5643,7 +5646,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>383</v>
       </c>
@@ -5687,7 +5690,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>147</v>
       </c>
@@ -5731,7 +5734,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>148</v>
       </c>
@@ -5775,7 +5778,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>149</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>150</v>
       </c>
@@ -5863,7 +5866,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>216</v>
       </c>
@@ -5883,7 +5886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -5891,15 +5894,15 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -5907,7 +5910,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -5915,7 +5918,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -5923,7 +5926,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -5931,7 +5934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>213</v>
       </c>
@@ -5939,12 +5942,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -5964,7 +5967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>220</v>
       </c>
@@ -5984,7 +5987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>237</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="140" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -6045,7 +6048,7 @@
       <c r="R140"/>
       <c r="S140"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -6061,7 +6064,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -6069,7 +6072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>213</v>
       </c>
@@ -6077,12 +6080,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -6102,7 +6105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>392</v>
       </c>
@@ -6122,7 +6125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>220</v>
       </c>
@@ -6142,7 +6145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>220</v>
       </c>
@@ -6162,7 +6165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -6170,7 +6173,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -6186,7 +6189,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -6202,7 +6205,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -6210,7 +6213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>213</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>8</v>
       </c>
@@ -6241,7 +6244,7 @@
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>397</v>
       </c>
@@ -6281,7 +6284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -6298,7 +6301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>266</v>
       </c>
@@ -6315,7 +6318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -6349,7 +6352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>394</v>
       </c>
@@ -6369,7 +6372,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>392</v>
       </c>
@@ -6389,9 +6392,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B167">
         <v>0.04</v>
@@ -6409,7 +6412,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>399</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>401</v>
       </c>
@@ -6449,7 +6452,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>403</v>
       </c>
@@ -6469,7 +6472,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>233</v>
       </c>
@@ -6489,7 +6492,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>334</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>235</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>405</v>
       </c>
@@ -6549,7 +6552,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>200</v>
       </c>
@@ -6569,7 +6572,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>0</v>
       </c>
@@ -6577,7 +6580,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -6593,7 +6596,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -6601,7 +6604,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -6609,7 +6612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>213</v>
       </c>
@@ -6617,12 +6620,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -6681,7 +6684,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>410</v>
       </c>
@@ -6722,7 +6725,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>340</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>19</v>
       </c>
@@ -6804,7 +6807,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>116</v>
       </c>
@@ -6845,7 +6848,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>258</v>
       </c>
@@ -6886,7 +6889,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>422</v>
       </c>
@@ -6927,7 +6930,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>261</v>
       </c>
@@ -6968,7 +6971,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>117</v>
       </c>
@@ -7009,7 +7012,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>344</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>121</v>
       </c>
@@ -7091,7 +7094,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>269</v>
       </c>
@@ -7132,7 +7135,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>271</v>
       </c>
@@ -7173,7 +7176,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>274</v>
       </c>
@@ -7214,7 +7217,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>349</v>
       </c>
@@ -7255,7 +7258,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>349</v>
       </c>
@@ -7296,7 +7299,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>122</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>441</v>
       </c>
@@ -7375,7 +7378,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>352</v>
       </c>
@@ -7416,7 +7419,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>123</v>
       </c>
@@ -7457,7 +7460,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>26</v>
       </c>
@@ -7498,7 +7501,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>280</v>
       </c>
@@ -7536,7 +7539,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>355</v>
       </c>
@@ -7574,7 +7577,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>357</v>
       </c>
@@ -7612,7 +7615,7 @@
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>126</v>
       </c>
@@ -7653,7 +7656,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>455</v>
       </c>
@@ -7694,7 +7697,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>128</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>129</v>
       </c>
@@ -7773,7 +7776,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -7814,7 +7817,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -7855,7 +7858,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>365</v>
       </c>
@@ -7896,7 +7899,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>407</v>
       </c>
@@ -7934,7 +7937,7 @@
         <v>10100000000</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>102</v>
       </c>
@@ -7978,7 +7981,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>467</v>
       </c>
@@ -8022,7 +8025,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>472</v>
       </c>
@@ -8042,7 +8045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>94</v>
       </c>
@@ -8086,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>112</v>
       </c>
@@ -8130,7 +8133,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>96</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>98</v>
       </c>
@@ -8218,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>114</v>
       </c>
@@ -8262,7 +8265,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>489</v>
       </c>
@@ -8282,7 +8285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>490</v>
       </c>
@@ -8326,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>110</v>
       </c>
@@ -8370,7 +8373,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>497</v>
       </c>
@@ -8390,7 +8393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>0</v>
       </c>
@@ -8398,7 +8401,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1</v>
       </c>
@@ -8406,7 +8409,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>2</v>
       </c>
@@ -8414,7 +8417,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -8422,7 +8425,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -8430,7 +8433,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -8438,7 +8441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>213</v>
       </c>
@@ -8446,12 +8449,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -8510,7 +8513,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>410</v>
       </c>
@@ -8551,7 +8554,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>504</v>
       </c>
@@ -8592,7 +8595,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>340</v>
       </c>
@@ -8633,7 +8636,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -8674,7 +8677,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>116</v>
       </c>
@@ -8715,7 +8718,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>258</v>
       </c>
@@ -8756,7 +8759,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -8797,7 +8800,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>118</v>
       </c>
@@ -8838,7 +8841,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>344</v>
       </c>
@@ -8879,7 +8882,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>121</v>
       </c>
@@ -8920,7 +8923,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>271</v>
       </c>
@@ -8961,7 +8964,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>274</v>
       </c>
@@ -9002,7 +9005,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>349</v>
       </c>
@@ -9043,7 +9046,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>122</v>
       </c>
@@ -9084,7 +9087,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>441</v>
       </c>
@@ -9122,7 +9125,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>352</v>
       </c>
@@ -9163,7 +9166,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>26</v>
       </c>
@@ -9204,7 +9207,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>201</v>
       </c>
@@ -9245,7 +9248,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>125</v>
       </c>
@@ -9283,7 +9286,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>280</v>
       </c>
@@ -9315,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>355</v>
       </c>
@@ -9353,7 +9356,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>357</v>
       </c>
@@ -9391,7 +9394,7 @@
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>154</v>
       </c>
@@ -9429,7 +9432,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>515</v>
       </c>
@@ -9470,7 +9473,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>128</v>
       </c>
@@ -9511,7 +9514,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>518</v>
       </c>
@@ -9552,7 +9555,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>521</v>
       </c>
@@ -9593,7 +9596,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>84</v>
       </c>
@@ -9634,7 +9637,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>499</v>
       </c>
@@ -9669,7 +9672,7 @@
         <v>113558550000</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>527</v>
       </c>
@@ -9689,7 +9692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>529</v>
       </c>
@@ -9709,7 +9712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>102</v>
       </c>
@@ -9753,7 +9756,7 @@
         <v>0.7745966692414834</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>100</v>
       </c>
@@ -9773,7 +9776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>531</v>
       </c>
@@ -9793,7 +9796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>149</v>
       </c>
@@ -9813,7 +9816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>330</v>
       </c>
@@ -9857,7 +9860,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>330</v>
       </c>
@@ -9901,7 +9904,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>334</v>
       </c>
@@ -9921,7 +9924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>536</v>
       </c>
@@ -9941,7 +9944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>497</v>
       </c>
@@ -9961,7 +9964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>0</v>
       </c>
@@ -9969,7 +9972,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -9977,7 +9980,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -9985,7 +9988,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -9993,7 +9996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -10001,7 +10004,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -10009,7 +10012,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -10017,7 +10020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>213</v>
       </c>
@@ -10025,12 +10028,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -10053,7 +10056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>266</v>
       </c>
@@ -10070,7 +10073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>441</v>
       </c>
@@ -10087,7 +10090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>155</v>
       </c>
@@ -10104,7 +10107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>538</v>
       </c>
@@ -10124,7 +10127,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>540</v>
       </c>
@@ -10144,7 +10147,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>542</v>
       </c>
@@ -10164,7 +10167,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>544</v>
       </c>
@@ -10184,7 +10187,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>546</v>
       </c>
@@ -10204,7 +10207,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>548</v>
       </c>
@@ -10224,7 +10227,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>194</v>
       </c>
@@ -10244,7 +10247,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>334</v>
       </c>
@@ -10264,7 +10267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>550</v>
       </c>
@@ -10284,7 +10287,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>551</v>
       </c>
@@ -10304,7 +10307,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>0</v>
       </c>
@@ -10312,15 +10315,15 @@
         <v>215</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1</v>
       </c>
       <c r="B305" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>2</v>
       </c>
@@ -10328,7 +10331,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -10336,7 +10339,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -10344,7 +10347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>213</v>
       </c>
@@ -10352,12 +10355,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -10398,7 +10401,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>19</v>
       </c>
@@ -10433,7 +10436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>116</v>
       </c>
@@ -10468,7 +10471,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>118</v>
       </c>
@@ -10503,7 +10506,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>554</v>
       </c>
@@ -10538,7 +10541,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>271</v>
       </c>
@@ -10573,7 +10576,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>274</v>
       </c>
@@ -10608,7 +10611,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>352</v>
       </c>
@@ -10643,7 +10646,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>26</v>
       </c>
@@ -10678,7 +10681,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>280</v>
       </c>
@@ -10710,7 +10713,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>355</v>
       </c>
@@ -10742,7 +10745,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>357</v>
       </c>
@@ -10774,7 +10777,7 @@
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>128</v>
       </c>
@@ -10809,7 +10812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>21</v>
       </c>
@@ -10844,7 +10847,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>21</v>
       </c>
@@ -10879,7 +10882,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>155</v>
       </c>
@@ -10914,7 +10917,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>84</v>
       </c>
@@ -10949,7 +10952,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>215</v>
       </c>
@@ -10975,9 +10978,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B329">
         <v>-0.65</v>
@@ -11010,7 +11013,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>527</v>
       </c>
@@ -11030,7 +11033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>559</v>
       </c>
@@ -11050,7 +11053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>407</v>
       </c>
@@ -11070,7 +11073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>499</v>
       </c>
@@ -11090,7 +11093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>560</v>
       </c>
@@ -11125,7 +11128,7 @@
         <v>0.53851648071345037</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>100</v>
       </c>
@@ -11160,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>146</v>
       </c>
@@ -11195,7 +11198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>562</v>
       </c>
@@ -11215,7 +11218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>564</v>
       </c>
@@ -11235,7 +11238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>565</v>
       </c>
@@ -11270,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>330</v>
       </c>
@@ -11305,7 +11308,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>0</v>
       </c>
@@ -11313,7 +11316,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1</v>
       </c>
@@ -11321,7 +11324,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>2</v>
       </c>
@@ -11329,7 +11332,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>5</v>
       </c>
@@ -11337,7 +11340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>6</v>
       </c>
@@ -11345,7 +11348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>213</v>
       </c>
@@ -11353,12 +11356,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -11417,7 +11420,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>410</v>
       </c>
@@ -11458,7 +11461,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>340</v>
       </c>
@@ -11496,7 +11499,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>340</v>
       </c>
@@ -11537,7 +11540,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>19</v>
       </c>
@@ -11575,7 +11578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>116</v>
       </c>
@@ -11613,7 +11616,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>258</v>
       </c>
@@ -11651,7 +11654,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>258</v>
       </c>
@@ -11692,7 +11695,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>422</v>
       </c>
@@ -11733,7 +11736,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>261</v>
       </c>
@@ -11771,7 +11774,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>261</v>
       </c>
@@ -11812,7 +11815,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>117</v>
       </c>
@@ -11853,7 +11856,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>118</v>
       </c>
@@ -11891,7 +11894,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>119</v>
       </c>
@@ -11926,7 +11929,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>344</v>
       </c>
@@ -11964,7 +11967,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>121</v>
       </c>
@@ -12002,7 +12005,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>121</v>
       </c>
@@ -12043,7 +12046,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>269</v>
       </c>
@@ -12084,7 +12087,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>271</v>
       </c>
@@ -12122,7 +12125,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>271</v>
       </c>
@@ -12163,7 +12166,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>274</v>
       </c>
@@ -12204,7 +12207,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>274</v>
       </c>
@@ -12242,7 +12245,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>349</v>
       </c>
@@ -12283,7 +12286,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>349</v>
       </c>
@@ -12321,7 +12324,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>349</v>
       </c>
@@ -12362,7 +12365,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>122</v>
       </c>
@@ -12403,7 +12406,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>441</v>
       </c>
@@ -12441,7 +12444,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>352</v>
       </c>
@@ -12479,7 +12482,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>352</v>
       </c>
@@ -12520,7 +12523,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>123</v>
       </c>
@@ -12561,7 +12564,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>26</v>
       </c>
@@ -12599,7 +12602,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>26</v>
       </c>
@@ -12640,7 +12643,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>125</v>
       </c>
@@ -12675,7 +12678,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>280</v>
       </c>
@@ -12710,7 +12713,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>280</v>
       </c>
@@ -12748,7 +12751,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>355</v>
       </c>
@@ -12786,7 +12789,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>357</v>
       </c>
@@ -12824,7 +12827,7 @@
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>126</v>
       </c>
@@ -12865,7 +12868,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>455</v>
       </c>
@@ -12906,7 +12909,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>128</v>
       </c>
@@ -12944,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>128</v>
       </c>
@@ -12985,7 +12988,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>129</v>
       </c>
@@ -13023,7 +13026,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>521</v>
       </c>
@@ -13061,7 +13064,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>21</v>
       </c>
@@ -13096,7 +13099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>21</v>
       </c>
@@ -13137,7 +13140,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>84</v>
       </c>
@@ -13175,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>365</v>
       </c>
@@ -13213,7 +13216,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>365</v>
       </c>
@@ -13254,7 +13257,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>216</v>
       </c>
@@ -13292,7 +13295,7 @@
         <v>473333424000</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>571</v>
       </c>
@@ -13336,7 +13339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>574</v>
       </c>
@@ -13380,7 +13383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>102</v>
       </c>
@@ -13424,7 +13427,7 @@
         <v>0.76811457478686085</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>92</v>
       </c>
@@ -13468,7 +13471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>87</v>
       </c>
@@ -13488,7 +13491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>62</v>
       </c>
@@ -13508,7 +13511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>29</v>
       </c>
@@ -13528,7 +13531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>100</v>
       </c>
@@ -13572,7 +13575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>104</v>
       </c>
@@ -13616,7 +13619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>90</v>
       </c>
@@ -13636,7 +13639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>94</v>
       </c>
@@ -13656,7 +13659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>112</v>
       </c>
@@ -13676,7 +13679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>96</v>
       </c>
@@ -13720,7 +13723,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>98</v>
       </c>
@@ -13764,7 +13767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>114</v>
       </c>
@@ -13808,7 +13811,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>114</v>
       </c>
@@ -13852,7 +13855,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>88</v>
       </c>
@@ -13896,7 +13899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>489</v>
       </c>
@@ -13940,7 +13943,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>110</v>
       </c>
@@ -13984,7 +13987,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>110</v>
       </c>
@@ -14028,7 +14031,7 @@
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>215</v>
       </c>
@@ -14048,7 +14051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>0</v>
       </c>
@@ -14056,7 +14059,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1</v>
       </c>
@@ -14064,7 +14067,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>2</v>
       </c>
@@ -14072,7 +14075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>4</v>
       </c>
@@ -14080,7 +14083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -14088,7 +14091,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>6</v>
       </c>
@@ -14096,7 +14099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>213</v>
       </c>
@@ -14104,12 +14107,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -14150,9 +14153,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>223</v>
+        <v>621</v>
       </c>
       <c r="B429">
         <v>1.08</v>
@@ -14167,7 +14170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>57</v>
       </c>
@@ -14199,7 +14202,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>280</v>
       </c>
@@ -14231,7 +14234,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>355</v>
       </c>
@@ -14263,7 +14266,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>357</v>
       </c>
@@ -14295,9 +14298,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
       <c r="B434">
         <v>0.25</v>
@@ -14312,7 +14315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>83</v>
       </c>
@@ -14329,7 +14332,7 @@
         <v>20</v>
       </c>
       <c r="H435" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I435">
         <v>2</v>
@@ -14341,13 +14344,13 @@
         <v>0.20976176963403029</v>
       </c>
       <c r="L435" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M435">
         <v>0.2</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>58</v>
       </c>
@@ -14364,7 +14367,7 @@
         <v>20</v>
       </c>
       <c r="H436" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I436">
         <v>2</v>
@@ -14376,13 +14379,13 @@
         <v>0.20976176963403029</v>
       </c>
       <c r="L436" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M436">
         <v>0.2</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>222</v>
       </c>
@@ -14399,7 +14402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>21</v>
       </c>
@@ -14434,7 +14437,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>21</v>
       </c>
@@ -14469,9 +14472,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B440">
         <v>4.5859999999999998E-5</v>
@@ -14498,13 +14501,13 @@
         <v>0.45607017003965522</v>
       </c>
       <c r="L440" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M440">
         <v>0.2</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>215</v>
       </c>
@@ -14530,9 +14533,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B442">
         <v>-0.46</v>
@@ -14550,7 +14553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>53</v>
       </c>
@@ -14579,13 +14582,13 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L443" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M443">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>52</v>
       </c>
@@ -14614,13 +14617,13 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L444" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M444">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>75</v>
       </c>
@@ -14649,13 +14652,13 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L445" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M445">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>29</v>
       </c>
@@ -14675,7 +14678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>73</v>
       </c>
@@ -14704,13 +14707,13 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L447" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M447">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>71</v>
       </c>
@@ -14739,21 +14742,21 @@
         <v>0.68410525505948283</v>
       </c>
       <c r="L448" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M448">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B449">
         <v>6.2700000000000006E-2</v>
       </c>
       <c r="C449" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D449" t="s">
         <v>14</v>
@@ -14774,13 +14777,13 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L449" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M449">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>81</v>
       </c>
@@ -14809,13 +14812,13 @@
         <v>0.29664793948382651</v>
       </c>
       <c r="L450" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M450">
         <v>0.2</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>550</v>
       </c>
@@ -14844,13 +14847,13 @@
         <v>0.2275961335348208</v>
       </c>
       <c r="L451" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M451">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>0</v>
       </c>
@@ -14858,15 +14861,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1</v>
       </c>
       <c r="B454" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>2</v>
       </c>
@@ -14874,7 +14877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -14882,7 +14885,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>6</v>
       </c>
@@ -14890,7 +14893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>213</v>
       </c>
@@ -14898,12 +14901,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>9</v>
       </c>
@@ -14941,13 +14944,13 @@
         <v>1</v>
       </c>
       <c r="M460" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N460" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>183</v>
       </c>
@@ -14964,7 +14967,7 @@
         <v>20</v>
       </c>
       <c r="H461" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I461">
         <v>2</v>
@@ -14976,7 +14979,7 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L461" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M461">
         <v>1.55606191968828E-5</v>
@@ -14985,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>151</v>
       </c>
@@ -15014,7 +15017,7 @@
         <v>0.35608987629529709</v>
       </c>
       <c r="L462" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M462">
         <v>8.4863684140488602E-7</v>
@@ -15023,7 +15026,7 @@
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>152</v>
       </c>
@@ -15052,7 +15055,7 @@
         <v>0.3541186241925155</v>
       </c>
       <c r="L463" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M463">
         <v>6.4229257012328897E-9</v>
@@ -15061,7 +15064,7 @@
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>340</v>
       </c>
@@ -15090,7 +15093,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L464" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M464">
         <v>1.91118207484922E-8</v>
@@ -15099,7 +15102,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>116</v>
       </c>
@@ -15128,7 +15131,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L465" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M465">
         <v>9.2654649732402505E-4</v>
@@ -15137,7 +15140,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>184</v>
       </c>
@@ -15154,7 +15157,7 @@
         <v>20</v>
       </c>
       <c r="H466" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I466">
         <v>2</v>
@@ -15166,7 +15169,7 @@
         <v>0.21587033144922901</v>
       </c>
       <c r="L466" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M466">
         <v>7.17664459147306E-5</v>
@@ -15175,7 +15178,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>258</v>
       </c>
@@ -15204,7 +15207,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L467" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M467">
         <v>4.7308045462582802E-7</v>
@@ -15213,7 +15216,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>185</v>
       </c>
@@ -15230,7 +15233,7 @@
         <v>20</v>
       </c>
       <c r="H468" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I468">
         <v>2</v>
@@ -15242,7 +15245,7 @@
         <v>0.21587033144922901</v>
       </c>
       <c r="L468" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M468">
         <v>7.55436126385394E-8</v>
@@ -15251,7 +15254,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>261</v>
       </c>
@@ -15280,7 +15283,7 @@
         <v>0.81154174261093925</v>
       </c>
       <c r="L469" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M469">
         <v>1.10953178654857E-7</v>
@@ -15289,7 +15292,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>118</v>
       </c>
@@ -15318,7 +15321,7 @@
         <v>0.55389529696504913</v>
       </c>
       <c r="L470" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M470">
         <v>1.5630125721248699E-12</v>
@@ -15327,7 +15330,7 @@
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>153</v>
       </c>
@@ -15353,13 +15356,13 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L471" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N471">
         <v>0.2</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>344</v>
       </c>
@@ -15388,7 +15391,7 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L472" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M472">
         <v>4.7174811009129099E-6</v>
@@ -15397,7 +15400,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>121</v>
       </c>
@@ -15426,7 +15429,7 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L473" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M473">
         <v>6.6876972018751299E-7</v>
@@ -15435,7 +15438,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>271</v>
       </c>
@@ -15464,7 +15467,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L474" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M474">
         <v>7.9732840401622596E-7</v>
@@ -15473,7 +15476,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>349</v>
       </c>
@@ -15502,7 +15505,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L475" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M475">
         <v>6.2426905715800202E-7</v>
@@ -15511,7 +15514,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>352</v>
       </c>
@@ -15540,7 +15543,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L476" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M476">
         <v>2.43482893582134E-7</v>
@@ -15549,7 +15552,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>26</v>
       </c>
@@ -15578,7 +15581,7 @@
         <v>0.2163330765278394</v>
       </c>
       <c r="L477" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M477">
         <v>1.01936932435993E-4</v>
@@ -15587,7 +15590,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>125</v>
       </c>
@@ -15613,13 +15616,13 @@
         <v>0.55425625842204074</v>
       </c>
       <c r="L478" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N478">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>280</v>
       </c>
@@ -15645,13 +15648,13 @@
         <v>0.55389529696504913</v>
       </c>
       <c r="L479" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N479">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>355</v>
       </c>
@@ -15677,13 +15680,13 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L480" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N480">
         <v>0.2</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>357</v>
       </c>
@@ -15709,13 +15712,13 @@
         <v>0.35608987629529709</v>
       </c>
       <c r="L481" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N481">
         <v>0.34641016151377552</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>357</v>
       </c>
@@ -15732,7 +15735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>154</v>
       </c>
@@ -15758,13 +15761,13 @@
         <v>0.552630075185924</v>
       </c>
       <c r="L483" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N483">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>128</v>
       </c>
@@ -15793,7 +15796,7 @@
         <v>0.2172556098240043</v>
       </c>
       <c r="L484" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M484">
         <v>5.2058060269292197E-5</v>
@@ -15802,7 +15805,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>21</v>
       </c>
@@ -15831,7 +15834,7 @@
         <v>0.20663978319771831</v>
       </c>
       <c r="L485" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M485">
         <v>1.47176176815489E-3</v>
@@ -15840,7 +15843,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>21</v>
       </c>
@@ -15869,7 +15872,7 @@
         <v>0.20712315177207979</v>
       </c>
       <c r="L486" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M486">
         <v>8.8716527537463005E-3</v>
@@ -15878,7 +15881,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>84</v>
       </c>
@@ -15904,13 +15907,13 @@
         <v>7.6157731058639086E-2</v>
       </c>
       <c r="L487" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N487">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>84</v>
       </c>
@@ -15927,7 +15930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>365</v>
       </c>
@@ -15956,7 +15959,7 @@
         <v>0.81043198357419244</v>
       </c>
       <c r="L489" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M489">
         <v>7.8463778271888698E-6</v>
@@ -15965,7 +15968,7 @@
         <v>0.80622577482985502</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>219</v>
       </c>
@@ -15991,7 +15994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>132</v>
       </c>
@@ -16011,7 +16014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>161</v>
       </c>
@@ -16040,13 +16043,13 @@
         <v>8.4852813742385708E-2</v>
       </c>
       <c r="L492" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N492">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>142</v>
       </c>
@@ -16075,13 +16078,13 @@
         <v>7.3484692283495343E-2</v>
       </c>
       <c r="L493" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N493">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>159</v>
       </c>
@@ -16110,13 +16113,13 @@
         <v>7.7459666924148338E-2</v>
       </c>
       <c r="L494" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N494">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>163</v>
       </c>
@@ -16145,13 +16148,13 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L495" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N495">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>24</v>
       </c>
@@ -16180,13 +16183,13 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L496" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N496">
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>143</v>
       </c>
@@ -16215,21 +16218,21 @@
         <v>0.71414284285428498</v>
       </c>
       <c r="L497" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N497">
         <v>0.54772255750516607</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B498">
         <v>-4.9799999999999997E-2</v>
       </c>
       <c r="C498" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D498" t="s">
         <v>14</v>
@@ -16250,13 +16253,13 @@
         <v>0.08</v>
       </c>
       <c r="L498" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N498">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>145</v>
       </c>
@@ -16285,13 +16288,13 @@
         <v>8.8317608663278466E-2</v>
       </c>
       <c r="L499" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N499">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>165</v>
       </c>
@@ -16311,7 +16314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>29</v>
       </c>
@@ -16331,7 +16334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>166</v>
       </c>
@@ -16360,13 +16363,13 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L502" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N502">
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>160</v>
       </c>
@@ -16395,13 +16398,13 @@
         <v>8.4852813742385708E-2</v>
       </c>
       <c r="L503" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N503">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>167</v>
       </c>
@@ -16430,13 +16433,13 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L504" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N504">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>168</v>
       </c>
@@ -16465,13 +16468,13 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L505" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N505">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>100</v>
       </c>
@@ -16491,7 +16494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>104</v>
       </c>
@@ -16511,7 +16514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>146</v>
       </c>
@@ -16540,13 +16543,13 @@
         <v>8.8317608663278466E-2</v>
       </c>
       <c r="L508" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N508">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>169</v>
       </c>
@@ -16575,13 +16578,13 @@
         <v>5.2915026221291808E-2</v>
       </c>
       <c r="L509" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N509">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>170</v>
       </c>
@@ -16610,13 +16613,13 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L510" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N510">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>147</v>
       </c>
@@ -16636,7 +16639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>171</v>
       </c>
@@ -16665,13 +16668,13 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L512" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N512">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>148</v>
       </c>
@@ -16700,13 +16703,13 @@
         <v>8.6023252670426265E-2</v>
       </c>
       <c r="L513" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N513">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>172</v>
       </c>
@@ -16735,13 +16738,13 @@
         <v>4.4721359549995787E-2</v>
       </c>
       <c r="L514" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N514">
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>149</v>
       </c>
@@ -16770,13 +16773,13 @@
         <v>7.3484692283495343E-2</v>
       </c>
       <c r="L515" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N515">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>150</v>
       </c>
@@ -16796,7 +16799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>114</v>
       </c>
@@ -16825,15 +16828,15 @@
         <v>7.211102550927978E-2</v>
       </c>
       <c r="L517" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N517">
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B518">
         <v>-9.5999999999999992E-3</v>
@@ -16866,27 +16869,27 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -16894,10 +16897,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -16905,7 +16908,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -16913,7 +16916,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -16921,7 +16924,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -16929,7 +16932,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -16937,7 +16940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -16945,7 +16948,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -16953,12 +16956,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -16984,7 +16987,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>B6</f>
         <v>vanadium bearing magnetite production</v>
@@ -17006,7 +17009,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -17027,7 +17030,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -17048,7 +17051,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -17069,7 +17072,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -17090,7 +17093,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -17111,7 +17114,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -17132,7 +17135,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -17153,7 +17156,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -17174,7 +17177,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -17195,7 +17198,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -17216,7 +17219,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>222</v>
       </c>
@@ -17236,7 +17239,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -17254,7 +17257,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -17272,7 +17275,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -17290,7 +17293,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -17308,7 +17311,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -17326,7 +17329,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -17344,7 +17347,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -17362,7 +17365,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -17380,7 +17383,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -17398,7 +17401,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -17416,7 +17419,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -17424,7 +17427,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -17432,7 +17435,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -17440,7 +17443,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -17448,7 +17451,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -17456,7 +17459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -17464,7 +17467,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -17472,12 +17475,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -17503,7 +17506,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>216</v>
       </c>
@@ -17524,7 +17527,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>215</v>
       </c>
@@ -17545,7 +17548,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -17566,7 +17569,7 @@
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -17587,7 +17590,7 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -17608,7 +17611,7 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -17629,7 +17632,7 @@
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -17650,7 +17653,7 @@
       </c>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -17671,7 +17674,7 @@
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -17692,7 +17695,7 @@
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -17713,7 +17716,7 @@
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -17734,7 +17737,7 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -17755,7 +17758,7 @@
       </c>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -17776,7 +17779,7 @@
       </c>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -17797,7 +17800,7 @@
       </c>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -17818,7 +17821,7 @@
       </c>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -17839,7 +17842,7 @@
       </c>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -17860,7 +17863,7 @@
       </c>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -17881,7 +17884,7 @@
       </c>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -17902,7 +17905,7 @@
       </c>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -17920,7 +17923,7 @@
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -17938,7 +17941,7 @@
       </c>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -17956,7 +17959,7 @@
       </c>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -17974,7 +17977,7 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -17992,7 +17995,7 @@
       </c>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -18010,7 +18013,7 @@
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -18028,7 +18031,7 @@
       </c>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -18046,7 +18049,7 @@
       </c>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -18064,7 +18067,7 @@
       </c>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -18082,7 +18085,7 @@
       </c>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -18100,7 +18103,7 @@
       </c>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -18118,7 +18121,7 @@
       </c>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -18136,7 +18139,7 @@
       </c>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -18154,7 +18157,7 @@
       </c>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -18172,7 +18175,7 @@
       </c>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>120</v>
       </c>
@@ -18190,7 +18193,7 @@
       </c>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>120</v>
       </c>
@@ -18208,7 +18211,7 @@
       </c>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>121</v>
       </c>
@@ -18226,7 +18229,7 @@
       </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>121</v>
       </c>
@@ -18244,7 +18247,7 @@
       </c>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>46</v>
       </c>
@@ -18262,7 +18265,7 @@
       </c>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>44</v>
       </c>
@@ -18280,7 +18283,7 @@
       </c>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -18298,7 +18301,7 @@
       </c>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -18316,7 +18319,7 @@
       </c>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -18334,7 +18337,7 @@
       </c>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -18352,7 +18355,7 @@
       </c>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -18370,7 +18373,7 @@
       </c>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -18388,7 +18391,7 @@
       </c>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>122</v>
       </c>
@@ -18406,7 +18409,7 @@
       </c>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>40</v>
       </c>
@@ -18424,7 +18427,7 @@
       </c>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>42</v>
       </c>
@@ -18442,7 +18445,7 @@
       </c>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>123</v>
       </c>
@@ -18460,7 +18463,7 @@
       </c>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -18478,7 +18481,7 @@
       </c>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -18496,7 +18499,7 @@
       </c>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -18514,7 +18517,7 @@
       </c>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>125</v>
       </c>
@@ -18532,7 +18535,7 @@
       </c>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -18550,7 +18553,7 @@
       </c>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>38</v>
       </c>
@@ -18568,7 +18571,7 @@
       </c>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -18586,7 +18589,7 @@
       </c>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>43</v>
       </c>
@@ -18604,7 +18607,7 @@
       </c>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -18622,7 +18625,7 @@
       </c>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -18640,7 +18643,7 @@
       </c>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -18658,7 +18661,7 @@
       </c>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>128</v>
       </c>
@@ -18676,7 +18679,7 @@
       </c>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>129</v>
       </c>
@@ -18694,7 +18697,7 @@
       </c>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -18712,7 +18715,7 @@
       </c>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -18730,7 +18733,7 @@
       </c>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>84</v>
       </c>
@@ -18748,7 +18751,7 @@
       </c>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -18766,7 +18769,7 @@
       </c>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>41</v>
       </c>
@@ -18784,10 +18787,10 @@
       </c>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
@@ -18795,7 +18798,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -18803,7 +18806,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>213</v>
       </c>
@@ -18811,7 +18814,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -18819,7 +18822,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -18827,7 +18830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -18835,7 +18838,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -18843,12 +18846,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
@@ -18874,7 +18877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -18895,7 +18898,7 @@
       </c>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>216</v>
       </c>
@@ -18915,7 +18918,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -18935,7 +18938,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>143</v>
       </c>
@@ -18955,7 +18958,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -18975,7 +18978,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>145</v>
       </c>
@@ -18995,7 +18998,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -19015,7 +19018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>100</v>
       </c>
@@ -19035,7 +19038,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -19055,7 +19058,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -19075,7 +19078,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -19095,7 +19098,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -19115,7 +19118,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -19135,7 +19138,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -19152,7 +19155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>36</v>
       </c>
@@ -19169,7 +19172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>116</v>
       </c>
@@ -19186,7 +19189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -19203,7 +19206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>47</v>
       </c>
@@ -19220,7 +19223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>118</v>
       </c>
@@ -19237,7 +19240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>153</v>
       </c>
@@ -19254,7 +19257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>120</v>
       </c>
@@ -19271,7 +19274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>121</v>
       </c>
@@ -19288,7 +19291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>44</v>
       </c>
@@ -19305,7 +19308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -19322,7 +19325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>40</v>
       </c>
@@ -19339,7 +19342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -19356,7 +19359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>125</v>
       </c>
@@ -19373,7 +19376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>38</v>
       </c>
@@ -19390,7 +19393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -19407,7 +19410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>43</v>
       </c>
@@ -19424,7 +19427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -19441,7 +19444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>128</v>
       </c>
@@ -19458,7 +19461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -19475,7 +19478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -19492,7 +19495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>155</v>
       </c>
@@ -19509,7 +19512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -19526,10 +19529,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
@@ -19537,7 +19540,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -19545,7 +19548,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>213</v>
       </c>
@@ -19553,7 +19556,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -19561,7 +19564,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -19569,7 +19572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -19577,7 +19580,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -19585,12 +19588,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>9</v>
       </c>
@@ -19616,7 +19619,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>219</v>
       </c>
@@ -19638,7 +19641,7 @@
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>132</v>
       </c>
@@ -19660,7 +19663,7 @@
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>161</v>
       </c>
@@ -19682,7 +19685,7 @@
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>142</v>
       </c>
@@ -19704,7 +19707,7 @@
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>159</v>
       </c>
@@ -19726,7 +19729,7 @@
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>163</v>
       </c>
@@ -19748,7 +19751,7 @@
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -19770,7 +19773,7 @@
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>143</v>
       </c>
@@ -19792,7 +19795,7 @@
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>144</v>
       </c>
@@ -19814,7 +19817,7 @@
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>145</v>
       </c>
@@ -19836,7 +19839,7 @@
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>145</v>
       </c>
@@ -19858,7 +19861,7 @@
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -19880,7 +19883,7 @@
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>29</v>
       </c>
@@ -19901,7 +19904,7 @@
       </c>
       <c r="I183" s="4"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>166</v>
       </c>
@@ -19923,7 +19926,7 @@
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>160</v>
       </c>
@@ -19945,7 +19948,7 @@
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>167</v>
       </c>
@@ -19967,7 +19970,7 @@
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>168</v>
       </c>
@@ -19989,7 +19992,7 @@
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>100</v>
       </c>
@@ -20011,7 +20014,7 @@
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>104</v>
       </c>
@@ -20032,7 +20035,7 @@
       </c>
       <c r="I189" s="4"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>146</v>
       </c>
@@ -20054,7 +20057,7 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>169</v>
       </c>
@@ -20076,7 +20079,7 @@
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>170</v>
       </c>
@@ -20098,7 +20101,7 @@
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>147</v>
       </c>
@@ -20120,7 +20123,7 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>171</v>
       </c>
@@ -20142,7 +20145,7 @@
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>148</v>
       </c>
@@ -20164,7 +20167,7 @@
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>172</v>
       </c>
@@ -20186,7 +20189,7 @@
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>149</v>
       </c>
@@ -20208,7 +20211,7 @@
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>150</v>
       </c>
@@ -20230,7 +20233,7 @@
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>114</v>
       </c>
@@ -20252,7 +20255,7 @@
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>183</v>
       </c>
@@ -20271,7 +20274,7 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>151</v>
       </c>
@@ -20290,7 +20293,7 @@
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>152</v>
       </c>
@@ -20309,7 +20312,7 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>36</v>
       </c>
@@ -20328,7 +20331,7 @@
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>36</v>
       </c>
@@ -20347,7 +20350,7 @@
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>116</v>
       </c>
@@ -20366,7 +20369,7 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>116</v>
       </c>
@@ -20385,7 +20388,7 @@
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>184</v>
       </c>
@@ -20404,7 +20407,7 @@
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>32</v>
       </c>
@@ -20423,7 +20426,7 @@
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -20442,7 +20445,7 @@
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>185</v>
       </c>
@@ -20461,7 +20464,7 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>47</v>
       </c>
@@ -20480,7 +20483,7 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>47</v>
       </c>
@@ -20499,7 +20502,7 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>118</v>
       </c>
@@ -20518,7 +20521,7 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>118</v>
       </c>
@@ -20537,7 +20540,7 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>153</v>
       </c>
@@ -20556,7 +20559,7 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>120</v>
       </c>
@@ -20575,7 +20578,7 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>120</v>
       </c>
@@ -20594,7 +20597,7 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>121</v>
       </c>
@@ -20613,7 +20616,7 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>44</v>
       </c>
@@ -20632,7 +20635,7 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>44</v>
       </c>
@@ -20651,7 +20654,7 @@
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>39</v>
       </c>
@@ -20670,7 +20673,7 @@
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>39</v>
       </c>
@@ -20689,7 +20692,7 @@
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>40</v>
       </c>
@@ -20708,7 +20711,7 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>40</v>
       </c>
@@ -20727,7 +20730,7 @@
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>26</v>
       </c>
@@ -20746,7 +20749,7 @@
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>26</v>
       </c>
@@ -20765,7 +20768,7 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>125</v>
       </c>
@@ -20784,7 +20787,7 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>125</v>
       </c>
@@ -20803,7 +20806,7 @@
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>38</v>
       </c>
@@ -20822,7 +20825,7 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>38</v>
       </c>
@@ -20841,7 +20844,7 @@
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>27</v>
       </c>
@@ -20860,7 +20863,7 @@
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>27</v>
       </c>
@@ -20879,7 +20882,7 @@
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>43</v>
       </c>
@@ -20898,7 +20901,7 @@
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>43</v>
       </c>
@@ -20917,7 +20920,7 @@
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>154</v>
       </c>
@@ -20936,7 +20939,7 @@
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>154</v>
       </c>
@@ -20955,7 +20958,7 @@
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>128</v>
       </c>
@@ -20974,7 +20977,7 @@
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>128</v>
       </c>
@@ -20993,7 +20996,7 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -21012,7 +21015,7 @@
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -21031,7 +21034,7 @@
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -21050,7 +21053,7 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>155</v>
       </c>
@@ -21069,7 +21072,7 @@
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>84</v>
       </c>
@@ -21088,7 +21091,7 @@
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>35</v>
       </c>
@@ -21107,7 +21110,7 @@
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>35</v>
       </c>
@@ -21126,7 +21129,7 @@
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
@@ -21134,7 +21137,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -21142,7 +21145,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>213</v>
       </c>
@@ -21150,7 +21153,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>2</v>
       </c>
@@ -21158,7 +21161,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -21166,7 +21169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -21174,7 +21177,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -21182,12 +21185,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>9</v>
       </c>
@@ -21213,7 +21216,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>220</v>
       </c>
@@ -21233,7 +21236,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>219</v>
       </c>
@@ -21254,7 +21257,7 @@
       </c>
       <c r="H257" s="4"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>188</v>
       </c>
@@ -21274,7 +21277,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>173</v>
       </c>
@@ -21294,7 +21297,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>190</v>
       </c>
@@ -21314,7 +21317,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>192</v>
       </c>
@@ -21334,7 +21337,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>194</v>
       </c>
@@ -21354,7 +21357,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>29</v>
       </c>
@@ -21374,7 +21377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>104</v>
       </c>
@@ -21394,7 +21397,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>199</v>
       </c>
@@ -21414,7 +21417,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>200</v>
       </c>
@@ -21434,7 +21437,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>203</v>
       </c>
@@ -21454,7 +21457,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>169</v>
       </c>
@@ -21474,7 +21477,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>114</v>
       </c>
@@ -21494,7 +21497,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>201</v>
       </c>
@@ -21511,7 +21514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>128</v>
       </c>
@@ -21529,7 +21532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -21546,7 +21549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>21</v>
       </c>
@@ -21578,20 +21581,20 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>204</v>
       </c>
@@ -21608,7 +21611,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -21632,7 +21635,7 @@
         <v>0.76740406381698656</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>211</v>
       </c>
@@ -21653,7 +21656,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>210</v>
       </c>
@@ -21677,7 +21680,7 @@
         <v>0.2325959361830135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>SUM(B3:B5)</f>
         <v>1.3836599999999999</v>
